--- a/scenarios/14sectors_cat/scen_eu.xlsx
+++ b/scenarios/14sectors_cat/scen_eu.xlsx
@@ -19,24 +19,24 @@
     <definedName name="activate_policy_leaving_underground" localSheetId="2">NZP!$C$77</definedName>
     <definedName name="additional_land_compet_for_biofuels" localSheetId="2">NZP!#REF!</definedName>
     <definedName name="asymptote_GDPpc" localSheetId="2">NZP!#REF!</definedName>
-    <definedName name="average_solar_I" localSheetId="2">NZP!$C$337</definedName>
-    <definedName name="cell_efficiency_target_year" localSheetId="2">NZP!$C$338</definedName>
+    <definedName name="average_solar_I" localSheetId="2">NZP!$C$355</definedName>
+    <definedName name="cell_efficiency_target_year" localSheetId="2">NZP!$C$356</definedName>
     <definedName name="choose_energy_intensity_target_method" localSheetId="2">NZP!$C$202</definedName>
     <definedName name="choose_targets_mineral_recycling_rates" localSheetId="2">NZP!$D$232</definedName>
-    <definedName name="coal_net_flux_timeseries">NZP!$B$317:$H$317</definedName>
+    <definedName name="coal_net_flux_timeseries">NZP!$B$335:$H$335</definedName>
     <definedName name="crash_programme_CTL" localSheetId="2">NZP!$D$72</definedName>
     <definedName name="crash_programme_GTL" localSheetId="2">NZP!$D$74</definedName>
-    <definedName name="efficiency_rate_of_substitution_electricity" localSheetId="2">NZP!$C$350:$Q$354</definedName>
-    <definedName name="efficiency_rate_of_substitution_gases" localSheetId="2">NZP!$C$365:$Q$369</definedName>
-    <definedName name="efficiency_rate_of_substitution_heat" localSheetId="2">NZP!$C$355:$Q$359</definedName>
-    <definedName name="efficiency_rate_of_substitution_liquids" localSheetId="2">NZP!$C$360:$Q$364</definedName>
-    <definedName name="efficiency_rate_of_substitution_solids" localSheetId="2">NZP!$C$370:$Q$374</definedName>
+    <definedName name="efficiency_rate_of_substitution_electricity" localSheetId="2">NZP!$C$368:$Q$372</definedName>
+    <definedName name="efficiency_rate_of_substitution_gases" localSheetId="2">NZP!$C$383:$Q$387</definedName>
+    <definedName name="efficiency_rate_of_substitution_heat" localSheetId="2">NZP!$C$373:$Q$377</definedName>
+    <definedName name="efficiency_rate_of_substitution_liquids" localSheetId="2">NZP!$C$378:$Q$382</definedName>
+    <definedName name="efficiency_rate_of_substitution_solids" localSheetId="2">NZP!$C$388:$Q$392</definedName>
     <definedName name="energy_intensity_target" localSheetId="2">NZP!$C$208:$Q$212</definedName>
     <definedName name="energy_scarcity_forgetting_time" localSheetId="2">NZP!$C$222</definedName>
     <definedName name="energy_scarcity_forgetting_time_H" localSheetId="2">NZP!$C$226</definedName>
     <definedName name="EROI_feedback_flag" localSheetId="2">NZP!#REF!</definedName>
     <definedName name="final_year_energy_intensity_target" localSheetId="2">NZP!$C$205</definedName>
-    <definedName name="forest_overexplotation" localSheetId="2">NZP!$C$328</definedName>
+    <definedName name="forest_overexplotation" localSheetId="2">NZP!$C$346</definedName>
     <definedName name="fuel_share_air_pkm" localSheetId="2">NZP!$C$149:$I$152</definedName>
     <definedName name="fuel_share_air_tkm" localSheetId="2">NZP!$C$135:$I$138</definedName>
     <definedName name="fuel_share_households_pkm" localSheetId="2">NZP!$C$153:$I$156</definedName>
@@ -44,19 +44,19 @@
     <definedName name="fuel_share_inland_tkm" localSheetId="2">NZP!$C$127:$I$130</definedName>
     <definedName name="fuel_share_maritime_pkm" localSheetId="2">NZP!$C$145:$I$148</definedName>
     <definedName name="fuel_share_maritime_tkm" localSheetId="2">NZP!$C$131:$I$134</definedName>
-    <definedName name="gas_net_flux_timeseries">NZP!$B$315:$H$315</definedName>
+    <definedName name="gas_net_flux_timeseries">NZP!$B$333:$H$333</definedName>
     <definedName name="GWP_time_frame" localSheetId="2">NZP!#REF!</definedName>
-    <definedName name="limit_coal_imports_from_RoW" localSheetId="2">NZP!$D$303</definedName>
-    <definedName name="limit_nat_gas_imports_from_RoW" localSheetId="2">NZP!$D$299</definedName>
-    <definedName name="limit_oil_imports_from_RoW" localSheetId="2">NZP!$D$295</definedName>
+    <definedName name="limit_coal_imports_from_RoW" localSheetId="2">NZP!$D$321</definedName>
+    <definedName name="limit_nat_gas_imports_from_RoW" localSheetId="2">NZP!$D$317</definedName>
+    <definedName name="limit_oil_imports_from_RoW" localSheetId="2">NZP!$D$313</definedName>
     <definedName name="max_NPP_pot_bioe_residues" localSheetId="2">NZP!#REF!</definedName>
     <definedName name="max_PE_biogas" localSheetId="2">NZP!#REF!</definedName>
-    <definedName name="max_share_imports_coal" localSheetId="2">NZP!$F$305</definedName>
-    <definedName name="max_share_imports_nat_gas" localSheetId="2">NZP!$F$301</definedName>
-    <definedName name="max_share_imports_oil" localSheetId="2">NZP!$F$297</definedName>
+    <definedName name="max_share_imports_coal" localSheetId="2">NZP!$F$323</definedName>
+    <definedName name="max_share_imports_nat_gas" localSheetId="2">NZP!$F$319</definedName>
+    <definedName name="max_share_imports_oil" localSheetId="2">NZP!$F$315</definedName>
     <definedName name="min_FEI_vs_initial" localSheetId="2">NZP!$C$168</definedName>
-    <definedName name="minimum_forest" localSheetId="2">NZP!$C$329</definedName>
-    <definedName name="oil_net_flux_timeseries" localSheetId="2">NZP!$B$313:$H$313</definedName>
+    <definedName name="minimum_forest" localSheetId="2">NZP!$C$347</definedName>
+    <definedName name="oil_net_flux_timeseries" localSheetId="2">NZP!$B$331:$H$331</definedName>
     <definedName name="p_bioe_power" localSheetId="2">NZP!$C$18:$I$18</definedName>
     <definedName name="p_bioe_residues_growth" localSheetId="2">NZP!$C$35</definedName>
     <definedName name="p_biofuels_2gen_land_compet" localSheetId="2">NZP!$C$29</definedName>
@@ -74,6 +74,7 @@
     <definedName name="p_constraint_growth_unconv_oil" localSheetId="2">NZP!$C$65</definedName>
     <definedName name="p_CSP_power" localSheetId="2">NZP!$C$23:$I$23</definedName>
     <definedName name="p_CTL_growth" localSheetId="2">NZP!$C$72</definedName>
+    <definedName name="p_DAC" localSheetId="2">NZP!$C$307:$I$307</definedName>
     <definedName name="p_geot_heat_growth" localSheetId="2">NZP!$C$48</definedName>
     <definedName name="p_geot_power" localSheetId="2">NZP!$C$17:$I$17</definedName>
     <definedName name="p_GTL_growth" localSheetId="2">NZP!$C$74</definedName>
@@ -126,13 +127,14 @@
     <definedName name="sensitivity_to_scarcity_option_H" localSheetId="2">NZP!$C$223</definedName>
     <definedName name="separate_conv_and_unconv_gas" localSheetId="2">NZP!$C$68</definedName>
     <definedName name="separate_conv_and_unconv_oil" localSheetId="2">NZP!$C$64</definedName>
-    <definedName name="share_available_roof" localSheetId="2">NZP!$C$344</definedName>
-    <definedName name="share_available_roof_for_rooftop_PV" localSheetId="2">NZP!$C$345</definedName>
+    <definedName name="share_available_roof" localSheetId="2">NZP!$C$362</definedName>
+    <definedName name="share_available_roof_for_rooftop_PV" localSheetId="2">NZP!$C$363</definedName>
+    <definedName name="share_ccs_energy">NZP!$C$291:$I$305</definedName>
     <definedName name="share_cellulosic_biof_vs_bioe_res" localSheetId="2">NZP!$C$34</definedName>
     <definedName name="share_curtailment" localSheetId="2">NZP!$C$25:$I$25</definedName>
-    <definedName name="share_exports_electricity" localSheetId="2">NZP!$C$322:$I$322</definedName>
-    <definedName name="share_PV_urban_tot_PV" localSheetId="2">NZP!$C$347</definedName>
-    <definedName name="share_roof_solar_thermal" localSheetId="2">NZP!$C$346</definedName>
+    <definedName name="share_exports_electricity" localSheetId="2">NZP!$C$340:$I$340</definedName>
+    <definedName name="share_PV_urban_tot_PV" localSheetId="2">NZP!$C$365</definedName>
+    <definedName name="share_roof_solar_thermal" localSheetId="2">NZP!$C$364</definedName>
     <definedName name="share_RURR_agg_gas_underground" localSheetId="2">NZP!$C$92</definedName>
     <definedName name="share_RURR_agg_oil_underground" localSheetId="2">NZP!$C$90</definedName>
     <definedName name="share_RURR_coal_underground" localSheetId="2">NZP!$C$88</definedName>
@@ -153,7 +155,7 @@
     <definedName name="start_year_3gen_cell_biofuels" localSheetId="2">NZP!$C$30</definedName>
     <definedName name="start_year_bioe_residues_non_biofuels" localSheetId="2">NZP!$C$33</definedName>
     <definedName name="start_year_biofuels_land_marg" localSheetId="2">NZP!$C$36</definedName>
-    <definedName name="start_year_cell_efficency_PV" localSheetId="2">NZP!$C$339</definedName>
+    <definedName name="start_year_cell_efficency_PV" localSheetId="2">NZP!$C$357</definedName>
     <definedName name="start_year_modification_EI" localSheetId="2">NZP!$C$204</definedName>
     <definedName name="start_year_nuclear_variation_scen3_4" localSheetId="2">NZP!$E$107</definedName>
     <definedName name="start_year_P_common_rr_minerals_alt_techn" localSheetId="2">NZP!$C$257</definedName>
@@ -161,18 +163,18 @@
     <definedName name="start_year_p_growth_RES_elec" localSheetId="2">NZP!$C$15</definedName>
     <definedName name="start_year_p_growth_RES_heat" localSheetId="2">NZP!$C$45</definedName>
     <definedName name="start_year_P_rr_minerals" localSheetId="2">NZP!$B$235</definedName>
-    <definedName name="start_year_P_urban_land_density" localSheetId="2">NZP!$C$333</definedName>
+    <definedName name="start_year_P_urban_land_density" localSheetId="2">NZP!$C$351</definedName>
     <definedName name="start_year_policies_transport" localSheetId="2">NZP!$D$114</definedName>
     <definedName name="start_year_policy_phase_out_oil_for_electricity" localSheetId="2">NZP!$C$98</definedName>
     <definedName name="start_year_policy_phase_out_oil_for_heat" localSheetId="2">NZP!$C$99</definedName>
-    <definedName name="start_year_variation_primary_forest" localSheetId="2">NZP!$C$331</definedName>
-    <definedName name="targ_year_cell_efficiency_PV" localSheetId="2">NZP!$C$340</definedName>
+    <definedName name="start_year_variation_primary_forest" localSheetId="2">NZP!$C$349</definedName>
+    <definedName name="targ_year_cell_efficiency_PV" localSheetId="2">NZP!$C$358</definedName>
     <definedName name="target_year_asymptote_gdp" localSheetId="2">NZP!#REF!</definedName>
     <definedName name="target_year_asymptote_pop" localSheetId="2">NZP!#REF!</definedName>
     <definedName name="target_year_p_growth_RES_elec" localSheetId="2">NZP!#REF!</definedName>
     <definedName name="target_year_p_growth_RES_heat" localSheetId="2">NZP!$C$46</definedName>
     <definedName name="target_year_P_rr_minerals" localSheetId="2">NZP!$B$234</definedName>
-    <definedName name="target_year_P_urban_land_density" localSheetId="2">NZP!$C$334</definedName>
+    <definedName name="target_year_P_urban_land_density" localSheetId="2">NZP!$C$352</definedName>
     <definedName name="target_year_policy_phase_out_oil_electricity" localSheetId="2">NZP!$C$100</definedName>
     <definedName name="target_year_policy_phase_out_oil_heat" localSheetId="2">NZP!$C$101</definedName>
     <definedName name="tfin_policy_hh_veh" localSheetId="2">NZP!#REF!</definedName>
@@ -185,13 +187,13 @@
     <definedName name="unlimited_NRE" localSheetId="2">NZP!#REF!</definedName>
     <definedName name="unlimited_oil" localSheetId="2">NZP!#REF!</definedName>
     <definedName name="unlimited_uranium" localSheetId="2">NZP!#REF!</definedName>
-    <definedName name="urban_land_density" localSheetId="2">NZP!$C$332</definedName>
-    <definedName name="variation_primary_forest" localSheetId="2">NZP!$C$330</definedName>
+    <definedName name="urban_land_density" localSheetId="2">NZP!$C$350</definedName>
+    <definedName name="variation_primary_forest" localSheetId="2">NZP!$C$348</definedName>
     <definedName name="year_change_pct_energy_intensity_target" localSheetId="2">NZP!$C$214</definedName>
     <definedName name="year_customized_gdp_evol" localSheetId="2">NZP!#REF!</definedName>
     <definedName name="year_customized_pop_evol" localSheetId="2">NZP!#REF!</definedName>
     <definedName name="year_gdp_timeseries" localSheetId="2">NZP!$C$9:$AL$9</definedName>
-    <definedName name="year_net_energy_flux" localSheetId="2">NZP!$B$311:$H$311</definedName>
+    <definedName name="year_net_energy_flux" localSheetId="2">NZP!$B$329:$H$329</definedName>
     <definedName name="year_policy_change_energy" localSheetId="2">NZP!$C$183:$Q$187</definedName>
     <definedName name="year_policy_to_improve_efficiency" localSheetId="2">NZP!$C$171:$Q$175</definedName>
     <definedName name="year_pop_timeseries" localSheetId="2">NZP!$C$4:$AL$4</definedName>
@@ -361,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="628">
   <si>
     <t>File overview</t>
   </si>
@@ -2239,6 +2241,15 @@
   </si>
   <si>
     <t>Imports-exports</t>
+  </si>
+  <si>
+    <t>Share energy emissions related CCS</t>
+  </si>
+  <si>
+    <t>DACC</t>
+  </si>
+  <si>
+    <t>Installed capacity</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2263,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2395,8 +2406,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2575,6 +2593,18 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF8F200"/>
       </patternFill>
     </fill>
   </fills>
@@ -3230,7 +3260,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3685,6 +3715,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3913,6 +3951,9 @@
     <xf numFmtId="0" fontId="17" fillId="22" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4026,9 +4067,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5076,10 +5114,10 @@
       <c r="CL3" s="22"/>
     </row>
     <row r="4" spans="1:91">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="311" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="312" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -5090,9 +5128,9 @@
       </c>
     </row>
     <row r="5" spans="1:91">
-      <c r="A5" s="305"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="307" t="s">
+      <c r="A5" s="311"/>
+      <c r="B5" s="312"/>
+      <c r="C5" s="313" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -5358,9 +5396,9 @@
       </c>
     </row>
     <row r="6" spans="1:91">
-      <c r="A6" s="305"/>
-      <c r="B6" s="306"/>
-      <c r="C6" s="307"/>
+      <c r="A6" s="311"/>
+      <c r="B6" s="312"/>
+      <c r="C6" s="313"/>
       <c r="D6" s="26" t="s">
         <v>37</v>
       </c>
@@ -5454,15 +5492,15 @@
       <c r="CL6" s="28"/>
     </row>
     <row r="7" spans="1:91">
-      <c r="A7" s="305"/>
-      <c r="B7" s="306"/>
+      <c r="A7" s="311"/>
+      <c r="B7" s="312"/>
       <c r="C7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="308" t="s">
+      <c r="D7" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="309" t="s">
+      <c r="E7" s="315" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -5556,13 +5594,13 @@
       <c r="CL7" s="21"/>
     </row>
     <row r="8" spans="1:91">
-      <c r="A8" s="305"/>
-      <c r="B8" s="306"/>
+      <c r="A8" s="311"/>
+      <c r="B8" s="312"/>
       <c r="C8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="308"/>
-      <c r="E8" s="309"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="315"/>
       <c r="F8" s="17" t="s">
         <v>45</v>
       </c>
@@ -5671,10 +5709,10 @@
       <c r="CL10" s="16"/>
     </row>
     <row r="11" spans="1:91">
-      <c r="A11" s="310" t="s">
+      <c r="A11" s="316" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="311" t="s">
+      <c r="B11" s="317" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -5771,9 +5809,9 @@
       <c r="CL11" s="32"/>
     </row>
     <row r="12" spans="1:91">
-      <c r="A12" s="310"/>
-      <c r="B12" s="311"/>
-      <c r="C12" s="307" t="s">
+      <c r="A12" s="316"/>
+      <c r="B12" s="317"/>
+      <c r="C12" s="313" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="26" t="s">
@@ -6042,9 +6080,9 @@
       </c>
     </row>
     <row r="13" spans="1:91">
-      <c r="A13" s="310"/>
-      <c r="B13" s="311"/>
-      <c r="C13" s="307"/>
+      <c r="A13" s="316"/>
+      <c r="B13" s="317"/>
+      <c r="C13" s="313"/>
       <c r="D13" s="26" t="s">
         <v>37</v>
       </c>
@@ -6139,15 +6177,15 @@
       <c r="CM13" s="36"/>
     </row>
     <row r="14" spans="1:91">
-      <c r="A14" s="310"/>
-      <c r="B14" s="311"/>
+      <c r="A14" s="316"/>
+      <c r="B14" s="317"/>
       <c r="C14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="312" t="s">
+      <c r="D14" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="309" t="s">
+      <c r="E14" s="315" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="17" t="s">
@@ -6158,13 +6196,13 @@
       </c>
     </row>
     <row r="15" spans="1:91">
-      <c r="A15" s="310"/>
-      <c r="B15" s="311"/>
+      <c r="A15" s="316"/>
+      <c r="B15" s="317"/>
       <c r="C15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="312"/>
-      <c r="E15" s="309"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="315"/>
       <c r="F15" s="17" t="s">
         <v>56</v>
       </c>
@@ -6283,14 +6321,14 @@
       <c r="CL18" s="42"/>
     </row>
     <row r="19" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A19" s="303" t="s">
+      <c r="A19" s="309" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="304" t="s">
+      <c r="B19" s="310" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="304"/>
-      <c r="D19" s="279" t="s">
+      <c r="C19" s="310"/>
+      <c r="D19" s="285" t="s">
         <v>61</v>
       </c>
       <c r="G19" s="44"/>
@@ -6298,34 +6336,34 @@
       <c r="CL19" s="46"/>
     </row>
     <row r="20" spans="1:90">
-      <c r="A20" s="303"/>
-      <c r="B20" s="304" t="s">
+      <c r="A20" s="309"/>
+      <c r="B20" s="310" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="304"/>
-      <c r="D20" s="279"/>
+      <c r="C20" s="310"/>
+      <c r="D20" s="285"/>
       <c r="G20" s="44"/>
       <c r="L20" s="47"/>
       <c r="CL20" s="46"/>
     </row>
     <row r="21" spans="1:90">
-      <c r="A21" s="303"/>
-      <c r="B21" s="304" t="s">
+      <c r="A21" s="309"/>
+      <c r="B21" s="310" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="304"/>
-      <c r="D21" s="279"/>
+      <c r="C21" s="310"/>
+      <c r="D21" s="285"/>
       <c r="G21" s="44"/>
       <c r="L21" s="47"/>
       <c r="CL21" s="46"/>
     </row>
     <row r="22" spans="1:90">
-      <c r="A22" s="303"/>
-      <c r="B22" s="304" t="s">
+      <c r="A22" s="309"/>
+      <c r="B22" s="310" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="304"/>
-      <c r="D22" s="279"/>
+      <c r="C22" s="310"/>
+      <c r="D22" s="285"/>
       <c r="E22" s="48" t="s">
         <v>65</v>
       </c>
@@ -6699,14 +6737,14 @@
       <c r="I32" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="301" t="s">
+      <c r="J32" s="307" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="301"/>
-      <c r="L32" s="301"/>
-      <c r="M32" s="301"/>
-      <c r="N32" s="301"/>
-      <c r="O32" s="301"/>
+      <c r="K32" s="307"/>
+      <c r="L32" s="307"/>
+      <c r="M32" s="307"/>
+      <c r="N32" s="307"/>
+      <c r="O32" s="307"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="65"/>
       <c r="R32" s="65"/>
@@ -6739,14 +6777,14 @@
       <c r="I33" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="301" t="s">
+      <c r="J33" s="307" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="301"/>
-      <c r="L33" s="301"/>
-      <c r="M33" s="301"/>
-      <c r="N33" s="301"/>
-      <c r="O33" s="301"/>
+      <c r="K33" s="307"/>
+      <c r="L33" s="307"/>
+      <c r="M33" s="307"/>
+      <c r="N33" s="307"/>
+      <c r="O33" s="307"/>
       <c r="P33" s="37"/>
       <c r="Q33" s="65"/>
       <c r="R33" s="65"/>
@@ -6773,14 +6811,14 @@
       <c r="I34" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="301" t="s">
+      <c r="J34" s="307" t="s">
         <v>107</v>
       </c>
-      <c r="K34" s="301"/>
-      <c r="L34" s="301"/>
-      <c r="M34" s="301"/>
-      <c r="N34" s="301"/>
-      <c r="O34" s="301"/>
+      <c r="K34" s="307"/>
+      <c r="L34" s="307"/>
+      <c r="M34" s="307"/>
+      <c r="N34" s="307"/>
+      <c r="O34" s="307"/>
       <c r="P34" s="37"/>
       <c r="Q34" s="65"/>
       <c r="R34" s="65"/>
@@ -6806,12 +6844,12 @@
       <c r="F35" s="66">
         <v>0.5</v>
       </c>
-      <c r="J35" s="301"/>
-      <c r="K35" s="301"/>
-      <c r="L35" s="301"/>
-      <c r="M35" s="301"/>
-      <c r="N35" s="301"/>
-      <c r="O35" s="301"/>
+      <c r="J35" s="307"/>
+      <c r="K35" s="307"/>
+      <c r="L35" s="307"/>
+      <c r="M35" s="307"/>
+      <c r="N35" s="307"/>
+      <c r="O35" s="307"/>
       <c r="CK35" s="46"/>
     </row>
     <row r="36" spans="1:90">
@@ -6833,14 +6871,14 @@
       <c r="I36" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="301" t="s">
+      <c r="J36" s="307" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="301"/>
-      <c r="L36" s="301"/>
-      <c r="M36" s="301"/>
-      <c r="N36" s="301"/>
-      <c r="O36" s="301"/>
+      <c r="K36" s="307"/>
+      <c r="L36" s="307"/>
+      <c r="M36" s="307"/>
+      <c r="N36" s="307"/>
+      <c r="O36" s="307"/>
       <c r="P36" s="68"/>
       <c r="CK36" s="46"/>
     </row>
@@ -6869,14 +6907,14 @@
       <c r="I37" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="301" t="s">
+      <c r="J37" s="307" t="s">
         <v>115</v>
       </c>
-      <c r="K37" s="301"/>
-      <c r="L37" s="301"/>
-      <c r="M37" s="301"/>
-      <c r="N37" s="301"/>
-      <c r="O37" s="301"/>
+      <c r="K37" s="307"/>
+      <c r="L37" s="307"/>
+      <c r="M37" s="307"/>
+      <c r="N37" s="307"/>
+      <c r="O37" s="307"/>
       <c r="P37" s="38"/>
       <c r="Q37" s="17" t="s">
         <v>93</v>
@@ -6914,14 +6952,14 @@
       <c r="I38" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="301" t="s">
+      <c r="J38" s="307" t="s">
         <v>119</v>
       </c>
-      <c r="K38" s="301"/>
-      <c r="L38" s="301"/>
-      <c r="M38" s="301"/>
-      <c r="N38" s="301"/>
-      <c r="O38" s="301"/>
+      <c r="K38" s="307"/>
+      <c r="L38" s="307"/>
+      <c r="M38" s="307"/>
+      <c r="N38" s="307"/>
+      <c r="O38" s="307"/>
       <c r="CK38" s="46"/>
     </row>
     <row r="39" spans="1:90">
@@ -8006,123 +8044,123 @@
       <c r="CL67" s="91"/>
     </row>
     <row r="68" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A68" s="295" t="s">
+      <c r="A68" s="301" t="s">
         <v>173</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>174</v>
       </c>
       <c r="C68" s="43"/>
-      <c r="D68" s="302" t="s">
+      <c r="D68" s="308" t="s">
         <v>175</v>
       </c>
       <c r="CL68" s="46"/>
     </row>
     <row r="69" spans="1:90">
-      <c r="A69" s="295"/>
+      <c r="A69" s="301"/>
       <c r="B69" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C69" s="43"/>
-      <c r="D69" s="302"/>
+      <c r="D69" s="308"/>
       <c r="CL69" s="46"/>
     </row>
     <row r="70" spans="1:90">
-      <c r="A70" s="295"/>
+      <c r="A70" s="301"/>
       <c r="B70" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C70" s="43"/>
-      <c r="D70" s="302"/>
+      <c r="D70" s="308"/>
       <c r="CL70" s="46"/>
     </row>
     <row r="71" spans="1:90">
-      <c r="A71" s="295"/>
+      <c r="A71" s="301"/>
       <c r="B71" s="43" t="s">
         <v>178</v>
       </c>
       <c r="C71" s="43"/>
-      <c r="D71" s="302"/>
+      <c r="D71" s="308"/>
       <c r="CL71" s="46"/>
     </row>
     <row r="72" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A72" s="295" t="s">
+      <c r="A72" s="301" t="s">
         <v>179</v>
       </c>
       <c r="B72" s="43" t="s">
         <v>180</v>
       </c>
       <c r="C72" s="43"/>
-      <c r="D72" s="286" t="s">
+      <c r="D72" s="292" t="s">
         <v>175</v>
       </c>
       <c r="CL72" s="46"/>
     </row>
     <row r="73" spans="1:90">
-      <c r="A73" s="295"/>
+      <c r="A73" s="301"/>
       <c r="B73" s="43" t="s">
         <v>181</v>
       </c>
       <c r="C73" s="43"/>
-      <c r="D73" s="286"/>
+      <c r="D73" s="292"/>
       <c r="CL73" s="46"/>
     </row>
     <row r="74" spans="1:90">
-      <c r="A74" s="295"/>
+      <c r="A74" s="301"/>
       <c r="B74" s="43" t="s">
         <v>182</v>
       </c>
       <c r="C74" s="43"/>
-      <c r="D74" s="286"/>
+      <c r="D74" s="292"/>
       <c r="CL74" s="46"/>
     </row>
     <row r="75" spans="1:90">
-      <c r="A75" s="295"/>
+      <c r="A75" s="301"/>
       <c r="B75" s="43" t="s">
         <v>183</v>
       </c>
       <c r="C75" s="43"/>
-      <c r="D75" s="286"/>
+      <c r="D75" s="292"/>
       <c r="CL75" s="46"/>
     </row>
     <row r="76" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A76" s="295" t="s">
+      <c r="A76" s="301" t="s">
         <v>184</v>
       </c>
       <c r="B76" s="43" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="43"/>
-      <c r="D76" s="286" t="s">
+      <c r="D76" s="292" t="s">
         <v>175</v>
       </c>
       <c r="CL76" s="46"/>
     </row>
     <row r="77" spans="1:90">
-      <c r="A77" s="295"/>
+      <c r="A77" s="301"/>
       <c r="B77" s="43" t="s">
         <v>186</v>
       </c>
       <c r="C77" s="43"/>
-      <c r="D77" s="286"/>
+      <c r="D77" s="292"/>
       <c r="CL77" s="46"/>
     </row>
     <row r="78" spans="1:90">
-      <c r="A78" s="295"/>
+      <c r="A78" s="301"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
-      <c r="D78" s="286"/>
+      <c r="D78" s="292"/>
       <c r="CL78" s="46"/>
     </row>
     <row r="79" spans="1:90">
-      <c r="A79" s="295"/>
+      <c r="A79" s="301"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
-      <c r="D79" s="286"/>
+      <c r="D79" s="292"/>
       <c r="CL79" s="46"/>
     </row>
     <row r="80" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A80" s="295" t="s">
+      <c r="A80" s="301" t="s">
         <v>187</v>
       </c>
       <c r="B80" s="93" t="s">
@@ -8131,25 +8169,25 @@
       <c r="C80" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="D80" s="286" t="s">
+      <c r="D80" s="292" t="s">
         <v>190</v>
       </c>
       <c r="CL80" s="46"/>
     </row>
     <row r="81" spans="1:90">
-      <c r="A81" s="295"/>
+      <c r="A81" s="301"/>
       <c r="B81" s="95" t="s">
         <v>191</v>
       </c>
       <c r="C81" s="96"/>
-      <c r="D81" s="286"/>
+      <c r="D81" s="292"/>
       <c r="CL81" s="46"/>
     </row>
     <row r="82" spans="1:90">
-      <c r="A82" s="295"/>
+      <c r="A82" s="301"/>
       <c r="B82" s="97"/>
       <c r="C82" s="98"/>
-      <c r="D82" s="286"/>
+      <c r="D82" s="292"/>
       <c r="CL82" s="46"/>
     </row>
     <row r="83" spans="1:90">
@@ -8255,125 +8293,125 @@
       <c r="CL83" s="42"/>
     </row>
     <row r="84" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A84" s="295" t="s">
+      <c r="A84" s="301" t="s">
         <v>197</v>
       </c>
       <c r="B84" s="43" t="s">
         <v>198</v>
       </c>
       <c r="C84" s="43"/>
-      <c r="D84" s="286" t="s">
+      <c r="D84" s="292" t="s">
         <v>175</v>
       </c>
       <c r="CL84" s="46"/>
     </row>
     <row r="85" spans="1:90">
-      <c r="A85" s="295"/>
+      <c r="A85" s="301"/>
       <c r="B85" s="43" t="s">
         <v>199</v>
       </c>
       <c r="C85" s="43"/>
-      <c r="D85" s="286"/>
+      <c r="D85" s="292"/>
       <c r="CL85" s="46"/>
     </row>
     <row r="86" spans="1:90">
-      <c r="A86" s="295"/>
+      <c r="A86" s="301"/>
       <c r="B86" s="43" t="s">
         <v>200</v>
       </c>
       <c r="C86" s="43"/>
-      <c r="D86" s="286"/>
+      <c r="D86" s="292"/>
       <c r="CL86" s="46"/>
     </row>
     <row r="87" spans="1:90">
-      <c r="A87" s="295"/>
+      <c r="A87" s="301"/>
       <c r="B87" s="43" t="s">
         <v>201</v>
       </c>
       <c r="C87" s="43"/>
-      <c r="D87" s="286"/>
+      <c r="D87" s="292"/>
       <c r="CL87" s="46"/>
     </row>
     <row r="88" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A88" s="295" t="s">
+      <c r="A88" s="301" t="s">
         <v>202</v>
       </c>
       <c r="B88" s="43" t="s">
         <v>180</v>
       </c>
       <c r="C88" s="43"/>
-      <c r="D88" s="286" t="s">
+      <c r="D88" s="292" t="s">
         <v>175</v>
       </c>
       <c r="CL88" s="46"/>
     </row>
     <row r="89" spans="1:90">
-      <c r="A89" s="295"/>
+      <c r="A89" s="301"/>
       <c r="B89" s="43" t="s">
         <v>181</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="286"/>
+      <c r="D89" s="292"/>
       <c r="CL89" s="46"/>
     </row>
     <row r="90" spans="1:90">
-      <c r="A90" s="295"/>
+      <c r="A90" s="301"/>
       <c r="B90" s="43" t="s">
         <v>182</v>
       </c>
       <c r="C90" s="43"/>
-      <c r="D90" s="286"/>
+      <c r="D90" s="292"/>
       <c r="CL90" s="46"/>
     </row>
     <row r="91" spans="1:90">
-      <c r="A91" s="295"/>
+      <c r="A91" s="301"/>
       <c r="B91" s="43" t="s">
         <v>203</v>
       </c>
       <c r="C91" s="43"/>
-      <c r="D91" s="286"/>
+      <c r="D91" s="292"/>
       <c r="CL91" s="46"/>
     </row>
     <row r="92" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A92" s="295" t="s">
+      <c r="A92" s="301" t="s">
         <v>204</v>
       </c>
       <c r="B92" s="43" t="s">
         <v>205</v>
       </c>
       <c r="C92" s="43"/>
-      <c r="D92" s="286" t="s">
+      <c r="D92" s="292" t="s">
         <v>175</v>
       </c>
       <c r="CL92" s="46"/>
     </row>
     <row r="93" spans="1:90">
-      <c r="A93" s="295"/>
+      <c r="A93" s="301"/>
       <c r="B93" s="43" t="s">
         <v>206</v>
       </c>
       <c r="C93" s="43"/>
-      <c r="D93" s="286"/>
+      <c r="D93" s="292"/>
       <c r="CL93" s="46"/>
     </row>
     <row r="94" spans="1:90">
-      <c r="A94" s="295"/>
+      <c r="A94" s="301"/>
       <c r="B94" s="43" t="s">
         <v>207</v>
       </c>
       <c r="C94" s="43"/>
-      <c r="D94" s="286"/>
+      <c r="D94" s="292"/>
       <c r="CL94" s="46"/>
     </row>
     <row r="95" spans="1:90">
-      <c r="A95" s="295"/>
+      <c r="A95" s="301"/>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
-      <c r="D95" s="286"/>
+      <c r="D95" s="292"/>
       <c r="CL95" s="46"/>
     </row>
     <row r="96" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A96" s="295" t="s">
+      <c r="A96" s="301" t="s">
         <v>208</v>
       </c>
       <c r="B96" s="93" t="s">
@@ -8382,25 +8420,25 @@
       <c r="C96" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="D96" s="286" t="s">
+      <c r="D96" s="292" t="s">
         <v>190</v>
       </c>
       <c r="CL96" s="46"/>
     </row>
     <row r="97" spans="1:90">
-      <c r="A97" s="295"/>
+      <c r="A97" s="301"/>
       <c r="B97" s="95" t="s">
         <v>210</v>
       </c>
       <c r="C97" s="96"/>
-      <c r="D97" s="286"/>
+      <c r="D97" s="292"/>
       <c r="CL97" s="46"/>
     </row>
     <row r="98" spans="1:90">
-      <c r="A98" s="295"/>
+      <c r="A98" s="301"/>
       <c r="B98" s="100"/>
       <c r="C98" s="96"/>
-      <c r="D98" s="286"/>
+      <c r="D98" s="292"/>
       <c r="CL98" s="46"/>
     </row>
     <row r="99" spans="1:90">
@@ -8502,7 +8540,7 @@
       <c r="CL99" s="42"/>
     </row>
     <row r="100" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A100" s="295" t="s">
+      <c r="A100" s="301" t="s">
         <v>214</v>
       </c>
       <c r="B100" s="43" t="s">
@@ -8511,36 +8549,36 @@
       <c r="C100" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="D100" s="286" t="s">
+      <c r="D100" s="292" t="s">
         <v>217</v>
       </c>
       <c r="CL100" s="46"/>
     </row>
     <row r="101" spans="1:90">
-      <c r="A101" s="295"/>
+      <c r="A101" s="301"/>
       <c r="B101" s="43" t="s">
         <v>218</v>
       </c>
       <c r="C101" s="43"/>
-      <c r="D101" s="286"/>
+      <c r="D101" s="292"/>
       <c r="CL101" s="46"/>
     </row>
     <row r="102" spans="1:90">
-      <c r="A102" s="295"/>
+      <c r="A102" s="301"/>
       <c r="B102" s="43" t="s">
         <v>219</v>
       </c>
       <c r="C102" s="43"/>
-      <c r="D102" s="286"/>
+      <c r="D102" s="292"/>
       <c r="CL102" s="46"/>
     </row>
     <row r="103" spans="1:90">
-      <c r="A103" s="295"/>
+      <c r="A103" s="301"/>
       <c r="B103" s="43" t="s">
         <v>220</v>
       </c>
       <c r="C103" s="43"/>
-      <c r="D103" s="286"/>
+      <c r="D103" s="292"/>
       <c r="CL103" s="46"/>
     </row>
     <row r="104" spans="1:90">
@@ -8642,41 +8680,41 @@
       <c r="CL104" s="42"/>
     </row>
     <row r="105" spans="1:90" ht="14.25" customHeight="1">
-      <c r="A105" s="295" t="s">
+      <c r="A105" s="301" t="s">
         <v>224</v>
       </c>
       <c r="B105" s="43" t="s">
         <v>225</v>
       </c>
       <c r="C105" s="43"/>
-      <c r="D105" s="286" t="s">
+      <c r="D105" s="292" t="s">
         <v>217</v>
       </c>
       <c r="CL105" s="46"/>
     </row>
     <row r="106" spans="1:90">
-      <c r="A106" s="295"/>
+      <c r="A106" s="301"/>
       <c r="B106" s="102" t="s">
         <v>226</v>
       </c>
       <c r="C106" s="43"/>
-      <c r="D106" s="286"/>
+      <c r="D106" s="292"/>
       <c r="CL106" s="46"/>
     </row>
     <row r="107" spans="1:90">
-      <c r="A107" s="295"/>
+      <c r="A107" s="301"/>
       <c r="B107" s="43" t="s">
         <v>227</v>
       </c>
       <c r="C107" s="43"/>
-      <c r="D107" s="286"/>
+      <c r="D107" s="292"/>
       <c r="CL107" s="46"/>
     </row>
     <row r="108" spans="1:90">
-      <c r="A108" s="295"/>
+      <c r="A108" s="301"/>
       <c r="B108" s="27"/>
       <c r="C108" s="43"/>
-      <c r="D108" s="286"/>
+      <c r="D108" s="292"/>
       <c r="H108" s="103"/>
       <c r="I108" s="103"/>
       <c r="J108" s="103"/>
@@ -9025,18 +9063,18 @@
       <c r="T114" s="105"/>
     </row>
     <row r="115" spans="1:20">
-      <c r="A115" s="296"/>
-      <c r="B115" s="296"/>
-      <c r="C115" s="296"/>
-      <c r="D115" s="296"/>
-      <c r="E115" s="296"/>
+      <c r="A115" s="302"/>
+      <c r="B115" s="302"/>
+      <c r="C115" s="302"/>
+      <c r="D115" s="302"/>
+      <c r="E115" s="302"/>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="72"/>
       <c r="B116" s="107"/>
-      <c r="C116" s="297"/>
-      <c r="D116" s="297"/>
-      <c r="E116" s="297"/>
+      <c r="C116" s="303"/>
+      <c r="D116" s="303"/>
+      <c r="E116" s="303"/>
     </row>
     <row r="117" spans="1:20">
       <c r="C117" s="105"/>
@@ -9077,10 +9115,10 @@
       <c r="B119" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="298" t="s">
+      <c r="C119" s="304" t="s">
         <v>235</v>
       </c>
-      <c r="D119" s="298"/>
+      <c r="D119" s="304"/>
       <c r="E119" s="109"/>
       <c r="F119" s="105"/>
       <c r="G119" s="105"/>
@@ -9144,7 +9182,7 @@
       <c r="T121" s="112"/>
     </row>
     <row r="122" spans="1:20">
-      <c r="A122" s="287" t="s">
+      <c r="A122" s="293" t="s">
         <v>237</v>
       </c>
       <c r="B122" s="113" t="s">
@@ -9153,32 +9191,32 @@
       <c r="C122" s="114" t="s">
         <v>239</v>
       </c>
-      <c r="D122" s="299" t="s">
+      <c r="D122" s="305" t="s">
         <v>240</v>
       </c>
-      <c r="E122" s="300" t="s">
+      <c r="E122" s="306" t="s">
         <v>238</v>
       </c>
-      <c r="F122" s="286" t="s">
+      <c r="F122" s="292" t="s">
         <v>239</v>
       </c>
-      <c r="G122" s="286"/>
+      <c r="G122" s="292"/>
     </row>
     <row r="123" spans="1:20" ht="30">
-      <c r="A123" s="287"/>
+      <c r="A123" s="293"/>
       <c r="B123" s="115" t="s">
         <v>241</v>
       </c>
       <c r="C123" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="D123" s="299"/>
-      <c r="E123" s="300"/>
-      <c r="F123" s="286"/>
-      <c r="G123" s="286"/>
+      <c r="D123" s="305"/>
+      <c r="E123" s="306"/>
+      <c r="F123" s="292"/>
+      <c r="G123" s="292"/>
     </row>
     <row r="124" spans="1:20">
-      <c r="A124" s="287" t="s">
+      <c r="A124" s="293" t="s">
         <v>243</v>
       </c>
       <c r="B124" s="113" t="s">
@@ -9187,30 +9225,30 @@
       <c r="C124" s="114" t="s">
         <v>239</v>
       </c>
-      <c r="D124" s="299"/>
-      <c r="E124" s="292" t="s">
+      <c r="D124" s="305"/>
+      <c r="E124" s="298" t="s">
         <v>241</v>
       </c>
-      <c r="F124" s="293" t="s">
+      <c r="F124" s="299" t="s">
         <v>242</v>
       </c>
-      <c r="G124" s="293"/>
+      <c r="G124" s="299"/>
     </row>
     <row r="125" spans="1:20" ht="30">
-      <c r="A125" s="287"/>
+      <c r="A125" s="293"/>
       <c r="B125" s="115" t="s">
         <v>241</v>
       </c>
       <c r="C125" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="D125" s="299"/>
-      <c r="E125" s="292"/>
-      <c r="F125" s="293"/>
-      <c r="G125" s="293"/>
+      <c r="D125" s="305"/>
+      <c r="E125" s="298"/>
+      <c r="F125" s="299"/>
+      <c r="G125" s="299"/>
     </row>
     <row r="126" spans="1:20">
-      <c r="A126" s="287" t="s">
+      <c r="A126" s="293" t="s">
         <v>244</v>
       </c>
       <c r="B126" s="113" t="s">
@@ -9219,16 +9257,16 @@
       <c r="C126" s="114" t="s">
         <v>239</v>
       </c>
-      <c r="D126" s="287" t="s">
+      <c r="D126" s="293" t="s">
         <v>245</v>
       </c>
-      <c r="E126" s="292" t="s">
+      <c r="E126" s="298" t="s">
         <v>238</v>
       </c>
-      <c r="F126" s="286" t="s">
+      <c r="F126" s="292" t="s">
         <v>239</v>
       </c>
-      <c r="G126" s="286"/>
+      <c r="G126" s="292"/>
       <c r="I126" s="110"/>
       <c r="J126" s="110"/>
       <c r="K126" s="110"/>
@@ -9243,17 +9281,17 @@
       <c r="T126" s="110"/>
     </row>
     <row r="127" spans="1:20" ht="30">
-      <c r="A127" s="287"/>
+      <c r="A127" s="293"/>
       <c r="B127" s="115" t="s">
         <v>241</v>
       </c>
       <c r="C127" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="D127" s="287"/>
-      <c r="E127" s="292"/>
-      <c r="F127" s="286"/>
-      <c r="G127" s="286"/>
+      <c r="D127" s="293"/>
+      <c r="E127" s="298"/>
+      <c r="F127" s="292"/>
+      <c r="G127" s="292"/>
       <c r="I127" s="110"/>
       <c r="J127" s="110"/>
       <c r="K127" s="110"/>
@@ -9268,7 +9306,7 @@
       <c r="T127" s="110"/>
     </row>
     <row r="128" spans="1:20">
-      <c r="A128" s="287" t="s">
+      <c r="A128" s="293" t="s">
         <v>246</v>
       </c>
       <c r="B128" s="113" t="s">
@@ -9277,14 +9315,14 @@
       <c r="C128" s="114" t="s">
         <v>239</v>
       </c>
-      <c r="D128" s="287"/>
-      <c r="E128" s="292" t="s">
+      <c r="D128" s="293"/>
+      <c r="E128" s="298" t="s">
         <v>241</v>
       </c>
-      <c r="F128" s="294" t="s">
+      <c r="F128" s="300" t="s">
         <v>242</v>
       </c>
-      <c r="G128" s="294"/>
+      <c r="G128" s="300"/>
       <c r="I128" s="110"/>
       <c r="J128" s="110"/>
       <c r="K128" s="110"/>
@@ -9299,17 +9337,17 @@
       <c r="T128" s="110"/>
     </row>
     <row r="129" spans="1:20" ht="30">
-      <c r="A129" s="287"/>
+      <c r="A129" s="293"/>
       <c r="B129" s="115" t="s">
         <v>241</v>
       </c>
       <c r="C129" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="D129" s="287"/>
-      <c r="E129" s="292"/>
-      <c r="F129" s="294"/>
-      <c r="G129" s="294"/>
+      <c r="D129" s="293"/>
+      <c r="E129" s="298"/>
+      <c r="F129" s="300"/>
+      <c r="G129" s="300"/>
       <c r="I129" s="110"/>
       <c r="J129" s="110"/>
       <c r="K129" s="110"/>
@@ -9324,7 +9362,7 @@
       <c r="T129" s="110"/>
     </row>
     <row r="130" spans="1:20">
-      <c r="A130" s="287" t="s">
+      <c r="A130" s="293" t="s">
         <v>211</v>
       </c>
       <c r="B130" s="113" t="s">
@@ -9349,7 +9387,7 @@
       <c r="T130" s="110"/>
     </row>
     <row r="131" spans="1:20" ht="30">
-      <c r="A131" s="287"/>
+      <c r="A131" s="293"/>
       <c r="B131" s="115" t="s">
         <v>241</v>
       </c>
@@ -9769,22 +9807,22 @@
       <c r="E193" s="62"/>
     </row>
     <row r="194" spans="1:181" ht="71.25" customHeight="1">
-      <c r="A194" s="288" t="s">
+      <c r="A194" s="294" t="s">
         <v>318</v>
       </c>
-      <c r="B194" s="288"/>
-      <c r="C194" s="288"/>
-      <c r="D194" s="288"/>
-      <c r="E194" s="288"/>
+      <c r="B194" s="294"/>
+      <c r="C194" s="294"/>
+      <c r="D194" s="294"/>
+      <c r="E194" s="294"/>
     </row>
     <row r="195" spans="1:181" ht="13.5" customHeight="1">
-      <c r="A195" s="289" t="s">
+      <c r="A195" s="295" t="s">
         <v>319</v>
       </c>
       <c r="B195" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="C195" s="290" t="s">
+      <c r="C195" s="296" t="s">
         <v>175</v>
       </c>
       <c r="D195" s="67"/>
@@ -9799,11 +9837,11 @@
       <c r="N195" s="67"/>
     </row>
     <row r="196" spans="1:181">
-      <c r="A196" s="289"/>
+      <c r="A196" s="295"/>
       <c r="B196" s="126" t="s">
         <v>321</v>
       </c>
-      <c r="C196" s="290"/>
+      <c r="C196" s="296"/>
       <c r="D196" s="127"/>
       <c r="E196" s="127"/>
       <c r="F196" s="127"/>
@@ -9817,11 +9855,11 @@
       <c r="N196" s="127"/>
     </row>
     <row r="197" spans="1:181" ht="28.5" customHeight="1">
-      <c r="A197" s="289"/>
+      <c r="A197" s="295"/>
       <c r="B197" s="128" t="s">
         <v>322</v>
       </c>
-      <c r="C197" s="290"/>
+      <c r="C197" s="296"/>
       <c r="D197" s="67"/>
       <c r="E197" s="67"/>
       <c r="F197" s="67"/>
@@ -9835,11 +9873,11 @@
       <c r="N197" s="67"/>
     </row>
     <row r="198" spans="1:181" ht="13.5" customHeight="1">
-      <c r="A198" s="291" t="s">
+      <c r="A198" s="297" t="s">
         <v>323</v>
       </c>
-      <c r="B198" s="291"/>
-      <c r="C198" s="291"/>
+      <c r="B198" s="297"/>
+      <c r="C198" s="297"/>
       <c r="D198" s="129"/>
       <c r="E198" s="129"/>
       <c r="F198" s="129"/>
@@ -10104,260 +10142,260 @@
       <c r="A207" s="139" t="s">
         <v>336</v>
       </c>
-      <c r="B207" s="283" t="s">
+      <c r="B207" s="289" t="s">
         <v>337</v>
       </c>
-      <c r="C207" s="283"/>
-      <c r="D207" s="283"/>
-      <c r="E207" s="283"/>
-      <c r="F207" s="283"/>
-      <c r="G207" s="283" t="s">
+      <c r="C207" s="289"/>
+      <c r="D207" s="289"/>
+      <c r="E207" s="289"/>
+      <c r="F207" s="289"/>
+      <c r="G207" s="289" t="s">
         <v>338</v>
       </c>
-      <c r="H207" s="283"/>
-      <c r="I207" s="283"/>
-      <c r="J207" s="283"/>
-      <c r="K207" s="283"/>
-      <c r="L207" s="283" t="s">
+      <c r="H207" s="289"/>
+      <c r="I207" s="289"/>
+      <c r="J207" s="289"/>
+      <c r="K207" s="289"/>
+      <c r="L207" s="289" t="s">
         <v>339</v>
       </c>
-      <c r="M207" s="283"/>
-      <c r="N207" s="283"/>
-      <c r="O207" s="283"/>
-      <c r="P207" s="283"/>
-      <c r="Q207" s="283" t="s">
+      <c r="M207" s="289"/>
+      <c r="N207" s="289"/>
+      <c r="O207" s="289"/>
+      <c r="P207" s="289"/>
+      <c r="Q207" s="289" t="s">
         <v>340</v>
       </c>
-      <c r="R207" s="283"/>
-      <c r="S207" s="283"/>
-      <c r="T207" s="283"/>
-      <c r="U207" s="283"/>
-      <c r="V207" s="283" t="s">
+      <c r="R207" s="289"/>
+      <c r="S207" s="289"/>
+      <c r="T207" s="289"/>
+      <c r="U207" s="289"/>
+      <c r="V207" s="289" t="s">
         <v>341</v>
       </c>
-      <c r="W207" s="283"/>
-      <c r="X207" s="283"/>
-      <c r="Y207" s="283"/>
-      <c r="Z207" s="283"/>
-      <c r="AA207" s="283" t="s">
+      <c r="W207" s="289"/>
+      <c r="X207" s="289"/>
+      <c r="Y207" s="289"/>
+      <c r="Z207" s="289"/>
+      <c r="AA207" s="289" t="s">
         <v>342</v>
       </c>
-      <c r="AB207" s="283"/>
-      <c r="AC207" s="283"/>
-      <c r="AD207" s="283"/>
-      <c r="AE207" s="283"/>
-      <c r="AF207" s="283" t="s">
+      <c r="AB207" s="289"/>
+      <c r="AC207" s="289"/>
+      <c r="AD207" s="289"/>
+      <c r="AE207" s="289"/>
+      <c r="AF207" s="289" t="s">
         <v>343</v>
       </c>
-      <c r="AG207" s="283"/>
-      <c r="AH207" s="283"/>
-      <c r="AI207" s="283"/>
-      <c r="AJ207" s="283"/>
-      <c r="AK207" s="283" t="s">
+      <c r="AG207" s="289"/>
+      <c r="AH207" s="289"/>
+      <c r="AI207" s="289"/>
+      <c r="AJ207" s="289"/>
+      <c r="AK207" s="289" t="s">
         <v>344</v>
       </c>
-      <c r="AL207" s="283"/>
-      <c r="AM207" s="283"/>
-      <c r="AN207" s="283"/>
-      <c r="AO207" s="283"/>
-      <c r="AP207" s="283" t="s">
+      <c r="AL207" s="289"/>
+      <c r="AM207" s="289"/>
+      <c r="AN207" s="289"/>
+      <c r="AO207" s="289"/>
+      <c r="AP207" s="289" t="s">
         <v>345</v>
       </c>
-      <c r="AQ207" s="283"/>
-      <c r="AR207" s="283"/>
-      <c r="AS207" s="283"/>
-      <c r="AT207" s="283"/>
-      <c r="AU207" s="283" t="s">
+      <c r="AQ207" s="289"/>
+      <c r="AR207" s="289"/>
+      <c r="AS207" s="289"/>
+      <c r="AT207" s="289"/>
+      <c r="AU207" s="289" t="s">
         <v>346</v>
       </c>
-      <c r="AV207" s="283"/>
-      <c r="AW207" s="283"/>
-      <c r="AX207" s="283"/>
-      <c r="AY207" s="283"/>
-      <c r="AZ207" s="283" t="s">
+      <c r="AV207" s="289"/>
+      <c r="AW207" s="289"/>
+      <c r="AX207" s="289"/>
+      <c r="AY207" s="289"/>
+      <c r="AZ207" s="289" t="s">
         <v>347</v>
       </c>
-      <c r="BA207" s="283"/>
-      <c r="BB207" s="283"/>
-      <c r="BC207" s="283"/>
-      <c r="BD207" s="283"/>
-      <c r="BE207" s="283" t="s">
+      <c r="BA207" s="289"/>
+      <c r="BB207" s="289"/>
+      <c r="BC207" s="289"/>
+      <c r="BD207" s="289"/>
+      <c r="BE207" s="289" t="s">
         <v>348</v>
       </c>
-      <c r="BF207" s="283"/>
-      <c r="BG207" s="283"/>
-      <c r="BH207" s="283"/>
-      <c r="BI207" s="283"/>
-      <c r="BJ207" s="283" t="s">
+      <c r="BF207" s="289"/>
+      <c r="BG207" s="289"/>
+      <c r="BH207" s="289"/>
+      <c r="BI207" s="289"/>
+      <c r="BJ207" s="289" t="s">
         <v>349</v>
       </c>
-      <c r="BK207" s="283"/>
-      <c r="BL207" s="283"/>
-      <c r="BM207" s="283"/>
-      <c r="BN207" s="283"/>
-      <c r="BO207" s="283" t="s">
+      <c r="BK207" s="289"/>
+      <c r="BL207" s="289"/>
+      <c r="BM207" s="289"/>
+      <c r="BN207" s="289"/>
+      <c r="BO207" s="289" t="s">
         <v>350</v>
       </c>
-      <c r="BP207" s="283"/>
-      <c r="BQ207" s="283"/>
-      <c r="BR207" s="283"/>
-      <c r="BS207" s="283"/>
-      <c r="BT207" s="283" t="s">
+      <c r="BP207" s="289"/>
+      <c r="BQ207" s="289"/>
+      <c r="BR207" s="289"/>
+      <c r="BS207" s="289"/>
+      <c r="BT207" s="289" t="s">
         <v>351</v>
       </c>
-      <c r="BU207" s="283"/>
-      <c r="BV207" s="283"/>
-      <c r="BW207" s="283"/>
-      <c r="BX207" s="283"/>
-      <c r="BY207" s="283" t="s">
+      <c r="BU207" s="289"/>
+      <c r="BV207" s="289"/>
+      <c r="BW207" s="289"/>
+      <c r="BX207" s="289"/>
+      <c r="BY207" s="289" t="s">
         <v>352</v>
       </c>
-      <c r="BZ207" s="283"/>
-      <c r="CA207" s="283"/>
-      <c r="CB207" s="283"/>
-      <c r="CC207" s="283"/>
-      <c r="CD207" s="283" t="s">
+      <c r="BZ207" s="289"/>
+      <c r="CA207" s="289"/>
+      <c r="CB207" s="289"/>
+      <c r="CC207" s="289"/>
+      <c r="CD207" s="289" t="s">
         <v>353</v>
       </c>
-      <c r="CE207" s="283"/>
-      <c r="CF207" s="283"/>
-      <c r="CG207" s="283"/>
-      <c r="CH207" s="283"/>
-      <c r="CI207" s="283" t="s">
+      <c r="CE207" s="289"/>
+      <c r="CF207" s="289"/>
+      <c r="CG207" s="289"/>
+      <c r="CH207" s="289"/>
+      <c r="CI207" s="289" t="s">
         <v>354</v>
       </c>
-      <c r="CJ207" s="283"/>
-      <c r="CK207" s="283"/>
-      <c r="CL207" s="283"/>
-      <c r="CM207" s="283"/>
-      <c r="CN207" s="283" t="s">
+      <c r="CJ207" s="289"/>
+      <c r="CK207" s="289"/>
+      <c r="CL207" s="289"/>
+      <c r="CM207" s="289"/>
+      <c r="CN207" s="289" t="s">
         <v>355</v>
       </c>
-      <c r="CO207" s="283"/>
-      <c r="CP207" s="283"/>
-      <c r="CQ207" s="283"/>
-      <c r="CR207" s="283"/>
-      <c r="CS207" s="283" t="s">
+      <c r="CO207" s="289"/>
+      <c r="CP207" s="289"/>
+      <c r="CQ207" s="289"/>
+      <c r="CR207" s="289"/>
+      <c r="CS207" s="289" t="s">
         <v>356</v>
       </c>
-      <c r="CT207" s="283"/>
-      <c r="CU207" s="283"/>
-      <c r="CV207" s="283"/>
-      <c r="CW207" s="283"/>
-      <c r="CX207" s="283" t="s">
+      <c r="CT207" s="289"/>
+      <c r="CU207" s="289"/>
+      <c r="CV207" s="289"/>
+      <c r="CW207" s="289"/>
+      <c r="CX207" s="289" t="s">
         <v>357</v>
       </c>
-      <c r="CY207" s="283"/>
-      <c r="CZ207" s="283"/>
-      <c r="DA207" s="283"/>
-      <c r="DB207" s="283"/>
-      <c r="DC207" s="283" t="s">
+      <c r="CY207" s="289"/>
+      <c r="CZ207" s="289"/>
+      <c r="DA207" s="289"/>
+      <c r="DB207" s="289"/>
+      <c r="DC207" s="289" t="s">
         <v>358</v>
       </c>
-      <c r="DD207" s="283"/>
-      <c r="DE207" s="283"/>
-      <c r="DF207" s="283"/>
-      <c r="DG207" s="283"/>
-      <c r="DH207" s="284" t="s">
+      <c r="DD207" s="289"/>
+      <c r="DE207" s="289"/>
+      <c r="DF207" s="289"/>
+      <c r="DG207" s="289"/>
+      <c r="DH207" s="290" t="s">
         <v>359</v>
       </c>
-      <c r="DI207" s="284"/>
-      <c r="DJ207" s="284"/>
+      <c r="DI207" s="290"/>
+      <c r="DJ207" s="290"/>
       <c r="DK207" s="140" t="s">
         <v>360</v>
       </c>
       <c r="DL207" s="140">
         <v>1</v>
       </c>
-      <c r="DM207" s="283" t="s">
+      <c r="DM207" s="289" t="s">
         <v>361</v>
       </c>
-      <c r="DN207" s="283"/>
-      <c r="DO207" s="283"/>
-      <c r="DP207" s="283"/>
-      <c r="DQ207" s="283"/>
-      <c r="DR207" s="283" t="s">
+      <c r="DN207" s="289"/>
+      <c r="DO207" s="289"/>
+      <c r="DP207" s="289"/>
+      <c r="DQ207" s="289"/>
+      <c r="DR207" s="289" t="s">
         <v>362</v>
       </c>
-      <c r="DS207" s="283"/>
-      <c r="DT207" s="283"/>
-      <c r="DU207" s="283"/>
-      <c r="DV207" s="283"/>
-      <c r="DW207" s="283" t="s">
+      <c r="DS207" s="289"/>
+      <c r="DT207" s="289"/>
+      <c r="DU207" s="289"/>
+      <c r="DV207" s="289"/>
+      <c r="DW207" s="289" t="s">
         <v>363</v>
       </c>
-      <c r="DX207" s="283"/>
-      <c r="DY207" s="283"/>
-      <c r="DZ207" s="283"/>
-      <c r="EA207" s="283"/>
-      <c r="EB207" s="283" t="s">
+      <c r="DX207" s="289"/>
+      <c r="DY207" s="289"/>
+      <c r="DZ207" s="289"/>
+      <c r="EA207" s="289"/>
+      <c r="EB207" s="289" t="s">
         <v>364</v>
       </c>
-      <c r="EC207" s="283"/>
-      <c r="ED207" s="283"/>
-      <c r="EE207" s="283"/>
-      <c r="EF207" s="283"/>
-      <c r="EG207" s="283" t="s">
+      <c r="EC207" s="289"/>
+      <c r="ED207" s="289"/>
+      <c r="EE207" s="289"/>
+      <c r="EF207" s="289"/>
+      <c r="EG207" s="289" t="s">
         <v>365</v>
       </c>
-      <c r="EH207" s="283"/>
-      <c r="EI207" s="283"/>
-      <c r="EJ207" s="283"/>
-      <c r="EK207" s="283"/>
-      <c r="EL207" s="283" t="s">
+      <c r="EH207" s="289"/>
+      <c r="EI207" s="289"/>
+      <c r="EJ207" s="289"/>
+      <c r="EK207" s="289"/>
+      <c r="EL207" s="289" t="s">
         <v>366</v>
       </c>
-      <c r="EM207" s="283"/>
-      <c r="EN207" s="283"/>
-      <c r="EO207" s="283"/>
-      <c r="EP207" s="283"/>
-      <c r="EQ207" s="283" t="s">
+      <c r="EM207" s="289"/>
+      <c r="EN207" s="289"/>
+      <c r="EO207" s="289"/>
+      <c r="EP207" s="289"/>
+      <c r="EQ207" s="289" t="s">
         <v>367</v>
       </c>
-      <c r="ER207" s="283"/>
-      <c r="ES207" s="283"/>
-      <c r="ET207" s="283"/>
-      <c r="EU207" s="283"/>
-      <c r="EV207" s="283" t="s">
+      <c r="ER207" s="289"/>
+      <c r="ES207" s="289"/>
+      <c r="ET207" s="289"/>
+      <c r="EU207" s="289"/>
+      <c r="EV207" s="289" t="s">
         <v>368</v>
       </c>
-      <c r="EW207" s="283"/>
-      <c r="EX207" s="283"/>
-      <c r="EY207" s="283"/>
-      <c r="EZ207" s="283"/>
-      <c r="FA207" s="283" t="s">
+      <c r="EW207" s="289"/>
+      <c r="EX207" s="289"/>
+      <c r="EY207" s="289"/>
+      <c r="EZ207" s="289"/>
+      <c r="FA207" s="289" t="s">
         <v>369</v>
       </c>
-      <c r="FB207" s="283"/>
-      <c r="FC207" s="283"/>
-      <c r="FD207" s="283"/>
-      <c r="FE207" s="283"/>
-      <c r="FF207" s="283" t="s">
+      <c r="FB207" s="289"/>
+      <c r="FC207" s="289"/>
+      <c r="FD207" s="289"/>
+      <c r="FE207" s="289"/>
+      <c r="FF207" s="289" t="s">
         <v>370</v>
       </c>
-      <c r="FG207" s="283"/>
-      <c r="FH207" s="283"/>
-      <c r="FI207" s="283"/>
-      <c r="FJ207" s="283"/>
-      <c r="FK207" s="283" t="s">
+      <c r="FG207" s="289"/>
+      <c r="FH207" s="289"/>
+      <c r="FI207" s="289"/>
+      <c r="FJ207" s="289"/>
+      <c r="FK207" s="289" t="s">
         <v>371</v>
       </c>
-      <c r="FL207" s="283"/>
-      <c r="FM207" s="283"/>
-      <c r="FN207" s="283"/>
-      <c r="FO207" s="283"/>
-      <c r="FP207" s="283" t="s">
+      <c r="FL207" s="289"/>
+      <c r="FM207" s="289"/>
+      <c r="FN207" s="289"/>
+      <c r="FO207" s="289"/>
+      <c r="FP207" s="289" t="s">
         <v>372</v>
       </c>
-      <c r="FQ207" s="283"/>
-      <c r="FR207" s="283"/>
-      <c r="FS207" s="283"/>
-      <c r="FT207" s="283"/>
-      <c r="FU207" s="284" t="s">
+      <c r="FQ207" s="289"/>
+      <c r="FR207" s="289"/>
+      <c r="FS207" s="289"/>
+      <c r="FT207" s="289"/>
+      <c r="FU207" s="290" t="s">
         <v>373</v>
       </c>
-      <c r="FV207" s="284"/>
-      <c r="FW207" s="284"/>
+      <c r="FV207" s="290"/>
+      <c r="FW207" s="290"/>
       <c r="FX207" s="140" t="s">
         <v>360</v>
       </c>
@@ -16383,20 +16421,20 @@
       <c r="A224" s="139" t="s">
         <v>336</v>
       </c>
-      <c r="B224" s="283" t="s">
+      <c r="B224" s="289" t="s">
         <v>385</v>
       </c>
-      <c r="C224" s="283"/>
-      <c r="D224" s="283"/>
-      <c r="E224" s="283"/>
-      <c r="F224" s="283"/>
-      <c r="G224" s="283" t="s">
+      <c r="C224" s="289"/>
+      <c r="D224" s="289"/>
+      <c r="E224" s="289"/>
+      <c r="F224" s="289"/>
+      <c r="G224" s="289" t="s">
         <v>373</v>
       </c>
-      <c r="H224" s="283"/>
-      <c r="I224" s="283"/>
-      <c r="J224" s="283"/>
-      <c r="K224" s="283"/>
+      <c r="H224" s="289"/>
+      <c r="I224" s="289"/>
+      <c r="J224" s="289"/>
+      <c r="K224" s="289"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="67"/>
@@ -16803,22 +16841,22 @@
       </c>
     </row>
     <row r="241" spans="1:181" ht="14.25" customHeight="1">
-      <c r="A241" s="285" t="s">
+      <c r="A241" s="291" t="s">
         <v>387</v>
       </c>
       <c r="B241" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="C241" s="286" t="s">
+      <c r="C241" s="292" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="242" spans="1:181">
-      <c r="A242" s="285"/>
+      <c r="A242" s="291"/>
       <c r="B242" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="C242" s="286"/>
+      <c r="C242" s="292"/>
     </row>
     <row r="243" spans="1:181">
       <c r="A243" s="146" t="s">
@@ -16843,262 +16881,262 @@
       <c r="A245" s="148" t="s">
         <v>395</v>
       </c>
-      <c r="B245" s="283" t="s">
+      <c r="B245" s="289" t="s">
         <v>337</v>
       </c>
-      <c r="C245" s="283"/>
-      <c r="D245" s="283"/>
-      <c r="E245" s="283"/>
-      <c r="F245" s="283"/>
-      <c r="G245" s="283" t="s">
+      <c r="C245" s="289"/>
+      <c r="D245" s="289"/>
+      <c r="E245" s="289"/>
+      <c r="F245" s="289"/>
+      <c r="G245" s="289" t="s">
         <v>338</v>
       </c>
-      <c r="H245" s="283"/>
-      <c r="I245" s="283"/>
-      <c r="J245" s="283"/>
-      <c r="K245" s="283"/>
-      <c r="L245" s="283" t="s">
+      <c r="H245" s="289"/>
+      <c r="I245" s="289"/>
+      <c r="J245" s="289"/>
+      <c r="K245" s="289"/>
+      <c r="L245" s="289" t="s">
         <v>339</v>
       </c>
-      <c r="M245" s="283"/>
-      <c r="N245" s="283"/>
-      <c r="O245" s="283"/>
-      <c r="P245" s="283"/>
-      <c r="Q245" s="283" t="s">
+      <c r="M245" s="289"/>
+      <c r="N245" s="289"/>
+      <c r="O245" s="289"/>
+      <c r="P245" s="289"/>
+      <c r="Q245" s="289" t="s">
         <v>340</v>
       </c>
-      <c r="R245" s="283"/>
-      <c r="S245" s="283"/>
-      <c r="T245" s="283"/>
-      <c r="U245" s="283"/>
-      <c r="V245" s="283" t="s">
+      <c r="R245" s="289"/>
+      <c r="S245" s="289"/>
+      <c r="T245" s="289"/>
+      <c r="U245" s="289"/>
+      <c r="V245" s="289" t="s">
         <v>341</v>
       </c>
-      <c r="W245" s="283"/>
-      <c r="X245" s="283"/>
-      <c r="Y245" s="283"/>
-      <c r="Z245" s="283"/>
-      <c r="AA245" s="283" t="s">
+      <c r="W245" s="289"/>
+      <c r="X245" s="289"/>
+      <c r="Y245" s="289"/>
+      <c r="Z245" s="289"/>
+      <c r="AA245" s="289" t="s">
         <v>342</v>
       </c>
-      <c r="AB245" s="283"/>
-      <c r="AC245" s="283"/>
-      <c r="AD245" s="283"/>
-      <c r="AE245" s="283"/>
-      <c r="AF245" s="283" t="s">
+      <c r="AB245" s="289"/>
+      <c r="AC245" s="289"/>
+      <c r="AD245" s="289"/>
+      <c r="AE245" s="289"/>
+      <c r="AF245" s="289" t="s">
         <v>343</v>
       </c>
-      <c r="AG245" s="283"/>
-      <c r="AH245" s="283"/>
-      <c r="AI245" s="283"/>
-      <c r="AJ245" s="283"/>
-      <c r="AK245" s="283" t="s">
+      <c r="AG245" s="289"/>
+      <c r="AH245" s="289"/>
+      <c r="AI245" s="289"/>
+      <c r="AJ245" s="289"/>
+      <c r="AK245" s="289" t="s">
         <v>344</v>
       </c>
-      <c r="AL245" s="283"/>
-      <c r="AM245" s="283"/>
-      <c r="AN245" s="283"/>
-      <c r="AO245" s="283"/>
-      <c r="AP245" s="283" t="s">
+      <c r="AL245" s="289"/>
+      <c r="AM245" s="289"/>
+      <c r="AN245" s="289"/>
+      <c r="AO245" s="289"/>
+      <c r="AP245" s="289" t="s">
         <v>345</v>
       </c>
-      <c r="AQ245" s="283"/>
-      <c r="AR245" s="283"/>
-      <c r="AS245" s="283"/>
-      <c r="AT245" s="283"/>
-      <c r="AU245" s="283" t="s">
+      <c r="AQ245" s="289"/>
+      <c r="AR245" s="289"/>
+      <c r="AS245" s="289"/>
+      <c r="AT245" s="289"/>
+      <c r="AU245" s="289" t="s">
         <v>346</v>
       </c>
-      <c r="AV245" s="283"/>
-      <c r="AW245" s="283"/>
-      <c r="AX245" s="283"/>
-      <c r="AY245" s="283"/>
-      <c r="AZ245" s="283" t="s">
+      <c r="AV245" s="289"/>
+      <c r="AW245" s="289"/>
+      <c r="AX245" s="289"/>
+      <c r="AY245" s="289"/>
+      <c r="AZ245" s="289" t="s">
         <v>347</v>
       </c>
-      <c r="BA245" s="283"/>
-      <c r="BB245" s="283"/>
-      <c r="BC245" s="283"/>
-      <c r="BD245" s="283"/>
-      <c r="BE245" s="283" t="s">
+      <c r="BA245" s="289"/>
+      <c r="BB245" s="289"/>
+      <c r="BC245" s="289"/>
+      <c r="BD245" s="289"/>
+      <c r="BE245" s="289" t="s">
         <v>348</v>
       </c>
-      <c r="BF245" s="283"/>
-      <c r="BG245" s="283"/>
-      <c r="BH245" s="283"/>
-      <c r="BI245" s="283"/>
-      <c r="BJ245" s="283" t="s">
+      <c r="BF245" s="289"/>
+      <c r="BG245" s="289"/>
+      <c r="BH245" s="289"/>
+      <c r="BI245" s="289"/>
+      <c r="BJ245" s="289" t="s">
         <v>349</v>
       </c>
-      <c r="BK245" s="283"/>
-      <c r="BL245" s="283"/>
-      <c r="BM245" s="283"/>
-      <c r="BN245" s="283"/>
-      <c r="BO245" s="283" t="s">
+      <c r="BK245" s="289"/>
+      <c r="BL245" s="289"/>
+      <c r="BM245" s="289"/>
+      <c r="BN245" s="289"/>
+      <c r="BO245" s="289" t="s">
         <v>350</v>
       </c>
-      <c r="BP245" s="283"/>
-      <c r="BQ245" s="283"/>
-      <c r="BR245" s="283"/>
-      <c r="BS245" s="283"/>
-      <c r="BT245" s="283" t="s">
+      <c r="BP245" s="289"/>
+      <c r="BQ245" s="289"/>
+      <c r="BR245" s="289"/>
+      <c r="BS245" s="289"/>
+      <c r="BT245" s="289" t="s">
         <v>351</v>
       </c>
-      <c r="BU245" s="283"/>
-      <c r="BV245" s="283"/>
-      <c r="BW245" s="283"/>
-      <c r="BX245" s="283"/>
-      <c r="BY245" s="283" t="s">
+      <c r="BU245" s="289"/>
+      <c r="BV245" s="289"/>
+      <c r="BW245" s="289"/>
+      <c r="BX245" s="289"/>
+      <c r="BY245" s="289" t="s">
         <v>352</v>
       </c>
-      <c r="BZ245" s="283"/>
-      <c r="CA245" s="283"/>
-      <c r="CB245" s="283"/>
-      <c r="CC245" s="283"/>
-      <c r="CD245" s="283" t="s">
+      <c r="BZ245" s="289"/>
+      <c r="CA245" s="289"/>
+      <c r="CB245" s="289"/>
+      <c r="CC245" s="289"/>
+      <c r="CD245" s="289" t="s">
         <v>353</v>
       </c>
-      <c r="CE245" s="283"/>
-      <c r="CF245" s="283"/>
-      <c r="CG245" s="283"/>
-      <c r="CH245" s="283"/>
-      <c r="CI245" s="283" t="s">
+      <c r="CE245" s="289"/>
+      <c r="CF245" s="289"/>
+      <c r="CG245" s="289"/>
+      <c r="CH245" s="289"/>
+      <c r="CI245" s="289" t="s">
         <v>354</v>
       </c>
-      <c r="CJ245" s="283"/>
-      <c r="CK245" s="283"/>
-      <c r="CL245" s="283"/>
-      <c r="CM245" s="283"/>
-      <c r="CN245" s="283" t="s">
+      <c r="CJ245" s="289"/>
+      <c r="CK245" s="289"/>
+      <c r="CL245" s="289"/>
+      <c r="CM245" s="289"/>
+      <c r="CN245" s="289" t="s">
         <v>355</v>
       </c>
-      <c r="CO245" s="283"/>
-      <c r="CP245" s="283"/>
-      <c r="CQ245" s="283"/>
-      <c r="CR245" s="283"/>
-      <c r="CS245" s="283" t="s">
+      <c r="CO245" s="289"/>
+      <c r="CP245" s="289"/>
+      <c r="CQ245" s="289"/>
+      <c r="CR245" s="289"/>
+      <c r="CS245" s="289" t="s">
         <v>356</v>
       </c>
-      <c r="CT245" s="283"/>
-      <c r="CU245" s="283"/>
-      <c r="CV245" s="283"/>
-      <c r="CW245" s="283"/>
-      <c r="CX245" s="283" t="s">
+      <c r="CT245" s="289"/>
+      <c r="CU245" s="289"/>
+      <c r="CV245" s="289"/>
+      <c r="CW245" s="289"/>
+      <c r="CX245" s="289" t="s">
         <v>357</v>
       </c>
-      <c r="CY245" s="283"/>
-      <c r="CZ245" s="283"/>
-      <c r="DA245" s="283"/>
-      <c r="DB245" s="283"/>
-      <c r="DC245" s="283" t="s">
+      <c r="CY245" s="289"/>
+      <c r="CZ245" s="289"/>
+      <c r="DA245" s="289"/>
+      <c r="DB245" s="289"/>
+      <c r="DC245" s="289" t="s">
         <v>358</v>
       </c>
-      <c r="DD245" s="283"/>
-      <c r="DE245" s="283"/>
-      <c r="DF245" s="283"/>
-      <c r="DG245" s="283"/>
-      <c r="DH245" s="284" t="s">
+      <c r="DD245" s="289"/>
+      <c r="DE245" s="289"/>
+      <c r="DF245" s="289"/>
+      <c r="DG245" s="289"/>
+      <c r="DH245" s="290" t="s">
         <v>359</v>
       </c>
-      <c r="DI245" s="284"/>
-      <c r="DJ245" s="284"/>
+      <c r="DI245" s="290"/>
+      <c r="DJ245" s="290"/>
       <c r="DK245" s="140" t="s">
         <v>360</v>
       </c>
       <c r="DL245" s="140">
         <v>0</v>
       </c>
-      <c r="DM245" s="283" t="s">
+      <c r="DM245" s="289" t="s">
         <v>361</v>
       </c>
-      <c r="DN245" s="283"/>
-      <c r="DO245" s="283"/>
-      <c r="DP245" s="283"/>
-      <c r="DQ245" s="283"/>
-      <c r="DR245" s="283" t="s">
+      <c r="DN245" s="289"/>
+      <c r="DO245" s="289"/>
+      <c r="DP245" s="289"/>
+      <c r="DQ245" s="289"/>
+      <c r="DR245" s="289" t="s">
         <v>362</v>
       </c>
-      <c r="DS245" s="283"/>
-      <c r="DT245" s="283"/>
-      <c r="DU245" s="283"/>
-      <c r="DV245" s="283"/>
-      <c r="DW245" s="283" t="s">
+      <c r="DS245" s="289"/>
+      <c r="DT245" s="289"/>
+      <c r="DU245" s="289"/>
+      <c r="DV245" s="289"/>
+      <c r="DW245" s="289" t="s">
         <v>363</v>
       </c>
-      <c r="DX245" s="283"/>
-      <c r="DY245" s="283"/>
-      <c r="DZ245" s="283"/>
-      <c r="EA245" s="283"/>
-      <c r="EB245" s="283" t="s">
+      <c r="DX245" s="289"/>
+      <c r="DY245" s="289"/>
+      <c r="DZ245" s="289"/>
+      <c r="EA245" s="289"/>
+      <c r="EB245" s="289" t="s">
         <v>364</v>
       </c>
-      <c r="EC245" s="283"/>
-      <c r="ED245" s="283"/>
-      <c r="EE245" s="283"/>
-      <c r="EF245" s="283"/>
-      <c r="EG245" s="283" t="s">
+      <c r="EC245" s="289"/>
+      <c r="ED245" s="289"/>
+      <c r="EE245" s="289"/>
+      <c r="EF245" s="289"/>
+      <c r="EG245" s="289" t="s">
         <v>365</v>
       </c>
-      <c r="EH245" s="283"/>
-      <c r="EI245" s="283"/>
-      <c r="EJ245" s="283"/>
-      <c r="EK245" s="283"/>
-      <c r="EL245" s="283" t="s">
+      <c r="EH245" s="289"/>
+      <c r="EI245" s="289"/>
+      <c r="EJ245" s="289"/>
+      <c r="EK245" s="289"/>
+      <c r="EL245" s="289" t="s">
         <v>366</v>
       </c>
-      <c r="EM245" s="283"/>
-      <c r="EN245" s="283"/>
-      <c r="EO245" s="283"/>
-      <c r="EP245" s="283"/>
-      <c r="EQ245" s="283" t="s">
+      <c r="EM245" s="289"/>
+      <c r="EN245" s="289"/>
+      <c r="EO245" s="289"/>
+      <c r="EP245" s="289"/>
+      <c r="EQ245" s="289" t="s">
         <v>367</v>
       </c>
-      <c r="ER245" s="283"/>
-      <c r="ES245" s="283"/>
-      <c r="ET245" s="283"/>
-      <c r="EU245" s="283"/>
-      <c r="EV245" s="283" t="s">
+      <c r="ER245" s="289"/>
+      <c r="ES245" s="289"/>
+      <c r="ET245" s="289"/>
+      <c r="EU245" s="289"/>
+      <c r="EV245" s="289" t="s">
         <v>368</v>
       </c>
-      <c r="EW245" s="283"/>
-      <c r="EX245" s="283"/>
-      <c r="EY245" s="283"/>
-      <c r="EZ245" s="283"/>
-      <c r="FA245" s="283" t="s">
+      <c r="EW245" s="289"/>
+      <c r="EX245" s="289"/>
+      <c r="EY245" s="289"/>
+      <c r="EZ245" s="289"/>
+      <c r="FA245" s="289" t="s">
         <v>369</v>
       </c>
-      <c r="FB245" s="283"/>
-      <c r="FC245" s="283"/>
-      <c r="FD245" s="283"/>
-      <c r="FE245" s="283"/>
-      <c r="FF245" s="283" t="s">
+      <c r="FB245" s="289"/>
+      <c r="FC245" s="289"/>
+      <c r="FD245" s="289"/>
+      <c r="FE245" s="289"/>
+      <c r="FF245" s="289" t="s">
         <v>370</v>
       </c>
-      <c r="FG245" s="283"/>
-      <c r="FH245" s="283"/>
-      <c r="FI245" s="283"/>
-      <c r="FJ245" s="283"/>
-      <c r="FK245" s="283" t="s">
+      <c r="FG245" s="289"/>
+      <c r="FH245" s="289"/>
+      <c r="FI245" s="289"/>
+      <c r="FJ245" s="289"/>
+      <c r="FK245" s="289" t="s">
         <v>371</v>
       </c>
-      <c r="FL245" s="283"/>
-      <c r="FM245" s="283"/>
-      <c r="FN245" s="283"/>
-      <c r="FO245" s="283"/>
-      <c r="FP245" s="283" t="s">
+      <c r="FL245" s="289"/>
+      <c r="FM245" s="289"/>
+      <c r="FN245" s="289"/>
+      <c r="FO245" s="289"/>
+      <c r="FP245" s="289" t="s">
         <v>372</v>
       </c>
-      <c r="FQ245" s="283"/>
-      <c r="FR245" s="283"/>
-      <c r="FS245" s="283"/>
-      <c r="FT245" s="283"/>
-      <c r="FU245" s="283" t="s">
+      <c r="FQ245" s="289"/>
+      <c r="FR245" s="289"/>
+      <c r="FS245" s="289"/>
+      <c r="FT245" s="289"/>
+      <c r="FU245" s="289" t="s">
         <v>373</v>
       </c>
-      <c r="FV245" s="283"/>
-      <c r="FW245" s="283"/>
-      <c r="FX245" s="283"/>
-      <c r="FY245" s="283"/>
+      <c r="FV245" s="289"/>
+      <c r="FW245" s="289"/>
+      <c r="FX245" s="289"/>
+      <c r="FY245" s="289"/>
     </row>
     <row r="246" spans="1:181">
       <c r="A246" s="67"/>
@@ -18231,14 +18269,14 @@
       <c r="A254" s="67"/>
     </row>
     <row r="255" spans="1:181" ht="14.25" customHeight="1">
-      <c r="A255" s="276" t="s">
+      <c r="A255" s="282" t="s">
         <v>400</v>
       </c>
-      <c r="B255" s="276"/>
-      <c r="C255" s="276"/>
-      <c r="D255" s="276"/>
-      <c r="E255" s="277"/>
-      <c r="F255" s="277"/>
+      <c r="B255" s="282"/>
+      <c r="C255" s="282"/>
+      <c r="D255" s="282"/>
+      <c r="E255" s="283"/>
+      <c r="F255" s="283"/>
     </row>
     <row r="256" spans="1:181" ht="28.5" customHeight="1">
       <c r="A256" s="150" t="s">
@@ -18252,48 +18290,48 @@
       <c r="F256" s="151"/>
     </row>
     <row r="257" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A257" s="278" t="s">
+      <c r="A257" s="284" t="s">
         <v>403</v>
       </c>
       <c r="B257" s="102" t="s">
         <v>404</v>
       </c>
-      <c r="C257" s="279" t="s">
+      <c r="C257" s="285" t="s">
         <v>405</v>
       </c>
-      <c r="D257" s="280" t="s">
+      <c r="D257" s="286" t="s">
         <v>406</v>
       </c>
       <c r="E257" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="F257" s="279" t="s">
+      <c r="F257" s="285" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="278"/>
+      <c r="A258" s="284"/>
       <c r="B258" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="C258" s="279"/>
-      <c r="D258" s="279"/>
+      <c r="C258" s="285"/>
+      <c r="D258" s="285"/>
       <c r="E258" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="F258" s="279"/>
+      <c r="F258" s="285"/>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="278"/>
+      <c r="A259" s="284"/>
       <c r="B259" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="C259" s="279"/>
-      <c r="D259" s="279"/>
+      <c r="C259" s="285"/>
+      <c r="D259" s="285"/>
       <c r="E259" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="F259" s="279"/>
+      <c r="F259" s="285"/>
     </row>
     <row r="260" spans="1:6" ht="47.25" customHeight="1">
       <c r="A260" s="146" t="s">
@@ -18424,11 +18462,11 @@
       <c r="D282" s="62"/>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="281" t="s">
+      <c r="A283" s="287" t="s">
         <v>431</v>
       </c>
-      <c r="B283" s="281"/>
-      <c r="C283" s="281"/>
+      <c r="B283" s="287"/>
+      <c r="C283" s="287"/>
       <c r="D283" s="155">
         <v>2</v>
       </c>
@@ -18464,7 +18502,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A287" s="282" t="s">
+      <c r="A287" s="288" t="s">
         <v>439</v>
       </c>
       <c r="B287" s="27" t="s">
@@ -18481,7 +18519,7 @@
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="282"/>
+      <c r="A288" s="288"/>
       <c r="B288" s="27" t="s">
         <v>443</v>
       </c>
@@ -18496,7 +18534,7 @@
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="282"/>
+      <c r="A289" s="288"/>
       <c r="B289" s="27" t="s">
         <v>444</v>
       </c>
@@ -18511,7 +18549,7 @@
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="282"/>
+      <c r="A290" s="288"/>
       <c r="B290" s="27" t="s">
         <v>445</v>
       </c>
@@ -18526,7 +18564,7 @@
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="282"/>
+      <c r="A291" s="288"/>
       <c r="B291" s="27" t="s">
         <v>446</v>
       </c>
@@ -18541,7 +18579,7 @@
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="282"/>
+      <c r="A292" s="288"/>
       <c r="B292" s="27" t="s">
         <v>447</v>
       </c>
@@ -18556,7 +18594,7 @@
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="282"/>
+      <c r="A293" s="288"/>
       <c r="B293" s="27" t="s">
         <v>448</v>
       </c>
@@ -18571,7 +18609,7 @@
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="282"/>
+      <c r="A294" s="288"/>
       <c r="B294" s="27" t="s">
         <v>449</v>
       </c>
@@ -18586,7 +18624,7 @@
       </c>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="282"/>
+      <c r="A295" s="288"/>
       <c r="B295" s="27" t="s">
         <v>450</v>
       </c>
@@ -18601,7 +18639,7 @@
       </c>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="282"/>
+      <c r="A296" s="288"/>
       <c r="B296" s="27" t="s">
         <v>451</v>
       </c>
@@ -18616,7 +18654,7 @@
       </c>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="282"/>
+      <c r="A297" s="288"/>
       <c r="B297" s="27" t="s">
         <v>452</v>
       </c>
@@ -18631,7 +18669,7 @@
       </c>
     </row>
     <row r="298" spans="1:5">
-      <c r="A298" s="282"/>
+      <c r="A298" s="288"/>
       <c r="B298" s="27" t="s">
         <v>453</v>
       </c>
@@ -18646,7 +18684,7 @@
       </c>
     </row>
     <row r="299" spans="1:5">
-      <c r="A299" s="282"/>
+      <c r="A299" s="288"/>
       <c r="B299" s="27" t="s">
         <v>454</v>
       </c>
@@ -18661,7 +18699,7 @@
       </c>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300" s="282"/>
+      <c r="A300" s="288"/>
       <c r="B300" s="27" t="s">
         <v>455</v>
       </c>
@@ -18676,7 +18714,7 @@
       </c>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301" s="282"/>
+      <c r="A301" s="288"/>
       <c r="B301" s="27" t="s">
         <v>456</v>
       </c>
@@ -18691,7 +18729,7 @@
       </c>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302" s="282"/>
+      <c r="A302" s="288"/>
       <c r="B302" s="27" t="s">
         <v>457</v>
       </c>
@@ -18706,7 +18744,7 @@
       </c>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="282"/>
+      <c r="A303" s="288"/>
       <c r="B303" s="27" t="s">
         <v>458</v>
       </c>
@@ -18721,7 +18759,7 @@
       </c>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304" s="282"/>
+      <c r="A304" s="288"/>
       <c r="B304" s="27" t="s">
         <v>459</v>
       </c>
@@ -18736,7 +18774,7 @@
       </c>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="282"/>
+      <c r="A305" s="288"/>
       <c r="B305" s="27" t="s">
         <v>460</v>
       </c>
@@ -18811,32 +18849,32 @@
       </c>
     </row>
     <row r="317" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A317" s="272" t="s">
+      <c r="A317" s="278" t="s">
         <v>473</v>
       </c>
-      <c r="B317" s="273" t="s">
+      <c r="B317" s="279" t="s">
         <v>474</v>
       </c>
-      <c r="C317" s="273"/>
-      <c r="D317" s="274" t="s">
+      <c r="C317" s="279"/>
+      <c r="D317" s="280" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="272"/>
-      <c r="B318" s="275" t="s">
+      <c r="A318" s="278"/>
+      <c r="B318" s="281" t="s">
         <v>475</v>
       </c>
-      <c r="C318" s="275"/>
-      <c r="D318" s="274"/>
+      <c r="C318" s="281"/>
+      <c r="D318" s="280"/>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="272"/>
-      <c r="B319" s="273" t="s">
+      <c r="A319" s="278"/>
+      <c r="B319" s="279" t="s">
         <v>476</v>
       </c>
-      <c r="C319" s="273"/>
-      <c r="D319" s="274"/>
+      <c r="C319" s="279"/>
+      <c r="D319" s="280"/>
       <c r="E319" s="17" t="s">
         <v>477</v>
       </c>
@@ -18850,32 +18888,32 @@
       </c>
     </row>
     <row r="321" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A321" s="272" t="s">
+      <c r="A321" s="278" t="s">
         <v>480</v>
       </c>
-      <c r="B321" s="273" t="s">
+      <c r="B321" s="279" t="s">
         <v>481</v>
       </c>
-      <c r="C321" s="273"/>
-      <c r="D321" s="274" t="s">
+      <c r="C321" s="279"/>
+      <c r="D321" s="280" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="322" spans="1:6">
-      <c r="A322" s="272"/>
-      <c r="B322" s="275" t="s">
+      <c r="A322" s="278"/>
+      <c r="B322" s="281" t="s">
         <v>482</v>
       </c>
-      <c r="C322" s="275"/>
-      <c r="D322" s="274"/>
+      <c r="C322" s="281"/>
+      <c r="D322" s="280"/>
     </row>
     <row r="323" spans="1:6">
-      <c r="A323" s="272"/>
-      <c r="B323" s="273" t="s">
+      <c r="A323" s="278"/>
+      <c r="B323" s="279" t="s">
         <v>483</v>
       </c>
-      <c r="C323" s="273"/>
-      <c r="D323" s="274"/>
+      <c r="C323" s="279"/>
+      <c r="D323" s="280"/>
       <c r="E323" s="17" t="s">
         <v>484</v>
       </c>
@@ -18889,32 +18927,32 @@
       </c>
     </row>
     <row r="325" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A325" s="272" t="s">
+      <c r="A325" s="278" t="s">
         <v>486</v>
       </c>
-      <c r="B325" s="273" t="s">
+      <c r="B325" s="279" t="s">
         <v>474</v>
       </c>
-      <c r="C325" s="273"/>
-      <c r="D325" s="274" t="s">
+      <c r="C325" s="279"/>
+      <c r="D325" s="280" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="272"/>
-      <c r="B326" s="275" t="s">
+      <c r="A326" s="278"/>
+      <c r="B326" s="281" t="s">
         <v>487</v>
       </c>
-      <c r="C326" s="275"/>
-      <c r="D326" s="274"/>
+      <c r="C326" s="281"/>
+      <c r="D326" s="280"/>
     </row>
     <row r="327" spans="1:6">
-      <c r="A327" s="272"/>
-      <c r="B327" s="273" t="s">
+      <c r="A327" s="278"/>
+      <c r="B327" s="279" t="s">
         <v>488</v>
       </c>
-      <c r="C327" s="273"/>
-      <c r="D327" s="274"/>
+      <c r="C327" s="279"/>
+      <c r="D327" s="280"/>
       <c r="E327" s="17" t="s">
         <v>489</v>
       </c>
@@ -19106,10 +19144,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AY374"/>
+  <dimension ref="A1:AY392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:AL4"/>
+    <sheetView tabSelected="1" topLeftCell="B297" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D308" sqref="D308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -19129,11 +19167,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="31.5">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="390" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
+      <c r="B1" s="390"/>
+      <c r="C1" s="390"/>
       <c r="E1" s="159"/>
     </row>
     <row r="2" spans="1:38" ht="27" thickBot="1">
@@ -19142,49 +19180,49 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="18.75">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="330" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="325"/>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
-      <c r="H3" s="325"/>
-      <c r="I3" s="325"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="325"/>
-      <c r="N3" s="325"/>
-      <c r="O3" s="325"/>
-      <c r="P3" s="325"/>
-      <c r="Q3" s="325"/>
-      <c r="R3" s="325"/>
-      <c r="S3" s="325"/>
-      <c r="T3" s="325"/>
-      <c r="U3" s="325"/>
-      <c r="V3" s="325"/>
-      <c r="W3" s="325"/>
-      <c r="X3" s="325"/>
-      <c r="Y3" s="325"/>
-      <c r="Z3" s="325"/>
-      <c r="AA3" s="325"/>
-      <c r="AB3" s="325"/>
-      <c r="AC3" s="325"/>
-      <c r="AD3" s="325"/>
-      <c r="AE3" s="325"/>
-      <c r="AF3" s="325"/>
-      <c r="AG3" s="325"/>
-      <c r="AH3" s="325"/>
-      <c r="AI3" s="325"/>
-      <c r="AJ3" s="325"/>
-      <c r="AK3" s="325"/>
-      <c r="AL3" s="326"/>
+      <c r="B3" s="331"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="331"/>
+      <c r="I3" s="331"/>
+      <c r="J3" s="331"/>
+      <c r="K3" s="331"/>
+      <c r="L3" s="331"/>
+      <c r="M3" s="331"/>
+      <c r="N3" s="331"/>
+      <c r="O3" s="331"/>
+      <c r="P3" s="331"/>
+      <c r="Q3" s="331"/>
+      <c r="R3" s="331"/>
+      <c r="S3" s="331"/>
+      <c r="T3" s="331"/>
+      <c r="U3" s="331"/>
+      <c r="V3" s="331"/>
+      <c r="W3" s="331"/>
+      <c r="X3" s="331"/>
+      <c r="Y3" s="331"/>
+      <c r="Z3" s="331"/>
+      <c r="AA3" s="331"/>
+      <c r="AB3" s="331"/>
+      <c r="AC3" s="331"/>
+      <c r="AD3" s="331"/>
+      <c r="AE3" s="331"/>
+      <c r="AF3" s="331"/>
+      <c r="AG3" s="331"/>
+      <c r="AH3" s="331"/>
+      <c r="AI3" s="331"/>
+      <c r="AJ3" s="331"/>
+      <c r="AK3" s="331"/>
+      <c r="AL3" s="332"/>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="367" t="s">
+      <c r="A4" s="374" t="s">
         <v>492</v>
       </c>
       <c r="B4" s="203" t="s">
@@ -19300,7 +19338,7 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" thickBot="1">
-      <c r="A5" s="371"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="204" t="s">
         <v>327</v>
       </c>
@@ -19415,46 +19453,46 @@
     </row>
     <row r="6" spans="1:38" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:38" ht="18.75">
-      <c r="A7" s="324" t="s">
+      <c r="A7" s="330" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="325"/>
-      <c r="C7" s="325"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="325"/>
-      <c r="I7" s="325"/>
-      <c r="J7" s="325"/>
-      <c r="K7" s="325"/>
-      <c r="L7" s="325"/>
-      <c r="M7" s="325"/>
-      <c r="N7" s="325"/>
-      <c r="O7" s="325"/>
-      <c r="P7" s="325"/>
-      <c r="Q7" s="325"/>
-      <c r="R7" s="325"/>
-      <c r="S7" s="325"/>
-      <c r="T7" s="325"/>
-      <c r="U7" s="325"/>
-      <c r="V7" s="325"/>
-      <c r="W7" s="325"/>
-      <c r="X7" s="325"/>
-      <c r="Y7" s="325"/>
-      <c r="Z7" s="325"/>
-      <c r="AA7" s="325"/>
-      <c r="AB7" s="325"/>
-      <c r="AC7" s="325"/>
-      <c r="AD7" s="325"/>
-      <c r="AE7" s="325"/>
-      <c r="AF7" s="325"/>
-      <c r="AG7" s="325"/>
-      <c r="AH7" s="325"/>
-      <c r="AI7" s="325"/>
-      <c r="AJ7" s="325"/>
-      <c r="AK7" s="325"/>
-      <c r="AL7" s="326"/>
+      <c r="B7" s="331"/>
+      <c r="C7" s="331"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="331"/>
+      <c r="I7" s="331"/>
+      <c r="J7" s="331"/>
+      <c r="K7" s="331"/>
+      <c r="L7" s="331"/>
+      <c r="M7" s="331"/>
+      <c r="N7" s="331"/>
+      <c r="O7" s="331"/>
+      <c r="P7" s="331"/>
+      <c r="Q7" s="331"/>
+      <c r="R7" s="331"/>
+      <c r="S7" s="331"/>
+      <c r="T7" s="331"/>
+      <c r="U7" s="331"/>
+      <c r="V7" s="331"/>
+      <c r="W7" s="331"/>
+      <c r="X7" s="331"/>
+      <c r="Y7" s="331"/>
+      <c r="Z7" s="331"/>
+      <c r="AA7" s="331"/>
+      <c r="AB7" s="331"/>
+      <c r="AC7" s="331"/>
+      <c r="AD7" s="331"/>
+      <c r="AE7" s="331"/>
+      <c r="AF7" s="331"/>
+      <c r="AG7" s="331"/>
+      <c r="AH7" s="331"/>
+      <c r="AI7" s="331"/>
+      <c r="AJ7" s="331"/>
+      <c r="AK7" s="331"/>
+      <c r="AL7" s="332"/>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="210" t="s">
@@ -19475,41 +19513,41 @@
       <c r="F8" s="161">
         <v>0.40700950000000002</v>
       </c>
-      <c r="G8" s="391"/>
-      <c r="H8" s="392"/>
-      <c r="I8" s="392"/>
-      <c r="J8" s="392"/>
-      <c r="K8" s="392"/>
-      <c r="L8" s="392"/>
-      <c r="M8" s="392"/>
-      <c r="N8" s="392"/>
-      <c r="O8" s="392"/>
-      <c r="P8" s="392"/>
-      <c r="Q8" s="392"/>
-      <c r="R8" s="392"/>
-      <c r="S8" s="392"/>
-      <c r="T8" s="392"/>
-      <c r="U8" s="392"/>
-      <c r="V8" s="392"/>
-      <c r="W8" s="392"/>
-      <c r="X8" s="392"/>
-      <c r="Y8" s="392"/>
-      <c r="Z8" s="392"/>
-      <c r="AA8" s="392"/>
-      <c r="AB8" s="392"/>
-      <c r="AC8" s="392"/>
-      <c r="AD8" s="392"/>
-      <c r="AE8" s="392"/>
-      <c r="AF8" s="392"/>
-      <c r="AG8" s="392"/>
-      <c r="AH8" s="392"/>
-      <c r="AI8" s="392"/>
-      <c r="AJ8" s="392"/>
-      <c r="AK8" s="392"/>
-      <c r="AL8" s="393"/>
+      <c r="G8" s="397"/>
+      <c r="H8" s="398"/>
+      <c r="I8" s="398"/>
+      <c r="J8" s="398"/>
+      <c r="K8" s="398"/>
+      <c r="L8" s="398"/>
+      <c r="M8" s="398"/>
+      <c r="N8" s="398"/>
+      <c r="O8" s="398"/>
+      <c r="P8" s="398"/>
+      <c r="Q8" s="398"/>
+      <c r="R8" s="398"/>
+      <c r="S8" s="398"/>
+      <c r="T8" s="398"/>
+      <c r="U8" s="398"/>
+      <c r="V8" s="398"/>
+      <c r="W8" s="398"/>
+      <c r="X8" s="398"/>
+      <c r="Y8" s="398"/>
+      <c r="Z8" s="398"/>
+      <c r="AA8" s="398"/>
+      <c r="AB8" s="398"/>
+      <c r="AC8" s="398"/>
+      <c r="AD8" s="398"/>
+      <c r="AE8" s="398"/>
+      <c r="AF8" s="398"/>
+      <c r="AG8" s="398"/>
+      <c r="AH8" s="398"/>
+      <c r="AI8" s="398"/>
+      <c r="AJ8" s="398"/>
+      <c r="AK8" s="398"/>
+      <c r="AL8" s="399"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="367" t="s">
+      <c r="A9" s="374" t="s">
         <v>495</v>
       </c>
       <c r="B9" s="203" t="s">
@@ -19625,7 +19663,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="15.75" thickBot="1">
-      <c r="A10" s="371"/>
+      <c r="A10" s="378"/>
       <c r="B10" s="204" t="s">
         <v>327</v>
       </c>
@@ -19744,17 +19782,17 @@
       </c>
     </row>
     <row r="14" spans="1:38" ht="18.75">
-      <c r="A14" s="390" t="s">
+      <c r="A14" s="358" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="390"/>
-      <c r="C14" s="390"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="390"/>
-      <c r="F14" s="390"/>
-      <c r="G14" s="390"/>
-      <c r="H14" s="390"/>
-      <c r="I14" s="390"/>
+      <c r="B14" s="358"/>
+      <c r="C14" s="358"/>
+      <c r="D14" s="358"/>
+      <c r="E14" s="358"/>
+      <c r="F14" s="358"/>
+      <c r="G14" s="358"/>
+      <c r="H14" s="358"/>
+      <c r="I14" s="358"/>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="212" t="s">
@@ -20114,11 +20152,11 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:50" ht="18.75">
-      <c r="A27" s="324" t="s">
+      <c r="A27" s="330" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="325"/>
-      <c r="C27" s="326"/>
+      <c r="B27" s="331"/>
+      <c r="C27" s="332"/>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
       <c r="F27" s="70"/>
@@ -20135,11 +20173,11 @@
       <c r="Q27" s="70"/>
     </row>
     <row r="28" spans="1:50" ht="15.75">
-      <c r="A28" s="384" t="s">
+      <c r="A28" s="391" t="s">
         <v>509</v>
       </c>
-      <c r="B28" s="385"/>
-      <c r="C28" s="386"/>
+      <c r="B28" s="392"/>
+      <c r="C28" s="393"/>
       <c r="E28" s="70"/>
       <c r="F28" s="70"/>
       <c r="G28" s="70"/>
@@ -20236,11 +20274,11 @@
       <c r="AX31" s="70"/>
     </row>
     <row r="32" spans="1:50" ht="15.75">
-      <c r="A32" s="384" t="s">
+      <c r="A32" s="391" t="s">
         <v>514</v>
       </c>
-      <c r="B32" s="385"/>
-      <c r="C32" s="386"/>
+      <c r="B32" s="392"/>
+      <c r="C32" s="393"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
       <c r="G32" s="70"/>
@@ -20577,11 +20615,11 @@
       <c r="AX37" s="70"/>
     </row>
     <row r="38" spans="1:51" ht="15.75">
-      <c r="A38" s="394" t="s">
+      <c r="A38" s="400" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="395"/>
-      <c r="C38" s="396"/>
+      <c r="B38" s="401"/>
+      <c r="C38" s="402"/>
       <c r="D38" s="70"/>
       <c r="E38" s="70"/>
       <c r="F38" s="70"/>
@@ -20690,11 +20728,11 @@
     </row>
     <row r="40" spans="1:51" ht="15.75" thickBot="1"/>
     <row r="41" spans="1:51" ht="18.75">
-      <c r="A41" s="349" t="s">
+      <c r="A41" s="355" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="350"/>
-      <c r="C41" s="351"/>
+      <c r="B41" s="356"/>
+      <c r="C41" s="357"/>
       <c r="D41" s="70"/>
       <c r="H41" s="70"/>
       <c r="I41" s="70"/>
@@ -20801,11 +20839,11 @@
     </row>
     <row r="43" spans="1:51" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:51" ht="18.75">
-      <c r="A44" s="349" t="s">
+      <c r="A44" s="355" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="350"/>
-      <c r="C44" s="351"/>
+      <c r="B44" s="356"/>
+      <c r="C44" s="357"/>
       <c r="D44" s="70"/>
       <c r="E44" s="70"/>
       <c r="F44" s="70"/>
@@ -21271,7 +21309,7 @@
       <c r="AY63" s="70"/>
     </row>
     <row r="64" spans="1:51" ht="15" customHeight="1">
-      <c r="A64" s="357" t="s">
+      <c r="A64" s="364" t="s">
         <v>187</v>
       </c>
       <c r="B64" s="203" t="s">
@@ -21330,7 +21368,7 @@
       <c r="AY64" s="70"/>
     </row>
     <row r="65" spans="1:51" ht="15.75" thickBot="1">
-      <c r="A65" s="387"/>
+      <c r="A65" s="394"/>
       <c r="B65" s="204" t="s">
         <v>528</v>
       </c>
@@ -21388,11 +21426,11 @@
     </row>
     <row r="66" spans="1:51" s="70" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="67" spans="1:51" ht="15.75" customHeight="1">
-      <c r="A67" s="349" t="s">
+      <c r="A67" s="355" t="s">
         <v>192</v>
       </c>
-      <c r="B67" s="350"/>
-      <c r="C67" s="351"/>
+      <c r="B67" s="356"/>
+      <c r="C67" s="357"/>
       <c r="D67" s="70"/>
       <c r="E67" s="70"/>
       <c r="F67" s="70"/>
@@ -21443,7 +21481,7 @@
       <c r="AY67" s="70"/>
     </row>
     <row r="68" spans="1:51" ht="15" customHeight="1">
-      <c r="A68" s="388" t="s">
+      <c r="A68" s="395" t="s">
         <v>208</v>
       </c>
       <c r="B68" s="203" t="s">
@@ -21502,7 +21540,7 @@
       <c r="AY68" s="70"/>
     </row>
     <row r="69" spans="1:51" ht="15.75" thickBot="1">
-      <c r="A69" s="389"/>
+      <c r="A69" s="396"/>
       <c r="B69" s="204" t="s">
         <v>529</v>
       </c>
@@ -21610,11 +21648,11 @@
       <c r="AY70" s="70"/>
     </row>
     <row r="71" spans="1:51" ht="18.75">
-      <c r="A71" s="324" t="s">
+      <c r="A71" s="330" t="s">
         <v>228</v>
       </c>
-      <c r="B71" s="325"/>
-      <c r="C71" s="325"/>
+      <c r="B71" s="331"/>
+      <c r="C71" s="331"/>
       <c r="D71" s="270" t="s">
         <v>530</v>
       </c>
@@ -21728,11 +21766,11 @@
       <c r="AY72" s="70"/>
     </row>
     <row r="73" spans="1:51" ht="18.75">
-      <c r="A73" s="368" t="s">
+      <c r="A73" s="375" t="s">
         <v>230</v>
       </c>
-      <c r="B73" s="369"/>
-      <c r="C73" s="369"/>
+      <c r="B73" s="376"/>
+      <c r="C73" s="376"/>
       <c r="D73" s="271" t="s">
         <v>533</v>
       </c>
@@ -21847,14 +21885,14 @@
     </row>
     <row r="75" spans="1:51" s="70" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="76" spans="1:51" ht="18.75">
-      <c r="A76" s="324" t="s">
+      <c r="A76" s="330" t="s">
         <v>236</v>
       </c>
-      <c r="B76" s="325"/>
-      <c r="C76" s="326"/>
+      <c r="B76" s="331"/>
+      <c r="C76" s="332"/>
     </row>
     <row r="77" spans="1:51">
-      <c r="A77" s="357" t="s">
+      <c r="A77" s="364" t="s">
         <v>535</v>
       </c>
       <c r="B77" s="203" t="s">
@@ -21865,7 +21903,7 @@
       </c>
     </row>
     <row r="78" spans="1:51">
-      <c r="A78" s="357"/>
+      <c r="A78" s="364"/>
       <c r="B78" s="203" t="s">
         <v>536</v>
       </c>
@@ -21874,7 +21912,7 @@
       </c>
     </row>
     <row r="79" spans="1:51">
-      <c r="A79" s="357" t="s">
+      <c r="A79" s="364" t="s">
         <v>237</v>
       </c>
       <c r="B79" s="203" t="s">
@@ -21899,7 +21937,7 @@
       <c r="T79" s="112"/>
     </row>
     <row r="80" spans="1:51">
-      <c r="A80" s="357"/>
+      <c r="A80" s="364"/>
       <c r="B80" s="203" t="s">
         <v>241</v>
       </c>
@@ -21922,7 +21960,7 @@
       <c r="T80" s="112"/>
     </row>
     <row r="81" spans="1:20">
-      <c r="A81" s="357" t="s">
+      <c r="A81" s="364" t="s">
         <v>243</v>
       </c>
       <c r="B81" s="203" t="s">
@@ -21933,7 +21971,7 @@
       </c>
     </row>
     <row r="82" spans="1:20">
-      <c r="A82" s="357"/>
+      <c r="A82" s="364"/>
       <c r="B82" s="203" t="s">
         <v>241</v>
       </c>
@@ -21942,7 +21980,7 @@
       </c>
     </row>
     <row r="83" spans="1:20">
-      <c r="A83" s="357" t="s">
+      <c r="A83" s="364" t="s">
         <v>244</v>
       </c>
       <c r="B83" s="203" t="s">
@@ -21953,7 +21991,7 @@
       </c>
     </row>
     <row r="84" spans="1:20">
-      <c r="A84" s="357"/>
+      <c r="A84" s="364"/>
       <c r="B84" s="203" t="s">
         <v>241</v>
       </c>
@@ -21962,7 +22000,7 @@
       </c>
     </row>
     <row r="85" spans="1:20">
-      <c r="A85" s="357" t="s">
+      <c r="A85" s="364" t="s">
         <v>246</v>
       </c>
       <c r="B85" s="203" t="s">
@@ -21986,7 +22024,7 @@
       <c r="T85" s="110"/>
     </row>
     <row r="86" spans="1:20">
-      <c r="A86" s="357"/>
+      <c r="A86" s="364"/>
       <c r="B86" s="203" t="s">
         <v>241</v>
       </c>
@@ -21995,7 +22033,7 @@
       </c>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" s="357" t="s">
+      <c r="A87" s="364" t="s">
         <v>211</v>
       </c>
       <c r="B87" s="203" t="s">
@@ -22006,7 +22044,7 @@
       </c>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" s="357"/>
+      <c r="A88" s="364"/>
       <c r="B88" s="203" t="s">
         <v>241</v>
       </c>
@@ -22015,7 +22053,7 @@
       </c>
     </row>
     <row r="89" spans="1:20">
-      <c r="A89" s="357" t="s">
+      <c r="A89" s="364" t="s">
         <v>240</v>
       </c>
       <c r="B89" s="203" t="s">
@@ -22026,7 +22064,7 @@
       </c>
     </row>
     <row r="90" spans="1:20">
-      <c r="A90" s="357"/>
+      <c r="A90" s="364"/>
       <c r="B90" s="203" t="s">
         <v>241</v>
       </c>
@@ -22035,7 +22073,7 @@
       </c>
     </row>
     <row r="91" spans="1:20">
-      <c r="A91" s="357" t="s">
+      <c r="A91" s="364" t="s">
         <v>245</v>
       </c>
       <c r="B91" s="203" t="s">
@@ -22046,7 +22084,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A92" s="387"/>
+      <c r="A92" s="394"/>
       <c r="B92" s="204" t="s">
         <v>241</v>
       </c>
@@ -22061,11 +22099,11 @@
     </row>
     <row r="94" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="95" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A95" s="324" t="s">
+      <c r="A95" s="330" t="s">
         <v>248</v>
       </c>
-      <c r="B95" s="325"/>
-      <c r="C95" s="326"/>
+      <c r="B95" s="331"/>
+      <c r="C95" s="332"/>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="212" t="s">
@@ -22171,19 +22209,19 @@
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="105" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A105" s="324" t="s">
+      <c r="A105" s="330" t="s">
         <v>58</v>
       </c>
-      <c r="B105" s="325"/>
-      <c r="C105" s="325"/>
-      <c r="D105" s="325"/>
-      <c r="E105" s="326"/>
+      <c r="B105" s="331"/>
+      <c r="C105" s="331"/>
+      <c r="D105" s="331"/>
+      <c r="E105" s="332"/>
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A106" s="357" t="s">
+      <c r="A106" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="B106" s="375">
+      <c r="B106" s="382">
         <v>4</v>
       </c>
       <c r="C106" s="221" t="s">
@@ -22197,8 +22235,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A107" s="357"/>
-      <c r="B107" s="375"/>
+      <c r="A107" s="364"/>
+      <c r="B107" s="382"/>
       <c r="C107" s="221" t="s">
         <v>62</v>
       </c>
@@ -22210,22 +22248,22 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A108" s="357"/>
-      <c r="B108" s="375"/>
+      <c r="A108" s="364"/>
+      <c r="B108" s="382"/>
       <c r="C108" s="221" t="s">
         <v>63</v>
       </c>
-      <c r="D108" s="377"/>
-      <c r="E108" s="378"/>
+      <c r="D108" s="384"/>
+      <c r="E108" s="385"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A109" s="387"/>
-      <c r="B109" s="376"/>
+      <c r="A109" s="394"/>
+      <c r="B109" s="383"/>
       <c r="C109" s="223" t="s">
         <v>64</v>
       </c>
-      <c r="D109" s="379"/>
-      <c r="E109" s="380"/>
+      <c r="D109" s="386"/>
+      <c r="E109" s="387"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="111" spans="1:10" ht="14.25" customHeight="1"/>
@@ -22235,18 +22273,18 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="18.75">
-      <c r="A113" s="324" t="s">
+      <c r="A113" s="330" t="s">
         <v>543</v>
       </c>
-      <c r="B113" s="325"/>
-      <c r="C113" s="325"/>
-      <c r="D113" s="325"/>
-      <c r="E113" s="325"/>
-      <c r="F113" s="325"/>
-      <c r="G113" s="325"/>
-      <c r="H113" s="325"/>
-      <c r="I113" s="325"/>
-      <c r="J113" s="326"/>
+      <c r="B113" s="331"/>
+      <c r="C113" s="331"/>
+      <c r="D113" s="331"/>
+      <c r="E113" s="331"/>
+      <c r="F113" s="331"/>
+      <c r="G113" s="331"/>
+      <c r="H113" s="331"/>
+      <c r="I113" s="331"/>
+      <c r="J113" s="332"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="210" t="s">
@@ -22279,7 +22317,7 @@
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="367" t="s">
+      <c r="A115" s="374" t="s">
         <v>544</v>
       </c>
       <c r="B115" s="161" t="s">
@@ -22311,7 +22349,7 @@
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="367"/>
+      <c r="A116" s="374"/>
       <c r="B116" s="161" t="s">
         <v>546</v>
       </c>
@@ -22341,7 +22379,7 @@
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="367"/>
+      <c r="A117" s="374"/>
       <c r="B117" s="161" t="s">
         <v>547</v>
       </c>
@@ -22371,7 +22409,7 @@
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="367" t="s">
+      <c r="A118" s="374" t="s">
         <v>548</v>
       </c>
       <c r="B118" s="161" t="s">
@@ -22403,7 +22441,7 @@
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="367"/>
+      <c r="A119" s="374"/>
       <c r="B119" s="161" t="s">
         <v>546</v>
       </c>
@@ -22433,7 +22471,7 @@
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="367"/>
+      <c r="A120" s="374"/>
       <c r="B120" s="161" t="s">
         <v>547</v>
       </c>
@@ -22466,7 +22504,7 @@
       <c r="A121" s="210" t="s">
         <v>549</v>
       </c>
-      <c r="B121" s="381"/>
+      <c r="B121" s="388"/>
       <c r="C121" s="203" t="s">
         <v>28</v>
       </c>
@@ -22496,7 +22534,7 @@
       <c r="A122" s="210" t="s">
         <v>550</v>
       </c>
-      <c r="B122" s="381"/>
+      <c r="B122" s="388"/>
       <c r="C122" s="203" t="s">
         <v>551</v>
       </c>
@@ -22533,7 +22571,7 @@
       <c r="A123" s="225" t="s">
         <v>552</v>
       </c>
-      <c r="B123" s="382"/>
+      <c r="B123" s="389"/>
       <c r="C123" s="204" t="s">
         <v>551</v>
       </c>
@@ -22568,17 +22606,17 @@
     </row>
     <row r="124" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="125" spans="1:10" ht="18.75">
-      <c r="A125" s="324" t="s">
+      <c r="A125" s="330" t="s">
         <v>553</v>
       </c>
-      <c r="B125" s="325"/>
-      <c r="C125" s="325"/>
-      <c r="D125" s="325"/>
-      <c r="E125" s="325"/>
-      <c r="F125" s="325"/>
-      <c r="G125" s="325"/>
-      <c r="H125" s="325"/>
-      <c r="I125" s="326"/>
+      <c r="B125" s="331"/>
+      <c r="C125" s="331"/>
+      <c r="D125" s="331"/>
+      <c r="E125" s="331"/>
+      <c r="F125" s="331"/>
+      <c r="G125" s="331"/>
+      <c r="H125" s="331"/>
+      <c r="I125" s="332"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="210" t="s">
@@ -22610,7 +22648,7 @@
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="367" t="s">
+      <c r="A127" s="374" t="s">
         <v>554</v>
       </c>
       <c r="B127" s="203" t="s">
@@ -22639,7 +22677,7 @@
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="367"/>
+      <c r="A128" s="374"/>
       <c r="B128" s="203" t="s">
         <v>192</v>
       </c>
@@ -22666,7 +22704,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="367"/>
+      <c r="A129" s="374"/>
       <c r="B129" s="203" t="s">
         <v>374</v>
       </c>
@@ -22693,7 +22731,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="367"/>
+      <c r="A130" s="374"/>
       <c r="B130" s="203" t="s">
         <v>556</v>
       </c>
@@ -22720,7 +22758,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="367" t="s">
+      <c r="A131" s="374" t="s">
         <v>546</v>
       </c>
       <c r="B131" s="203" t="s">
@@ -22749,7 +22787,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="367"/>
+      <c r="A132" s="374"/>
       <c r="B132" s="203" t="s">
         <v>192</v>
       </c>
@@ -22776,7 +22814,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="367"/>
+      <c r="A133" s="374"/>
       <c r="B133" s="203" t="s">
         <v>374</v>
       </c>
@@ -22803,7 +22841,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="367"/>
+      <c r="A134" s="374"/>
       <c r="B134" s="203" t="s">
         <v>556</v>
       </c>
@@ -22830,7 +22868,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="367" t="s">
+      <c r="A135" s="374" t="s">
         <v>547</v>
       </c>
       <c r="B135" s="203" t="s">
@@ -22859,7 +22897,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="367"/>
+      <c r="A136" s="374"/>
       <c r="B136" s="203" t="s">
         <v>192</v>
       </c>
@@ -22886,7 +22924,7 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="367"/>
+      <c r="A137" s="374"/>
       <c r="B137" s="203" t="s">
         <v>374</v>
       </c>
@@ -22913,7 +22951,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="367"/>
+      <c r="A138" s="374"/>
       <c r="B138" s="203" t="s">
         <v>556</v>
       </c>
@@ -22940,17 +22978,17 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="18.75">
-      <c r="A139" s="368" t="s">
+      <c r="A139" s="375" t="s">
         <v>557</v>
       </c>
-      <c r="B139" s="369"/>
-      <c r="C139" s="369"/>
-      <c r="D139" s="369"/>
-      <c r="E139" s="369"/>
-      <c r="F139" s="369"/>
-      <c r="G139" s="369"/>
-      <c r="H139" s="369"/>
-      <c r="I139" s="370"/>
+      <c r="B139" s="376"/>
+      <c r="C139" s="376"/>
+      <c r="D139" s="376"/>
+      <c r="E139" s="376"/>
+      <c r="F139" s="376"/>
+      <c r="G139" s="376"/>
+      <c r="H139" s="376"/>
+      <c r="I139" s="377"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="210" t="s">
@@ -22982,7 +23020,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="367" t="s">
+      <c r="A141" s="374" t="s">
         <v>554</v>
       </c>
       <c r="B141" s="203" t="s">
@@ -23011,7 +23049,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="367"/>
+      <c r="A142" s="374"/>
       <c r="B142" s="203" t="s">
         <v>192</v>
       </c>
@@ -23038,7 +23076,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="367"/>
+      <c r="A143" s="374"/>
       <c r="B143" s="203" t="s">
         <v>374</v>
       </c>
@@ -23065,7 +23103,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="367"/>
+      <c r="A144" s="374"/>
       <c r="B144" s="203" t="s">
         <v>556</v>
       </c>
@@ -23092,7 +23130,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="367" t="s">
+      <c r="A145" s="374" t="s">
         <v>546</v>
       </c>
       <c r="B145" s="203" t="s">
@@ -23121,7 +23159,7 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="367"/>
+      <c r="A146" s="374"/>
       <c r="B146" s="203" t="s">
         <v>192</v>
       </c>
@@ -23148,7 +23186,7 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="367"/>
+      <c r="A147" s="374"/>
       <c r="B147" s="203" t="s">
         <v>374</v>
       </c>
@@ -23175,7 +23213,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="367"/>
+      <c r="A148" s="374"/>
       <c r="B148" s="203" t="s">
         <v>556</v>
       </c>
@@ -23202,7 +23240,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="367" t="s">
+      <c r="A149" s="374" t="s">
         <v>547</v>
       </c>
       <c r="B149" s="203" t="s">
@@ -23231,7 +23269,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="367"/>
+      <c r="A150" s="374"/>
       <c r="B150" s="203" t="s">
         <v>192</v>
       </c>
@@ -23258,7 +23296,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="367"/>
+      <c r="A151" s="374"/>
       <c r="B151" s="203" t="s">
         <v>374</v>
       </c>
@@ -23285,7 +23323,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="367"/>
+      <c r="A152" s="374"/>
       <c r="B152" s="203" t="s">
         <v>556</v>
       </c>
@@ -23312,7 +23350,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="367" t="s">
+      <c r="A153" s="374" t="s">
         <v>558</v>
       </c>
       <c r="B153" s="203" t="s">
@@ -23341,7 +23379,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="367"/>
+      <c r="A154" s="374"/>
       <c r="B154" s="203" t="s">
         <v>192</v>
       </c>
@@ -23368,7 +23406,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="367"/>
+      <c r="A155" s="374"/>
       <c r="B155" s="203" t="s">
         <v>374</v>
       </c>
@@ -23395,7 +23433,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A156" s="371"/>
+      <c r="A156" s="378"/>
       <c r="B156" s="204" t="s">
         <v>556</v>
       </c>
@@ -23429,32 +23467,32 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="18.75">
-      <c r="A160" s="349" t="s">
+      <c r="A160" s="355" t="s">
         <v>317</v>
       </c>
-      <c r="B160" s="350"/>
-      <c r="C160" s="350"/>
-      <c r="D160" s="350"/>
-      <c r="E160" s="351"/>
+      <c r="B160" s="356"/>
+      <c r="C160" s="356"/>
+      <c r="D160" s="356"/>
+      <c r="E160" s="357"/>
     </row>
     <row r="161" spans="1:17" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A161" s="372" t="s">
+      <c r="A161" s="379" t="s">
         <v>318</v>
       </c>
-      <c r="B161" s="372"/>
-      <c r="C161" s="372"/>
-      <c r="D161" s="372"/>
-      <c r="E161" s="372"/>
+      <c r="B161" s="379"/>
+      <c r="C161" s="379"/>
+      <c r="D161" s="379"/>
+      <c r="E161" s="379"/>
     </row>
     <row r="162" spans="1:17" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1"/>
     <row r="163" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A163" s="373" t="s">
+      <c r="A163" s="380" t="s">
         <v>319</v>
       </c>
       <c r="B163" s="226" t="s">
         <v>320</v>
       </c>
-      <c r="C163" s="374">
+      <c r="C163" s="381">
         <v>3</v>
       </c>
       <c r="D163" s="67"/>
@@ -23469,11 +23507,11 @@
       <c r="N163" s="67"/>
     </row>
     <row r="164" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A164" s="367"/>
+      <c r="A164" s="374"/>
       <c r="B164" s="203" t="s">
         <v>321</v>
       </c>
-      <c r="C164" s="374"/>
+      <c r="C164" s="381"/>
       <c r="D164" s="127"/>
       <c r="E164" s="127"/>
       <c r="F164" s="127"/>
@@ -23487,11 +23525,11 @@
       <c r="N164" s="127"/>
     </row>
     <row r="165" spans="1:17" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A165" s="371"/>
+      <c r="A165" s="378"/>
       <c r="B165" s="204" t="s">
         <v>322</v>
       </c>
-      <c r="C165" s="374"/>
+      <c r="C165" s="381"/>
       <c r="D165" s="67"/>
       <c r="E165" s="67"/>
       <c r="F165" s="67"/>
@@ -23506,11 +23544,11 @@
     </row>
     <row r="166" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="167" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A167" s="324" t="s">
+      <c r="A167" s="330" t="s">
         <v>323</v>
       </c>
-      <c r="B167" s="325"/>
-      <c r="C167" s="326"/>
+      <c r="B167" s="331"/>
+      <c r="C167" s="332"/>
     </row>
     <row r="168" spans="1:17">
       <c r="A168" s="210" t="s">
@@ -23535,50 +23573,50 @@
       </c>
     </row>
     <row r="170" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A170" s="324" t="s">
+      <c r="A170" s="330" t="s">
         <v>560</v>
       </c>
-      <c r="B170" s="325"/>
-      <c r="C170" s="324" t="s">
+      <c r="B170" s="331"/>
+      <c r="C170" s="330" t="s">
         <v>558</v>
       </c>
-      <c r="D170" s="325" t="s">
+      <c r="D170" s="331" t="s">
         <v>561</v>
       </c>
-      <c r="E170" s="324" t="s">
+      <c r="E170" s="330" t="s">
         <v>562</v>
       </c>
-      <c r="F170" s="325" t="s">
+      <c r="F170" s="331" t="s">
         <v>563</v>
       </c>
-      <c r="G170" s="324" t="s">
+      <c r="G170" s="330" t="s">
         <v>564</v>
       </c>
-      <c r="H170" s="325" t="s">
+      <c r="H170" s="331" t="s">
         <v>565</v>
       </c>
-      <c r="I170" s="324" t="s">
+      <c r="I170" s="330" t="s">
         <v>566</v>
       </c>
-      <c r="J170" s="325" t="s">
+      <c r="J170" s="331" t="s">
         <v>567</v>
       </c>
-      <c r="K170" s="324" t="s">
+      <c r="K170" s="330" t="s">
         <v>354</v>
       </c>
-      <c r="L170" s="325" t="s">
+      <c r="L170" s="331" t="s">
         <v>568</v>
       </c>
-      <c r="M170" s="324" t="s">
+      <c r="M170" s="330" t="s">
         <v>569</v>
       </c>
-      <c r="N170" s="325" t="s">
+      <c r="N170" s="331" t="s">
         <v>570</v>
       </c>
-      <c r="O170" s="324" t="s">
+      <c r="O170" s="330" t="s">
         <v>571</v>
       </c>
-      <c r="P170" s="325" t="s">
+      <c r="P170" s="331" t="s">
         <v>572</v>
       </c>
       <c r="Q170" s="215" t="s">
@@ -23586,10 +23624,10 @@
       </c>
     </row>
     <row r="171" spans="1:17">
-      <c r="A171" s="365" t="s">
+      <c r="A171" s="372" t="s">
         <v>374</v>
       </c>
-      <c r="B171" s="366"/>
+      <c r="B171" s="373"/>
       <c r="C171" s="182">
         <v>2030</v>
       </c>
@@ -23637,10 +23675,10 @@
       </c>
     </row>
     <row r="172" spans="1:17">
-      <c r="A172" s="365" t="s">
+      <c r="A172" s="372" t="s">
         <v>375</v>
       </c>
-      <c r="B172" s="366"/>
+      <c r="B172" s="373"/>
       <c r="C172" s="182">
         <v>2030</v>
       </c>
@@ -23688,10 +23726,10 @@
       </c>
     </row>
     <row r="173" spans="1:17">
-      <c r="A173" s="365" t="s">
+      <c r="A173" s="372" t="s">
         <v>376</v>
       </c>
-      <c r="B173" s="366"/>
+      <c r="B173" s="373"/>
       <c r="C173" s="182">
         <v>2030</v>
       </c>
@@ -23739,10 +23777,10 @@
       </c>
     </row>
     <row r="174" spans="1:17">
-      <c r="A174" s="365" t="s">
+      <c r="A174" s="372" t="s">
         <v>377</v>
       </c>
-      <c r="B174" s="366"/>
+      <c r="B174" s="373"/>
       <c r="C174" s="182">
         <v>2030</v>
       </c>
@@ -23790,10 +23828,10 @@
       </c>
     </row>
     <row r="175" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A175" s="365" t="s">
+      <c r="A175" s="372" t="s">
         <v>378</v>
       </c>
-      <c r="B175" s="366"/>
+      <c r="B175" s="373"/>
       <c r="C175" s="182">
         <v>2030</v>
       </c>
@@ -23841,31 +23879,31 @@
       </c>
     </row>
     <row r="176" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A176" s="349" t="s">
+      <c r="A176" s="355" t="s">
         <v>574</v>
       </c>
-      <c r="B176" s="350"/>
-      <c r="C176" s="350"/>
-      <c r="D176" s="350"/>
-      <c r="E176" s="350"/>
-      <c r="F176" s="350"/>
-      <c r="G176" s="350"/>
-      <c r="H176" s="350"/>
-      <c r="I176" s="350"/>
-      <c r="J176" s="350"/>
-      <c r="K176" s="350"/>
-      <c r="L176" s="350"/>
-      <c r="M176" s="350"/>
-      <c r="N176" s="350"/>
-      <c r="O176" s="350"/>
-      <c r="P176" s="350"/>
-      <c r="Q176" s="351"/>
+      <c r="B176" s="356"/>
+      <c r="C176" s="356"/>
+      <c r="D176" s="356"/>
+      <c r="E176" s="356"/>
+      <c r="F176" s="356"/>
+      <c r="G176" s="356"/>
+      <c r="H176" s="356"/>
+      <c r="I176" s="356"/>
+      <c r="J176" s="356"/>
+      <c r="K176" s="356"/>
+      <c r="L176" s="356"/>
+      <c r="M176" s="356"/>
+      <c r="N176" s="356"/>
+      <c r="O176" s="356"/>
+      <c r="P176" s="356"/>
+      <c r="Q176" s="357"/>
     </row>
     <row r="177" spans="1:17">
-      <c r="A177" s="365" t="s">
+      <c r="A177" s="372" t="s">
         <v>374</v>
       </c>
-      <c r="B177" s="366"/>
+      <c r="B177" s="373"/>
       <c r="C177" s="182">
         <v>1</v>
       </c>
@@ -23913,10 +23951,10 @@
       </c>
     </row>
     <row r="178" spans="1:17">
-      <c r="A178" s="365" t="s">
+      <c r="A178" s="372" t="s">
         <v>375</v>
       </c>
-      <c r="B178" s="366"/>
+      <c r="B178" s="373"/>
       <c r="C178" s="182">
         <v>1</v>
       </c>
@@ -23964,10 +24002,10 @@
       </c>
     </row>
     <row r="179" spans="1:17">
-      <c r="A179" s="365" t="s">
+      <c r="A179" s="372" t="s">
         <v>376</v>
       </c>
-      <c r="B179" s="366"/>
+      <c r="B179" s="373"/>
       <c r="C179" s="182">
         <v>1</v>
       </c>
@@ -24015,10 +24053,10 @@
       </c>
     </row>
     <row r="180" spans="1:17">
-      <c r="A180" s="365" t="s">
+      <c r="A180" s="372" t="s">
         <v>377</v>
       </c>
-      <c r="B180" s="366"/>
+      <c r="B180" s="373"/>
       <c r="C180" s="182">
         <v>1</v>
       </c>
@@ -24066,10 +24104,10 @@
       </c>
     </row>
     <row r="181" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A181" s="365" t="s">
+      <c r="A181" s="372" t="s">
         <v>378</v>
       </c>
-      <c r="B181" s="366"/>
+      <c r="B181" s="373"/>
       <c r="C181" s="182">
         <v>1</v>
       </c>
@@ -24117,31 +24155,31 @@
       </c>
     </row>
     <row r="182" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A182" s="349" t="s">
+      <c r="A182" s="355" t="s">
         <v>575</v>
       </c>
-      <c r="B182" s="350"/>
-      <c r="C182" s="350"/>
-      <c r="D182" s="350"/>
-      <c r="E182" s="350"/>
-      <c r="F182" s="350"/>
-      <c r="G182" s="350"/>
-      <c r="H182" s="350"/>
-      <c r="I182" s="350"/>
-      <c r="J182" s="350"/>
-      <c r="K182" s="350"/>
-      <c r="L182" s="350"/>
-      <c r="M182" s="350"/>
-      <c r="N182" s="350"/>
-      <c r="O182" s="350"/>
-      <c r="P182" s="350"/>
-      <c r="Q182" s="351"/>
+      <c r="B182" s="356"/>
+      <c r="C182" s="356"/>
+      <c r="D182" s="356"/>
+      <c r="E182" s="356"/>
+      <c r="F182" s="356"/>
+      <c r="G182" s="356"/>
+      <c r="H182" s="356"/>
+      <c r="I182" s="356"/>
+      <c r="J182" s="356"/>
+      <c r="K182" s="356"/>
+      <c r="L182" s="356"/>
+      <c r="M182" s="356"/>
+      <c r="N182" s="356"/>
+      <c r="O182" s="356"/>
+      <c r="P182" s="356"/>
+      <c r="Q182" s="357"/>
     </row>
     <row r="183" spans="1:17">
-      <c r="A183" s="365" t="s">
+      <c r="A183" s="372" t="s">
         <v>374</v>
       </c>
-      <c r="B183" s="366"/>
+      <c r="B183" s="373"/>
       <c r="C183" s="182">
         <v>2040</v>
       </c>
@@ -24189,10 +24227,10 @@
       </c>
     </row>
     <row r="184" spans="1:17">
-      <c r="A184" s="365" t="s">
+      <c r="A184" s="372" t="s">
         <v>375</v>
       </c>
-      <c r="B184" s="366"/>
+      <c r="B184" s="373"/>
       <c r="C184" s="182">
         <v>2040</v>
       </c>
@@ -24240,10 +24278,10 @@
       </c>
     </row>
     <row r="185" spans="1:17">
-      <c r="A185" s="365" t="s">
+      <c r="A185" s="372" t="s">
         <v>376</v>
       </c>
-      <c r="B185" s="366"/>
+      <c r="B185" s="373"/>
       <c r="C185" s="182">
         <v>2040</v>
       </c>
@@ -24291,10 +24329,10 @@
       </c>
     </row>
     <row r="186" spans="1:17">
-      <c r="A186" s="365" t="s">
+      <c r="A186" s="372" t="s">
         <v>377</v>
       </c>
-      <c r="B186" s="366"/>
+      <c r="B186" s="373"/>
       <c r="C186" s="182">
         <v>2040</v>
       </c>
@@ -24342,10 +24380,10 @@
       </c>
     </row>
     <row r="187" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A187" s="365" t="s">
+      <c r="A187" s="372" t="s">
         <v>378</v>
       </c>
-      <c r="B187" s="366"/>
+      <c r="B187" s="373"/>
       <c r="C187" s="182">
         <v>2040</v>
       </c>
@@ -24393,31 +24431,31 @@
       </c>
     </row>
     <row r="188" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A188" s="349" t="s">
+      <c r="A188" s="355" t="s">
         <v>576</v>
       </c>
-      <c r="B188" s="350"/>
-      <c r="C188" s="350"/>
-      <c r="D188" s="350"/>
-      <c r="E188" s="350"/>
-      <c r="F188" s="350"/>
-      <c r="G188" s="350"/>
-      <c r="H188" s="350"/>
-      <c r="I188" s="350"/>
-      <c r="J188" s="350"/>
-      <c r="K188" s="350"/>
-      <c r="L188" s="350"/>
-      <c r="M188" s="350"/>
-      <c r="N188" s="350"/>
-      <c r="O188" s="350"/>
-      <c r="P188" s="350"/>
-      <c r="Q188" s="351"/>
+      <c r="B188" s="356"/>
+      <c r="C188" s="356"/>
+      <c r="D188" s="356"/>
+      <c r="E188" s="356"/>
+      <c r="F188" s="356"/>
+      <c r="G188" s="356"/>
+      <c r="H188" s="356"/>
+      <c r="I188" s="356"/>
+      <c r="J188" s="356"/>
+      <c r="K188" s="356"/>
+      <c r="L188" s="356"/>
+      <c r="M188" s="356"/>
+      <c r="N188" s="356"/>
+      <c r="O188" s="356"/>
+      <c r="P188" s="356"/>
+      <c r="Q188" s="357"/>
     </row>
     <row r="189" spans="1:17">
-      <c r="A189" s="365" t="s">
+      <c r="A189" s="372" t="s">
         <v>374</v>
       </c>
-      <c r="B189" s="366"/>
+      <c r="B189" s="373"/>
       <c r="C189" s="182">
         <v>1</v>
       </c>
@@ -24465,10 +24503,10 @@
       </c>
     </row>
     <row r="190" spans="1:17">
-      <c r="A190" s="365" t="s">
+      <c r="A190" s="372" t="s">
         <v>375</v>
       </c>
-      <c r="B190" s="366"/>
+      <c r="B190" s="373"/>
       <c r="C190" s="182">
         <v>1</v>
       </c>
@@ -24516,10 +24554,10 @@
       </c>
     </row>
     <row r="191" spans="1:17">
-      <c r="A191" s="365" t="s">
+      <c r="A191" s="372" t="s">
         <v>376</v>
       </c>
-      <c r="B191" s="366"/>
+      <c r="B191" s="373"/>
       <c r="C191" s="182">
         <v>1</v>
       </c>
@@ -24567,10 +24605,10 @@
       </c>
     </row>
     <row r="192" spans="1:17">
-      <c r="A192" s="365" t="s">
+      <c r="A192" s="372" t="s">
         <v>377</v>
       </c>
-      <c r="B192" s="366"/>
+      <c r="B192" s="373"/>
       <c r="C192" s="182">
         <v>1</v>
       </c>
@@ -24618,10 +24656,10 @@
       </c>
     </row>
     <row r="193" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A193" s="365" t="s">
+      <c r="A193" s="372" t="s">
         <v>378</v>
       </c>
-      <c r="B193" s="366"/>
+      <c r="B193" s="373"/>
       <c r="C193" s="182">
         <v>1</v>
       </c>
@@ -24669,31 +24707,31 @@
       </c>
     </row>
     <row r="194" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A194" s="349" t="s">
+      <c r="A194" s="355" t="s">
         <v>577</v>
       </c>
-      <c r="B194" s="350"/>
-      <c r="C194" s="350"/>
-      <c r="D194" s="350"/>
-      <c r="E194" s="350"/>
-      <c r="F194" s="350"/>
-      <c r="G194" s="350"/>
-      <c r="H194" s="350"/>
-      <c r="I194" s="350"/>
-      <c r="J194" s="350"/>
-      <c r="K194" s="350"/>
-      <c r="L194" s="350"/>
-      <c r="M194" s="350"/>
-      <c r="N194" s="350"/>
-      <c r="O194" s="350"/>
-      <c r="P194" s="350"/>
-      <c r="Q194" s="351"/>
+      <c r="B194" s="356"/>
+      <c r="C194" s="356"/>
+      <c r="D194" s="356"/>
+      <c r="E194" s="356"/>
+      <c r="F194" s="356"/>
+      <c r="G194" s="356"/>
+      <c r="H194" s="356"/>
+      <c r="I194" s="356"/>
+      <c r="J194" s="356"/>
+      <c r="K194" s="356"/>
+      <c r="L194" s="356"/>
+      <c r="M194" s="356"/>
+      <c r="N194" s="356"/>
+      <c r="O194" s="356"/>
+      <c r="P194" s="356"/>
+      <c r="Q194" s="357"/>
     </row>
     <row r="195" spans="1:17">
-      <c r="A195" s="365" t="s">
+      <c r="A195" s="372" t="s">
         <v>374</v>
       </c>
-      <c r="B195" s="366"/>
+      <c r="B195" s="373"/>
       <c r="C195" s="182">
         <v>2050</v>
       </c>
@@ -24741,10 +24779,10 @@
       </c>
     </row>
     <row r="196" spans="1:17">
-      <c r="A196" s="365" t="s">
+      <c r="A196" s="372" t="s">
         <v>375</v>
       </c>
-      <c r="B196" s="366"/>
+      <c r="B196" s="373"/>
       <c r="C196" s="182">
         <v>2050</v>
       </c>
@@ -24792,10 +24830,10 @@
       </c>
     </row>
     <row r="197" spans="1:17">
-      <c r="A197" s="365" t="s">
+      <c r="A197" s="372" t="s">
         <v>376</v>
       </c>
-      <c r="B197" s="366"/>
+      <c r="B197" s="373"/>
       <c r="C197" s="182">
         <v>2050</v>
       </c>
@@ -24843,10 +24881,10 @@
       </c>
     </row>
     <row r="198" spans="1:17">
-      <c r="A198" s="365" t="s">
+      <c r="A198" s="372" t="s">
         <v>377</v>
       </c>
-      <c r="B198" s="366"/>
+      <c r="B198" s="373"/>
       <c r="C198" s="182">
         <v>2050</v>
       </c>
@@ -24894,10 +24932,10 @@
       </c>
     </row>
     <row r="199" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A199" s="365" t="s">
+      <c r="A199" s="372" t="s">
         <v>378</v>
       </c>
-      <c r="B199" s="366"/>
+      <c r="B199" s="373"/>
       <c r="C199" s="184">
         <v>2050</v>
       </c>
@@ -24946,29 +24984,29 @@
     </row>
     <row r="200" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="201" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A201" s="324" t="s">
+      <c r="A201" s="330" t="s">
         <v>386</v>
       </c>
-      <c r="B201" s="325"/>
-      <c r="C201" s="326"/>
+      <c r="B201" s="331"/>
+      <c r="C201" s="332"/>
     </row>
     <row r="202" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A202" s="357" t="s">
+      <c r="A202" s="364" t="s">
         <v>387</v>
       </c>
       <c r="B202" s="229" t="s">
         <v>388</v>
       </c>
-      <c r="C202" s="358">
+      <c r="C202" s="365">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A203" s="357"/>
+      <c r="A203" s="364"/>
       <c r="B203" s="229" t="s">
         <v>389</v>
       </c>
-      <c r="C203" s="358"/>
+      <c r="C203" s="365"/>
     </row>
     <row r="204" spans="1:17">
       <c r="A204" s="210" t="s">
@@ -24993,31 +25031,31 @@
       </c>
     </row>
     <row r="206" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A206" s="324" t="s">
+      <c r="A206" s="330" t="s">
         <v>394</v>
       </c>
-      <c r="B206" s="325"/>
-      <c r="C206" s="325"/>
-      <c r="D206" s="325"/>
-      <c r="E206" s="325"/>
-      <c r="F206" s="325"/>
-      <c r="G206" s="325"/>
-      <c r="H206" s="325"/>
-      <c r="I206" s="325"/>
-      <c r="J206" s="325"/>
-      <c r="K206" s="325"/>
-      <c r="L206" s="325"/>
-      <c r="M206" s="325"/>
-      <c r="N206" s="325"/>
-      <c r="O206" s="325"/>
-      <c r="P206" s="325"/>
-      <c r="Q206" s="326"/>
+      <c r="B206" s="331"/>
+      <c r="C206" s="331"/>
+      <c r="D206" s="331"/>
+      <c r="E206" s="331"/>
+      <c r="F206" s="331"/>
+      <c r="G206" s="331"/>
+      <c r="H206" s="331"/>
+      <c r="I206" s="331"/>
+      <c r="J206" s="331"/>
+      <c r="K206" s="331"/>
+      <c r="L206" s="331"/>
+      <c r="M206" s="331"/>
+      <c r="N206" s="331"/>
+      <c r="O206" s="331"/>
+      <c r="P206" s="331"/>
+      <c r="Q206" s="332"/>
     </row>
     <row r="207" spans="1:17">
-      <c r="A207" s="359" t="s">
+      <c r="A207" s="366" t="s">
         <v>579</v>
       </c>
-      <c r="B207" s="360"/>
+      <c r="B207" s="367"/>
       <c r="C207" s="231" t="s">
         <v>558</v>
       </c>
@@ -25065,10 +25103,10 @@
       </c>
     </row>
     <row r="208" spans="1:17">
-      <c r="A208" s="361" t="s">
+      <c r="A208" s="368" t="s">
         <v>374</v>
       </c>
-      <c r="B208" s="362"/>
+      <c r="B208" s="369"/>
       <c r="C208" s="187">
         <v>2.0988108649939148E-7</v>
       </c>
@@ -25116,10 +25154,10 @@
       </c>
     </row>
     <row r="209" spans="1:17">
-      <c r="A209" s="361" t="s">
+      <c r="A209" s="368" t="s">
         <v>375</v>
       </c>
-      <c r="B209" s="362"/>
+      <c r="B209" s="369"/>
       <c r="C209" s="187">
         <v>7.0898583762902546E-9</v>
       </c>
@@ -25167,10 +25205,10 @@
       </c>
     </row>
     <row r="210" spans="1:17">
-      <c r="A210" s="361" t="s">
+      <c r="A210" s="368" t="s">
         <v>376</v>
       </c>
-      <c r="B210" s="362"/>
+      <c r="B210" s="369"/>
       <c r="C210" s="187">
         <v>1.959507108702433E-7</v>
       </c>
@@ -25218,10 +25256,10 @@
       </c>
     </row>
     <row r="211" spans="1:17">
-      <c r="A211" s="361" t="s">
+      <c r="A211" s="368" t="s">
         <v>377</v>
       </c>
-      <c r="B211" s="362"/>
+      <c r="B211" s="369"/>
       <c r="C211" s="187">
         <v>2.3519126361007716E-8</v>
       </c>
@@ -25269,10 +25307,10 @@
       </c>
     </row>
     <row r="212" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A212" s="363" t="s">
+      <c r="A212" s="370" t="s">
         <v>378</v>
       </c>
-      <c r="B212" s="364"/>
+      <c r="B212" s="371"/>
       <c r="C212" s="237">
         <v>1.5772121693582499E-8</v>
       </c>
@@ -25320,11 +25358,11 @@
       </c>
     </row>
     <row r="213" spans="1:17" ht="18.75">
-      <c r="A213" s="324" t="s">
+      <c r="A213" s="330" t="s">
         <v>397</v>
       </c>
-      <c r="B213" s="325"/>
-      <c r="C213" s="326"/>
+      <c r="B213" s="331"/>
+      <c r="C213" s="332"/>
     </row>
     <row r="214" spans="1:17" ht="30">
       <c r="A214" s="227" t="s">
@@ -25350,11 +25388,11 @@
     </row>
     <row r="216" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A217" s="324" t="s">
+      <c r="A217" s="330" t="s">
         <v>400</v>
       </c>
-      <c r="B217" s="325"/>
-      <c r="C217" s="326"/>
+      <c r="B217" s="331"/>
+      <c r="C217" s="332"/>
     </row>
     <row r="218" spans="1:17" ht="28.5" customHeight="1">
       <c r="A218" s="238" t="s">
@@ -25368,29 +25406,29 @@
       </c>
     </row>
     <row r="219" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A219" s="352" t="s">
+      <c r="A219" s="359" t="s">
         <v>403</v>
       </c>
       <c r="B219" s="229" t="s">
         <v>404</v>
       </c>
-      <c r="C219" s="353">
+      <c r="C219" s="360">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:17">
-      <c r="A220" s="352"/>
+      <c r="A220" s="359"/>
       <c r="B220" s="229" t="s">
         <v>408</v>
       </c>
-      <c r="C220" s="353"/>
+      <c r="C220" s="360"/>
     </row>
     <row r="221" spans="1:17">
-      <c r="A221" s="352"/>
+      <c r="A221" s="359"/>
       <c r="B221" s="229" t="s">
         <v>409</v>
       </c>
-      <c r="C221" s="353"/>
+      <c r="C221" s="360"/>
     </row>
     <row r="222" spans="1:17">
       <c r="A222" s="238" t="s">
@@ -25404,29 +25442,29 @@
       </c>
     </row>
     <row r="223" spans="1:17" ht="15" customHeight="1">
-      <c r="A223" s="352" t="s">
+      <c r="A223" s="359" t="s">
         <v>406</v>
       </c>
       <c r="B223" s="229" t="s">
         <v>404</v>
       </c>
-      <c r="C223" s="353">
+      <c r="C223" s="360">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:17">
-      <c r="A224" s="352"/>
+      <c r="A224" s="359"/>
       <c r="B224" s="229" t="s">
         <v>408</v>
       </c>
-      <c r="C224" s="353"/>
+      <c r="C224" s="360"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="352"/>
+      <c r="A225" s="359"/>
       <c r="B225" s="229" t="s">
         <v>409</v>
       </c>
-      <c r="C225" s="353"/>
+      <c r="C225" s="360"/>
     </row>
     <row r="226" spans="1:5" ht="15.75" thickBot="1">
       <c r="A226" s="239" t="s">
@@ -25445,27 +25483,27 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A230" s="324" t="s">
+      <c r="A230" s="330" t="s">
         <v>429</v>
       </c>
-      <c r="B230" s="325"/>
-      <c r="C230" s="325"/>
-      <c r="D230" s="326"/>
+      <c r="B230" s="331"/>
+      <c r="C230" s="331"/>
+      <c r="D230" s="332"/>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A231" s="354" t="s">
+      <c r="A231" s="361" t="s">
         <v>430</v>
       </c>
-      <c r="B231" s="355"/>
-      <c r="C231" s="355"/>
-      <c r="D231" s="356"/>
+      <c r="B231" s="362"/>
+      <c r="C231" s="362"/>
+      <c r="D231" s="363"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="354" t="s">
+      <c r="A232" s="361" t="s">
         <v>431</v>
       </c>
-      <c r="B232" s="355"/>
-      <c r="C232" s="355"/>
+      <c r="B232" s="362"/>
+      <c r="C232" s="362"/>
       <c r="D232" s="248">
         <v>2</v>
       </c>
@@ -25485,9 +25523,9 @@
       <c r="B234" s="244">
         <v>2050</v>
       </c>
-      <c r="C234" s="344"/>
-      <c r="D234" s="344"/>
-      <c r="E234" s="345"/>
+      <c r="C234" s="350"/>
+      <c r="D234" s="350"/>
+      <c r="E234" s="351"/>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="245" t="s">
@@ -25505,7 +25543,7 @@
       </c>
     </row>
     <row r="236" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A236" s="340" t="s">
+      <c r="A236" s="346" t="s">
         <v>439</v>
       </c>
       <c r="B236" s="240" t="s">
@@ -25522,7 +25560,7 @@
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="340"/>
+      <c r="A237" s="346"/>
       <c r="B237" s="240" t="s">
         <v>443</v>
       </c>
@@ -25537,7 +25575,7 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="340"/>
+      <c r="A238" s="346"/>
       <c r="B238" s="240" t="s">
         <v>444</v>
       </c>
@@ -25552,7 +25590,7 @@
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="340"/>
+      <c r="A239" s="346"/>
       <c r="B239" s="240" t="s">
         <v>445</v>
       </c>
@@ -25567,7 +25605,7 @@
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="340"/>
+      <c r="A240" s="346"/>
       <c r="B240" s="240" t="s">
         <v>446</v>
       </c>
@@ -25582,7 +25620,7 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="340"/>
+      <c r="A241" s="346"/>
       <c r="B241" s="240" t="s">
         <v>447</v>
       </c>
@@ -25597,7 +25635,7 @@
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="340"/>
+      <c r="A242" s="346"/>
       <c r="B242" s="240" t="s">
         <v>448</v>
       </c>
@@ -25612,7 +25650,7 @@
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="340"/>
+      <c r="A243" s="346"/>
       <c r="B243" s="240" t="s">
         <v>449</v>
       </c>
@@ -25627,7 +25665,7 @@
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="340"/>
+      <c r="A244" s="346"/>
       <c r="B244" s="240" t="s">
         <v>450</v>
       </c>
@@ -25642,7 +25680,7 @@
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="340"/>
+      <c r="A245" s="346"/>
       <c r="B245" s="240" t="s">
         <v>451</v>
       </c>
@@ -25657,7 +25695,7 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="340"/>
+      <c r="A246" s="346"/>
       <c r="B246" s="240" t="s">
         <v>452</v>
       </c>
@@ -25672,7 +25710,7 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="340"/>
+      <c r="A247" s="346"/>
       <c r="B247" s="240" t="s">
         <v>453</v>
       </c>
@@ -25687,7 +25725,7 @@
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="340"/>
+      <c r="A248" s="346"/>
       <c r="B248" s="240" t="s">
         <v>454</v>
       </c>
@@ -25702,7 +25740,7 @@
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="340"/>
+      <c r="A249" s="346"/>
       <c r="B249" s="240" t="s">
         <v>455</v>
       </c>
@@ -25717,7 +25755,7 @@
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="340"/>
+      <c r="A250" s="346"/>
       <c r="B250" s="240" t="s">
         <v>456</v>
       </c>
@@ -25732,7 +25770,7 @@
       </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="340"/>
+      <c r="A251" s="346"/>
       <c r="B251" s="240" t="s">
         <v>457</v>
       </c>
@@ -25747,7 +25785,7 @@
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="340"/>
+      <c r="A252" s="346"/>
       <c r="B252" s="240" t="s">
         <v>458</v>
       </c>
@@ -25762,7 +25800,7 @@
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="340"/>
+      <c r="A253" s="346"/>
       <c r="B253" s="240" t="s">
         <v>459</v>
       </c>
@@ -25777,7 +25815,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A254" s="341"/>
+      <c r="A254" s="347"/>
       <c r="B254" s="247" t="s">
         <v>460</v>
       </c>
@@ -25792,11 +25830,11 @@
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="346" t="s">
+      <c r="A255" s="352" t="s">
         <v>461</v>
       </c>
-      <c r="B255" s="347"/>
-      <c r="C255" s="348"/>
+      <c r="B255" s="353"/>
+      <c r="C255" s="354"/>
     </row>
     <row r="256" spans="1:5" ht="30">
       <c r="A256" s="238" t="s">
@@ -25844,18 +25882,18 @@
     </row>
     <row r="260" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="261" spans="1:10" ht="18.75">
-      <c r="A261" s="349" t="s">
+      <c r="A261" s="355" t="s">
         <v>232</v>
       </c>
-      <c r="B261" s="350"/>
-      <c r="C261" s="351"/>
+      <c r="B261" s="356"/>
+      <c r="C261" s="357"/>
     </row>
     <row r="262" spans="1:10">
-      <c r="A262" s="321" t="s">
+      <c r="A262" s="327" t="s">
         <v>233</v>
       </c>
-      <c r="B262" s="322"/>
-      <c r="C262" s="323"/>
+      <c r="B262" s="328"/>
+      <c r="C262" s="329"/>
       <c r="H262" s="44"/>
       <c r="J262" s="47"/>
     </row>
@@ -25873,51 +25911,51 @@
       <c r="J263" s="47"/>
     </row>
     <row r="264" spans="1:10">
-      <c r="A264" s="321" t="s">
+      <c r="A264" s="327" t="s">
         <v>589</v>
       </c>
-      <c r="B264" s="322"/>
-      <c r="C264" s="323"/>
+      <c r="B264" s="328"/>
+      <c r="C264" s="329"/>
       <c r="H264" s="44"/>
       <c r="J264" s="47"/>
     </row>
     <row r="265" spans="1:10">
-      <c r="A265" s="340" t="s">
+      <c r="A265" s="346" t="s">
         <v>590</v>
       </c>
       <c r="B265" s="229" t="s">
         <v>591</v>
       </c>
-      <c r="C265" s="342">
+      <c r="C265" s="348">
         <v>4</v>
       </c>
       <c r="H265" s="44"/>
       <c r="J265" s="47"/>
     </row>
     <row r="266" spans="1:10">
-      <c r="A266" s="340"/>
+      <c r="A266" s="346"/>
       <c r="B266" s="229" t="s">
         <v>592</v>
       </c>
-      <c r="C266" s="342"/>
+      <c r="C266" s="348"/>
       <c r="H266" s="44"/>
       <c r="J266" s="47"/>
     </row>
     <row r="267" spans="1:10">
-      <c r="A267" s="340"/>
+      <c r="A267" s="346"/>
       <c r="B267" s="229" t="s">
         <v>593</v>
       </c>
-      <c r="C267" s="342"/>
+      <c r="C267" s="348"/>
       <c r="H267" s="44"/>
       <c r="J267" s="47"/>
     </row>
     <row r="268" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A268" s="341"/>
+      <c r="A268" s="347"/>
       <c r="B268" s="230" t="s">
         <v>594</v>
       </c>
-      <c r="C268" s="343"/>
+      <c r="C268" s="349"/>
       <c r="H268" s="44"/>
       <c r="J268" s="47"/>
     </row>
@@ -25948,17 +25986,17 @@
       <c r="J272" s="47"/>
     </row>
     <row r="273" spans="1:10" ht="18.75">
-      <c r="A273" s="313" t="s">
+      <c r="A273" s="319" t="s">
         <v>595</v>
       </c>
-      <c r="B273" s="313"/>
-      <c r="C273" s="313"/>
-      <c r="D273" s="313"/>
-      <c r="E273" s="313"/>
-      <c r="F273" s="313"/>
-      <c r="G273" s="313"/>
-      <c r="H273" s="313"/>
-      <c r="I273" s="313"/>
+      <c r="B273" s="319"/>
+      <c r="C273" s="319"/>
+      <c r="D273" s="319"/>
+      <c r="E273" s="319"/>
+      <c r="F273" s="319"/>
+      <c r="G273" s="319"/>
+      <c r="H273" s="319"/>
+      <c r="I273" s="319"/>
       <c r="J273" s="47"/>
     </row>
     <row r="274" spans="1:10">
@@ -26062,22 +26100,26 @@
         <v>0</v>
       </c>
       <c r="D277" s="161">
-        <v>0</v>
+        <f>$C277+(($G277-$C277)/20)*(D274-2020)</f>
+        <v>1.2493511762363017E-3</v>
       </c>
       <c r="E277" s="161">
-        <v>0</v>
+        <f t="shared" ref="E277:F277" si="4">$C277+(($G277-$C277)/20)*(E274-2020)</f>
+        <v>2.4987023524726034E-3</v>
       </c>
       <c r="F277" s="161">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3.7480535287089051E-3</v>
       </c>
       <c r="G277" s="161">
-        <v>0</v>
+        <v>4.9974047049452068E-3</v>
       </c>
       <c r="H277" s="161">
-        <v>0</v>
+        <f>G277+(I277-G277)/2</f>
+        <v>5.3226795673972614E-3</v>
       </c>
       <c r="I277" s="162">
-        <v>0</v>
+        <v>5.647954429849316E-3</v>
       </c>
       <c r="J277" s="47"/>
     </row>
@@ -26152,22 +26194,22 @@
         <v>0</v>
       </c>
       <c r="D280" s="161">
-        <v>0</v>
+        <v>3.1492520773767131E-3</v>
       </c>
       <c r="E280" s="161">
-        <v>0</v>
+        <v>6.2985041547534261E-3</v>
       </c>
       <c r="F280" s="161">
-        <v>0</v>
+        <v>9.4477562321301396E-3</v>
       </c>
       <c r="G280" s="161">
-        <v>0</v>
+        <v>1.2597008309506852E-2</v>
       </c>
       <c r="H280" s="161">
-        <v>0</v>
+        <v>1.454865748421918E-2</v>
       </c>
       <c r="I280" s="162">
-        <v>0</v>
+        <v>1.6500306658931509E-2</v>
       </c>
       <c r="J280" s="47"/>
     </row>
@@ -26182,22 +26224,22 @@
         <v>0</v>
       </c>
       <c r="D281" s="161">
-        <v>0</v>
+        <v>3.9365650967208913E-4</v>
       </c>
       <c r="E281" s="161">
-        <v>0</v>
+        <v>7.8731301934417827E-4</v>
       </c>
       <c r="F281" s="161">
-        <v>0</v>
+        <v>1.1809695290162675E-3</v>
       </c>
       <c r="G281" s="161">
-        <v>0</v>
+        <v>1.5746260386883565E-3</v>
       </c>
       <c r="H281" s="161">
-        <v>0</v>
+        <v>1.8185821855273975E-3</v>
       </c>
       <c r="I281" s="162">
-        <v>0</v>
+        <v>2.0625383323664387E-3</v>
       </c>
       <c r="J281" s="47"/>
     </row>
@@ -26212,22 +26254,22 @@
         <v>0</v>
       </c>
       <c r="D282" s="161">
-        <v>0</v>
+        <v>3.9365650967208913E-4</v>
       </c>
       <c r="E282" s="161">
-        <v>0</v>
+        <v>7.8731301934417827E-4</v>
       </c>
       <c r="F282" s="161">
-        <v>0</v>
+        <v>1.1809695290162675E-3</v>
       </c>
       <c r="G282" s="161">
-        <v>0</v>
+        <v>1.5746260386883565E-3</v>
       </c>
       <c r="H282" s="161">
-        <v>0</v>
+        <v>1.8185821855273975E-3</v>
       </c>
       <c r="I282" s="162">
-        <v>0</v>
+        <v>2.0625383323664387E-3</v>
       </c>
       <c r="J282" s="47"/>
     </row>
@@ -26248,6 +26290,7 @@
         <v>0</v>
       </c>
       <c r="F283" s="161">
+        <f t="shared" ref="F283" si="5">$C283+(($G283-$C283)/20)*(F280-2020)</f>
         <v>0</v>
       </c>
       <c r="G283" s="161">
@@ -26442,1827 +26485,1424 @@
       <c r="J289" s="47"/>
     </row>
     <row r="290" spans="1:10">
-      <c r="H290" s="44"/>
+      <c r="A290" s="275" t="s">
+        <v>625</v>
+      </c>
+      <c r="B290" s="272"/>
+      <c r="C290" s="272"/>
+      <c r="D290" s="272"/>
+      <c r="E290" s="272"/>
+      <c r="F290" s="272"/>
+      <c r="G290" s="272"/>
+      <c r="H290" s="273"/>
+      <c r="I290" s="272"/>
       <c r="J290" s="47"/>
     </row>
     <row r="291" spans="1:10">
-      <c r="H291" s="44"/>
+      <c r="A291" s="192" t="s">
+        <v>558</v>
+      </c>
+      <c r="B291" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C291" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D291" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E291" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F291" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G291" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H291" s="161">
+        <f>G291+(I291-G291)/2</f>
+        <v>0.23865361380464051</v>
+      </c>
+      <c r="I291" s="161">
+        <v>0.28795811518324604</v>
+      </c>
       <c r="J291" s="47"/>
     </row>
-    <row r="292" spans="1:10" ht="27" thickBot="1">
-      <c r="A292" s="160" t="s">
+    <row r="292" spans="1:10">
+      <c r="A292" s="192" t="s">
+        <v>561</v>
+      </c>
+      <c r="B292" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C292" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D292" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E292" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F292" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G292" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H292" s="161">
+        <f>G292+(I292-G292)/2</f>
+        <v>0.23865361380464051</v>
+      </c>
+      <c r="I292" s="161">
+        <v>0.28795811518324604</v>
+      </c>
+      <c r="J292" s="47"/>
+    </row>
+    <row r="293" spans="1:10">
+      <c r="A293" s="192" t="s">
+        <v>562</v>
+      </c>
+      <c r="B293" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C293" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D293" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E293" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F293" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G293" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H293" s="161">
+        <f>G293+(I293-G293)/2</f>
+        <v>0.23865361380464051</v>
+      </c>
+      <c r="I293" s="161">
+        <v>0.28795811518324604</v>
+      </c>
+      <c r="J293" s="47"/>
+    </row>
+    <row r="294" spans="1:10">
+      <c r="A294" s="192" t="s">
+        <v>563</v>
+      </c>
+      <c r="B294" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C294" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D294" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E294" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F294" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G294" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H294" s="161">
+        <f t="shared" ref="H294:H305" si="6">G294+(I294-G294)/2</f>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I294" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J294" s="47"/>
+    </row>
+    <row r="295" spans="1:10">
+      <c r="A295" s="192" t="s">
+        <v>564</v>
+      </c>
+      <c r="B295" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C295" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D295" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E295" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F295" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G295" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H295" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I295" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J295" s="47"/>
+    </row>
+    <row r="296" spans="1:10">
+      <c r="A296" s="192" t="s">
+        <v>565</v>
+      </c>
+      <c r="B296" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C296" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D296" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E296" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F296" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G296" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H296" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I296" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J296" s="47"/>
+    </row>
+    <row r="297" spans="1:10">
+      <c r="A297" s="192" t="s">
+        <v>566</v>
+      </c>
+      <c r="B297" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C297" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D297" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E297" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F297" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G297" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H297" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I297" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J297" s="47"/>
+    </row>
+    <row r="298" spans="1:10">
+      <c r="A298" s="192" t="s">
+        <v>567</v>
+      </c>
+      <c r="B298" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C298" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D298" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E298" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F298" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G298" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H298" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I298" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J298" s="47"/>
+    </row>
+    <row r="299" spans="1:10">
+      <c r="A299" s="192" t="s">
+        <v>354</v>
+      </c>
+      <c r="B299" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C299" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D299" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E299" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F299" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G299" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H299" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I299" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J299" s="47"/>
+    </row>
+    <row r="300" spans="1:10">
+      <c r="A300" s="192" t="s">
+        <v>568</v>
+      </c>
+      <c r="B300" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C300" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D300" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E300" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F300" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G300" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H300" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I300" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J300" s="47"/>
+    </row>
+    <row r="301" spans="1:10">
+      <c r="A301" s="192" t="s">
+        <v>597</v>
+      </c>
+      <c r="B301" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C301" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D301" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E301" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F301" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G301" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H301" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I301" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J301" s="47"/>
+    </row>
+    <row r="302" spans="1:10">
+      <c r="A302" s="192" t="s">
+        <v>598</v>
+      </c>
+      <c r="B302" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C302" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D302" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E302" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F302" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G302" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H302" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I302" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J302" s="47"/>
+    </row>
+    <row r="303" spans="1:10">
+      <c r="A303" s="192" t="s">
+        <v>365</v>
+      </c>
+      <c r="B303" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C303" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D303" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E303" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F303" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G303" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H303" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I303" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J303" s="47"/>
+    </row>
+    <row r="304" spans="1:10">
+      <c r="A304" s="192" t="s">
+        <v>599</v>
+      </c>
+      <c r="B304" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C304" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D304" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E304" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F304" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G304" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H304" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I304" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J304" s="47"/>
+    </row>
+    <row r="305" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A305" s="201" t="s">
+        <v>600</v>
+      </c>
+      <c r="B305" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C305" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="D305" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="E305" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="F305" s="161">
+        <v>0.18934911242603547</v>
+      </c>
+      <c r="G305" s="161">
+        <v>0.189349112426035</v>
+      </c>
+      <c r="H305" s="161">
+        <f t="shared" si="6"/>
+        <v>0.1696745562130175</v>
+      </c>
+      <c r="I305" s="161">
+        <v>0.15</v>
+      </c>
+      <c r="J305" s="47"/>
+    </row>
+    <row r="306" spans="1:10" ht="18" customHeight="1">
+      <c r="A306" s="358" t="s">
+        <v>626</v>
+      </c>
+      <c r="B306" s="358"/>
+      <c r="C306" s="358"/>
+      <c r="D306" s="358"/>
+      <c r="E306" s="358"/>
+      <c r="F306" s="358"/>
+      <c r="G306" s="358"/>
+      <c r="H306" s="358"/>
+      <c r="I306" s="358"/>
+    </row>
+    <row r="307" spans="1:10">
+      <c r="A307" s="259" t="s">
+        <v>627</v>
+      </c>
+      <c r="B307" s="276" t="s">
+        <v>499</v>
+      </c>
+      <c r="C307" s="277">
+        <v>0</v>
+      </c>
+      <c r="D307" s="277">
+        <v>6.2534332762557085E-3</v>
+      </c>
+      <c r="E307" s="277">
+        <v>1.2506866552511417E-2</v>
+      </c>
+      <c r="F307" s="277">
+        <v>1.3510858133561645E-2</v>
+      </c>
+      <c r="G307" s="277">
+        <v>1.4514849714611873E-2</v>
+      </c>
+      <c r="H307" s="277">
+        <v>1.5518841295662101E-2</v>
+      </c>
+      <c r="I307" s="277">
+        <v>1.6522832876712329E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
+      <c r="H308" s="44"/>
+      <c r="J308" s="47"/>
+    </row>
+    <row r="309" spans="1:10">
+      <c r="H309" s="44"/>
+      <c r="J309" s="47"/>
+    </row>
+    <row r="310" spans="1:10" ht="27" thickBot="1">
+      <c r="A310" s="160" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="18.75">
-      <c r="A293" s="313" t="s">
+    <row r="311" spans="1:10" ht="18.75">
+      <c r="A311" s="319" t="s">
         <v>471</v>
       </c>
-      <c r="B293" s="313"/>
-      <c r="C293" s="313"/>
-      <c r="D293" s="313"/>
-      <c r="E293" s="313"/>
-      <c r="F293" s="313"/>
-    </row>
-    <row r="294" spans="1:10">
-      <c r="A294" s="327" t="s">
+      <c r="B311" s="319"/>
+      <c r="C311" s="319"/>
+      <c r="D311" s="319"/>
+      <c r="E311" s="319"/>
+      <c r="F311" s="319"/>
+    </row>
+    <row r="312" spans="1:10">
+      <c r="A312" s="333" t="s">
         <v>472</v>
       </c>
-      <c r="B294" s="328"/>
-      <c r="C294" s="328"/>
-      <c r="D294" s="328"/>
-      <c r="E294" s="328"/>
-      <c r="F294" s="329"/>
-    </row>
-    <row r="295" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A295" s="330" t="s">
+      <c r="B312" s="334"/>
+      <c r="C312" s="334"/>
+      <c r="D312" s="334"/>
+      <c r="E312" s="334"/>
+      <c r="F312" s="335"/>
+    </row>
+    <row r="313" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A313" s="336" t="s">
         <v>473</v>
       </c>
-      <c r="B295" s="331" t="s">
+      <c r="B313" s="337" t="s">
         <v>474</v>
       </c>
-      <c r="C295" s="332"/>
-      <c r="D295" s="333">
+      <c r="C313" s="338"/>
+      <c r="D313" s="339">
         <v>3</v>
       </c>
-      <c r="E295" s="258"/>
-      <c r="F295" s="253"/>
-    </row>
-    <row r="296" spans="1:10">
-      <c r="A296" s="330"/>
-      <c r="B296" s="331" t="s">
+      <c r="E313" s="258"/>
+      <c r="F313" s="253"/>
+    </row>
+    <row r="314" spans="1:10">
+      <c r="A314" s="336"/>
+      <c r="B314" s="337" t="s">
         <v>475</v>
       </c>
-      <c r="C296" s="332"/>
-      <c r="D296" s="333"/>
-      <c r="E296" s="258"/>
-      <c r="F296" s="253"/>
-    </row>
-    <row r="297" spans="1:10">
-      <c r="A297" s="330"/>
-      <c r="B297" s="331" t="s">
+      <c r="C314" s="338"/>
+      <c r="D314" s="339"/>
+      <c r="E314" s="258"/>
+      <c r="F314" s="253"/>
+    </row>
+    <row r="315" spans="1:10">
+      <c r="A315" s="336"/>
+      <c r="B315" s="337" t="s">
         <v>476</v>
       </c>
-      <c r="C297" s="332"/>
-      <c r="D297" s="333"/>
-      <c r="E297" s="194" t="s">
+      <c r="C315" s="338"/>
+      <c r="D315" s="339"/>
+      <c r="E315" s="194" t="s">
         <v>602</v>
       </c>
-      <c r="F297" s="195">
+      <c r="F315" s="195">
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
-      <c r="A298" s="327" t="s">
+    <row r="316" spans="1:10">
+      <c r="A316" s="333" t="s">
         <v>479</v>
       </c>
-      <c r="B298" s="328"/>
-      <c r="C298" s="328"/>
-      <c r="D298" s="328"/>
-      <c r="E298" s="328"/>
-      <c r="F298" s="329"/>
-    </row>
-    <row r="299" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A299" s="334" t="s">
+      <c r="B316" s="334"/>
+      <c r="C316" s="334"/>
+      <c r="D316" s="334"/>
+      <c r="E316" s="334"/>
+      <c r="F316" s="335"/>
+    </row>
+    <row r="317" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A317" s="340" t="s">
         <v>480</v>
       </c>
-      <c r="B299" s="331" t="s">
+      <c r="B317" s="337" t="s">
         <v>481</v>
       </c>
-      <c r="C299" s="332"/>
-      <c r="D299" s="335">
+      <c r="C317" s="338"/>
+      <c r="D317" s="341">
         <v>3</v>
       </c>
-      <c r="E299" s="258"/>
-      <c r="F299" s="253"/>
-    </row>
-    <row r="300" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A300" s="334"/>
-      <c r="B300" s="331" t="s">
+      <c r="E317" s="258"/>
+      <c r="F317" s="253"/>
+    </row>
+    <row r="318" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A318" s="340"/>
+      <c r="B318" s="337" t="s">
         <v>482</v>
       </c>
-      <c r="C300" s="332"/>
-      <c r="D300" s="335"/>
-      <c r="E300" s="258"/>
-      <c r="F300" s="253"/>
-    </row>
-    <row r="301" spans="1:10">
-      <c r="A301" s="334"/>
-      <c r="B301" s="331" t="s">
+      <c r="C318" s="338"/>
+      <c r="D318" s="341"/>
+      <c r="E318" s="258"/>
+      <c r="F318" s="253"/>
+    </row>
+    <row r="319" spans="1:10">
+      <c r="A319" s="340"/>
+      <c r="B319" s="337" t="s">
         <v>483</v>
       </c>
-      <c r="C301" s="332"/>
-      <c r="D301" s="335"/>
-      <c r="E301" s="194" t="s">
+      <c r="C319" s="338"/>
+      <c r="D319" s="341"/>
+      <c r="E319" s="194" t="s">
         <v>603</v>
       </c>
-      <c r="F301" s="195">
+      <c r="F319" s="195">
         <v>0.504</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
-      <c r="A302" s="327" t="s">
+    <row r="320" spans="1:10">
+      <c r="A320" s="333" t="s">
         <v>485</v>
       </c>
-      <c r="B302" s="328"/>
-      <c r="C302" s="328"/>
-      <c r="D302" s="328"/>
-      <c r="E302" s="328"/>
-      <c r="F302" s="329"/>
-    </row>
-    <row r="303" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A303" s="336" t="s">
+      <c r="B320" s="334"/>
+      <c r="C320" s="334"/>
+      <c r="D320" s="334"/>
+      <c r="E320" s="334"/>
+      <c r="F320" s="335"/>
+    </row>
+    <row r="321" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A321" s="342" t="s">
         <v>486</v>
       </c>
-      <c r="B303" s="331" t="s">
+      <c r="B321" s="337" t="s">
         <v>604</v>
       </c>
-      <c r="C303" s="332"/>
-      <c r="D303" s="337">
+      <c r="C321" s="338"/>
+      <c r="D321" s="343">
         <v>3</v>
       </c>
-      <c r="E303" s="258"/>
-      <c r="F303" s="253"/>
-    </row>
-    <row r="304" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A304" s="336"/>
-      <c r="B304" s="331" t="s">
+      <c r="E321" s="258"/>
+      <c r="F321" s="253"/>
+    </row>
+    <row r="322" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A322" s="342"/>
+      <c r="B322" s="337" t="s">
         <v>487</v>
       </c>
-      <c r="C304" s="332"/>
-      <c r="D304" s="337"/>
-      <c r="E304" s="258"/>
-      <c r="F304" s="253"/>
-    </row>
-    <row r="305" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A305" s="336"/>
-      <c r="B305" s="338" t="s">
+      <c r="C322" s="338"/>
+      <c r="D322" s="343"/>
+      <c r="E322" s="258"/>
+      <c r="F322" s="253"/>
+    </row>
+    <row r="323" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A323" s="342"/>
+      <c r="B323" s="344" t="s">
         <v>488</v>
       </c>
-      <c r="C305" s="339"/>
-      <c r="D305" s="337"/>
-      <c r="E305" s="196" t="s">
+      <c r="C323" s="345"/>
+      <c r="D323" s="343"/>
+      <c r="E323" s="196" t="s">
         <v>605</v>
       </c>
-      <c r="F305" s="197">
+      <c r="F323" s="197">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
-      <c r="H308" s="198"/>
-    </row>
-    <row r="309" spans="1:9" ht="15.75" thickBot="1">
-      <c r="H309" s="198"/>
-    </row>
-    <row r="310" spans="1:9" ht="18.75">
-      <c r="A310" s="318" t="s">
+    <row r="326" spans="1:9">
+      <c r="H326" s="198"/>
+    </row>
+    <row r="327" spans="1:9" ht="15.75" thickBot="1">
+      <c r="H327" s="198"/>
+    </row>
+    <row r="328" spans="1:9" ht="18.75">
+      <c r="A328" s="324" t="s">
         <v>606</v>
       </c>
-      <c r="B310" s="319"/>
-      <c r="C310" s="319"/>
-      <c r="D310" s="319"/>
-      <c r="E310" s="319"/>
-      <c r="F310" s="319"/>
-      <c r="G310" s="319"/>
-      <c r="H310" s="320"/>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="254" t="s">
+      <c r="B328" s="325"/>
+      <c r="C328" s="325"/>
+      <c r="D328" s="325"/>
+      <c r="E328" s="325"/>
+      <c r="F328" s="325"/>
+      <c r="G328" s="325"/>
+      <c r="H328" s="326"/>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="B311" s="161">
+      <c r="B329" s="161">
         <v>2020</v>
       </c>
-      <c r="C311" s="161">
+      <c r="C329" s="161">
         <v>2025</v>
       </c>
-      <c r="D311" s="161">
+      <c r="D329" s="161">
         <v>2030</v>
       </c>
-      <c r="E311" s="161">
+      <c r="E329" s="161">
         <v>2035</v>
       </c>
-      <c r="F311" s="161">
+      <c r="F329" s="161">
         <v>2040</v>
       </c>
-      <c r="G311" s="161">
+      <c r="G329" s="161">
         <v>2045</v>
       </c>
-      <c r="H311" s="162">
+      <c r="H329" s="162">
         <v>2050</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
-      <c r="A312" s="321" t="s">
+    <row r="330" spans="1:9">
+      <c r="A330" s="327" t="s">
         <v>472</v>
       </c>
-      <c r="B312" s="322"/>
-      <c r="C312" s="322"/>
-      <c r="D312" s="322"/>
-      <c r="E312" s="322"/>
-      <c r="F312" s="322"/>
-      <c r="G312" s="322"/>
-      <c r="H312" s="323"/>
-    </row>
-    <row r="313" spans="1:9">
-      <c r="A313" s="199" t="s">
+      <c r="B330" s="328"/>
+      <c r="C330" s="328"/>
+      <c r="D330" s="328"/>
+      <c r="E330" s="328"/>
+      <c r="F330" s="328"/>
+      <c r="G330" s="328"/>
+      <c r="H330" s="329"/>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" s="199" t="s">
         <v>607</v>
       </c>
-      <c r="B313" s="252">
+      <c r="B331" s="252">
         <v>18.8</v>
       </c>
-      <c r="C313" s="252">
+      <c r="C331" s="252">
         <v>16.131631500000001</v>
       </c>
-      <c r="D313" s="252">
+      <c r="D331" s="252">
         <v>13.486490999999999</v>
       </c>
-      <c r="E313" s="252">
+      <c r="E331" s="252">
         <v>10.841350500000001</v>
       </c>
-      <c r="F313" s="252">
+      <c r="F331" s="252">
         <v>8.1962100000000007</v>
       </c>
-      <c r="G313" s="252">
+      <c r="G331" s="252">
         <v>5.5510694999999997</v>
       </c>
-      <c r="H313" s="255">
+      <c r="H331" s="255">
         <v>2.9</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
-      <c r="A314" s="321" t="s">
+    <row r="332" spans="1:9">
+      <c r="A332" s="327" t="s">
         <v>479</v>
       </c>
-      <c r="B314" s="322"/>
-      <c r="C314" s="322"/>
-      <c r="D314" s="322"/>
-      <c r="E314" s="322"/>
-      <c r="F314" s="322"/>
-      <c r="G314" s="322"/>
-      <c r="H314" s="323"/>
-      <c r="I314" s="47"/>
-    </row>
-    <row r="315" spans="1:9">
-      <c r="A315" s="199" t="s">
+      <c r="B332" s="328"/>
+      <c r="C332" s="328"/>
+      <c r="D332" s="328"/>
+      <c r="E332" s="328"/>
+      <c r="F332" s="328"/>
+      <c r="G332" s="328"/>
+      <c r="H332" s="329"/>
+      <c r="I332" s="47"/>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" s="199" t="s">
         <v>607</v>
       </c>
-      <c r="B315" s="252">
+      <c r="B333" s="252">
         <v>13.3</v>
       </c>
-      <c r="C315" s="252">
+      <c r="C333" s="252">
         <v>11.390420000000001</v>
       </c>
-      <c r="D315" s="252">
+      <c r="D333" s="252">
         <v>9.5290400000000002</v>
       </c>
-      <c r="E315" s="252">
+      <c r="E333" s="252">
         <v>7.6676599999999997</v>
       </c>
-      <c r="F315" s="252">
+      <c r="F333" s="252">
         <v>5.8062800000000001</v>
       </c>
-      <c r="G315" s="252">
+      <c r="G333" s="252">
         <v>3.9449000000000001</v>
       </c>
-      <c r="H315" s="255">
+      <c r="H333" s="255">
         <v>2.1</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
-      <c r="A316" s="321" t="s">
+    <row r="334" spans="1:9">
+      <c r="A334" s="327" t="s">
         <v>485</v>
       </c>
-      <c r="B316" s="322"/>
-      <c r="C316" s="322"/>
-      <c r="D316" s="322"/>
-      <c r="E316" s="322"/>
-      <c r="F316" s="322"/>
-      <c r="G316" s="322"/>
-      <c r="H316" s="323"/>
-      <c r="I316" s="47"/>
-    </row>
-    <row r="317" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A317" s="200" t="s">
+      <c r="B334" s="328"/>
+      <c r="C334" s="328"/>
+      <c r="D334" s="328"/>
+      <c r="E334" s="328"/>
+      <c r="F334" s="328"/>
+      <c r="G334" s="328"/>
+      <c r="H334" s="329"/>
+      <c r="I334" s="47"/>
+    </row>
+    <row r="335" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A335" s="200" t="s">
         <v>607</v>
       </c>
-      <c r="B317" s="256">
+      <c r="B335" s="256">
         <v>2.4</v>
       </c>
-      <c r="C317" s="256">
+      <c r="C335" s="256">
         <v>2.0830000000000002</v>
       </c>
-      <c r="D317" s="256">
+      <c r="D335" s="256">
         <v>1.7689999999999999</v>
       </c>
-      <c r="E317" s="256">
+      <c r="E335" s="256">
         <v>1.4550000000000001</v>
       </c>
-      <c r="F317" s="256">
+      <c r="F335" s="256">
         <v>1.141</v>
       </c>
-      <c r="G317" s="256">
+      <c r="G335" s="256">
         <v>0.82699999999999996</v>
       </c>
-      <c r="H317" s="257">
+      <c r="H335" s="257">
         <v>0.5</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="319" spans="1:9" ht="18.75">
-      <c r="A319" s="313" t="s">
+    <row r="336" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="337" spans="1:10" ht="18.75">
+      <c r="A337" s="319" t="s">
         <v>624</v>
       </c>
-      <c r="B319" s="313"/>
-      <c r="C319" s="313"/>
-      <c r="D319" s="313"/>
-      <c r="E319" s="313"/>
-      <c r="F319" s="313"/>
-      <c r="G319" s="313"/>
-      <c r="H319" s="313"/>
-      <c r="I319" s="313"/>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="A320" s="264"/>
-      <c r="B320" s="193" t="s">
+      <c r="B337" s="319"/>
+      <c r="C337" s="319"/>
+      <c r="D337" s="319"/>
+      <c r="E337" s="319"/>
+      <c r="F337" s="319"/>
+      <c r="G337" s="319"/>
+      <c r="H337" s="319"/>
+      <c r="I337" s="319"/>
+    </row>
+    <row r="338" spans="1:10">
+      <c r="A338" s="264"/>
+      <c r="B338" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="C320" s="161">
+      <c r="C338" s="161">
         <v>2020</v>
       </c>
-      <c r="D320" s="161">
+      <c r="D338" s="161">
         <v>2025</v>
       </c>
-      <c r="E320" s="161">
+      <c r="E338" s="161">
         <v>2030</v>
       </c>
-      <c r="F320" s="161">
+      <c r="F338" s="161">
         <v>2035</v>
       </c>
-      <c r="G320" s="161">
+      <c r="G338" s="161">
         <v>2040</v>
       </c>
-      <c r="H320" s="161">
+      <c r="H338" s="161">
         <v>2045</v>
       </c>
-      <c r="I320" s="162">
+      <c r="I338" s="162">
         <v>2050</v>
       </c>
     </row>
-    <row r="321" spans="1:38">
-      <c r="A321" s="192" t="s">
+    <row r="339" spans="1:10">
+      <c r="A339" s="192" t="s">
         <v>608</v>
       </c>
-      <c r="B321" s="193" t="s">
+      <c r="B339" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="C321" s="162">
+      <c r="C339" s="162">
         <v>-0.01</v>
       </c>
-      <c r="D321" s="162">
+      <c r="D339" s="162">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="E321" s="162">
+      <c r="E339" s="162">
         <v>-1.6E-2</v>
       </c>
-      <c r="F321" s="162">
+      <c r="F339" s="162">
         <v>-1.9E-2</v>
       </c>
-      <c r="G321" s="162">
+      <c r="G339" s="162">
         <v>-2.3E-2</v>
       </c>
-      <c r="H321" s="162">
+      <c r="H339" s="162">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="I321" s="162">
+      <c r="I339" s="162">
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:38" ht="15.75" thickBot="1">
-      <c r="A322" s="201" t="s">
+    <row r="340" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A340" s="201" t="s">
         <v>609</v>
       </c>
-      <c r="B322" s="202" t="s">
+      <c r="B340" s="202" t="s">
         <v>327</v>
       </c>
-      <c r="C322" s="191">
-        <v>0</v>
-      </c>
-      <c r="D322" s="191">
-        <v>0</v>
-      </c>
-      <c r="E322" s="191">
-        <v>0</v>
-      </c>
-      <c r="F322" s="191">
-        <v>0</v>
-      </c>
-      <c r="G322" s="191">
-        <v>0</v>
-      </c>
-      <c r="H322" s="191">
-        <v>0</v>
-      </c>
-      <c r="I322" s="191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:38" ht="27" thickBot="1">
-      <c r="A326" s="160" t="s">
+      <c r="C340" s="191">
+        <v>0</v>
+      </c>
+      <c r="D340" s="191">
+        <v>0</v>
+      </c>
+      <c r="E340" s="191">
+        <v>0</v>
+      </c>
+      <c r="F340" s="191">
+        <v>0</v>
+      </c>
+      <c r="G340" s="191">
+        <v>0</v>
+      </c>
+      <c r="H340" s="191">
+        <v>0</v>
+      </c>
+      <c r="I340" s="191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" ht="27" thickBot="1">
+      <c r="A344" s="160" t="s">
         <v>623</v>
       </c>
-      <c r="H326" s="44"/>
-      <c r="J326" s="47"/>
-    </row>
-    <row r="327" spans="1:38" ht="18.75">
-      <c r="A327" s="324" t="s">
+      <c r="H344" s="44"/>
+      <c r="J344" s="47"/>
+    </row>
+    <row r="345" spans="1:10" ht="18.75">
+      <c r="A345" s="330" t="s">
         <v>610</v>
       </c>
-      <c r="B327" s="325"/>
-      <c r="C327" s="326"/>
-      <c r="H327" s="44"/>
-      <c r="J327" s="47"/>
-    </row>
-    <row r="328" spans="1:38">
-      <c r="A328" s="192" t="s">
+      <c r="B345" s="331"/>
+      <c r="C345" s="332"/>
+      <c r="H345" s="44"/>
+      <c r="J345" s="47"/>
+    </row>
+    <row r="346" spans="1:10">
+      <c r="A346" s="192" t="s">
         <v>416</v>
-      </c>
-      <c r="B328" s="193" t="s">
-        <v>28</v>
-      </c>
-      <c r="C328" s="162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:38">
-      <c r="A329" s="192" t="s">
-        <v>418</v>
-      </c>
-      <c r="B329" s="193" t="s">
-        <v>125</v>
-      </c>
-      <c r="C329" s="162">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="330" spans="1:38">
-      <c r="A330" s="192" t="s">
-        <v>420</v>
-      </c>
-      <c r="B330" s="193" t="s">
-        <v>611</v>
-      </c>
-      <c r="C330" s="265">
-        <v>7.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="331" spans="1:38">
-      <c r="A331" s="192" t="s">
-        <v>612</v>
-      </c>
-      <c r="B331" s="193" t="s">
-        <v>36</v>
-      </c>
-      <c r="C331" s="162">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="332" spans="1:38">
-      <c r="A332" s="192" t="s">
-        <v>424</v>
-      </c>
-      <c r="B332" s="193" t="s">
-        <v>613</v>
-      </c>
-      <c r="C332" s="162">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="333" spans="1:38">
-      <c r="A333" s="192" t="s">
-        <v>427</v>
-      </c>
-      <c r="B333" s="193" t="s">
-        <v>36</v>
-      </c>
-      <c r="C333" s="162">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="334" spans="1:38" ht="15.75" thickBot="1">
-      <c r="A334" s="201" t="s">
-        <v>428</v>
-      </c>
-      <c r="B334" s="202" t="s">
-        <v>36</v>
-      </c>
-      <c r="C334" s="186">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="335" spans="1:38" ht="15.75" thickBot="1"/>
-    <row r="336" spans="1:38" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A336" s="314" t="s">
-        <v>70</v>
-      </c>
-      <c r="B336" s="314"/>
-      <c r="C336" s="314"/>
-      <c r="F336" s="198"/>
-      <c r="G336" s="198"/>
-      <c r="H336" s="198"/>
-      <c r="I336" s="198"/>
-      <c r="J336" s="198"/>
-      <c r="K336" s="198"/>
-      <c r="L336" s="198"/>
-      <c r="M336" s="198"/>
-      <c r="N336" s="198"/>
-      <c r="O336" s="198"/>
-      <c r="P336" s="198"/>
-      <c r="Q336" s="198"/>
-      <c r="R336" s="198"/>
-      <c r="S336" s="198"/>
-      <c r="T336" s="198"/>
-      <c r="U336" s="198"/>
-      <c r="V336" s="198"/>
-      <c r="W336" s="198"/>
-      <c r="X336" s="198"/>
-      <c r="Y336" s="198"/>
-      <c r="Z336" s="198"/>
-      <c r="AA336" s="198"/>
-      <c r="AB336" s="198"/>
-      <c r="AC336" s="198"/>
-      <c r="AD336" s="198"/>
-      <c r="AE336" s="198"/>
-      <c r="AF336" s="198"/>
-      <c r="AG336" s="198"/>
-      <c r="AH336" s="198"/>
-      <c r="AI336" s="198"/>
-      <c r="AJ336" s="198"/>
-      <c r="AK336" s="198"/>
-      <c r="AL336" s="198"/>
-    </row>
-    <row r="337" spans="1:38">
-      <c r="A337" s="260" t="s">
-        <v>75</v>
-      </c>
-      <c r="B337" s="261" t="s">
-        <v>76</v>
-      </c>
-      <c r="C337" s="262">
-        <v>135</v>
-      </c>
-      <c r="F337" s="198"/>
-      <c r="G337" s="198"/>
-      <c r="H337" s="198"/>
-      <c r="I337" s="198"/>
-      <c r="J337" s="198"/>
-      <c r="K337" s="198"/>
-      <c r="L337" s="198"/>
-      <c r="M337" s="198"/>
-      <c r="N337" s="198"/>
-      <c r="O337" s="198"/>
-      <c r="P337" s="198"/>
-      <c r="Q337" s="198"/>
-      <c r="R337" s="198"/>
-      <c r="S337" s="198"/>
-      <c r="T337" s="198"/>
-      <c r="U337" s="198"/>
-      <c r="V337" s="198"/>
-      <c r="W337" s="198"/>
-      <c r="X337" s="198"/>
-      <c r="Y337" s="198"/>
-      <c r="Z337" s="198"/>
-      <c r="AA337" s="198"/>
-      <c r="AB337" s="198"/>
-      <c r="AC337" s="198"/>
-      <c r="AD337" s="198"/>
-      <c r="AE337" s="198"/>
-      <c r="AF337" s="198"/>
-      <c r="AG337" s="198"/>
-      <c r="AH337" s="198"/>
-      <c r="AI337" s="198"/>
-      <c r="AJ337" s="198"/>
-      <c r="AK337" s="198"/>
-      <c r="AL337" s="198"/>
-    </row>
-    <row r="338" spans="1:38">
-      <c r="A338" s="259" t="s">
-        <v>74</v>
-      </c>
-      <c r="B338" s="193" t="s">
-        <v>28</v>
-      </c>
-      <c r="C338" s="162">
-        <v>0.2</v>
-      </c>
-      <c r="F338" s="198"/>
-      <c r="G338" s="198"/>
-      <c r="H338" s="198"/>
-      <c r="I338" s="198"/>
-      <c r="J338" s="198"/>
-      <c r="K338" s="198"/>
-      <c r="L338" s="198"/>
-      <c r="M338" s="198"/>
-      <c r="N338" s="198"/>
-      <c r="O338" s="198"/>
-      <c r="P338" s="198"/>
-      <c r="Q338" s="198"/>
-      <c r="R338" s="198"/>
-      <c r="S338" s="198"/>
-      <c r="T338" s="198"/>
-      <c r="U338" s="198"/>
-      <c r="V338" s="198"/>
-      <c r="W338" s="198"/>
-      <c r="X338" s="198"/>
-      <c r="Y338" s="198"/>
-      <c r="Z338" s="198"/>
-      <c r="AA338" s="198"/>
-      <c r="AB338" s="198"/>
-      <c r="AC338" s="198"/>
-      <c r="AD338" s="198"/>
-      <c r="AE338" s="198"/>
-      <c r="AF338" s="198"/>
-      <c r="AG338" s="198"/>
-      <c r="AH338" s="198"/>
-      <c r="AI338" s="198"/>
-      <c r="AJ338" s="198"/>
-      <c r="AK338" s="198"/>
-      <c r="AL338" s="198"/>
-    </row>
-    <row r="339" spans="1:38">
-      <c r="A339" s="259" t="s">
-        <v>80</v>
-      </c>
-      <c r="B339" s="193" t="s">
-        <v>28</v>
-      </c>
-      <c r="C339" s="162">
-        <v>2020</v>
-      </c>
-      <c r="F339" s="198"/>
-      <c r="G339" s="198"/>
-      <c r="H339" s="198"/>
-      <c r="I339" s="198"/>
-      <c r="J339" s="198"/>
-      <c r="K339" s="198"/>
-      <c r="L339" s="198"/>
-      <c r="M339" s="198"/>
-      <c r="N339" s="198"/>
-      <c r="O339" s="198"/>
-      <c r="P339" s="198"/>
-      <c r="Q339" s="198"/>
-      <c r="R339" s="198"/>
-      <c r="S339" s="198"/>
-      <c r="T339" s="198"/>
-      <c r="U339" s="198"/>
-      <c r="V339" s="198"/>
-      <c r="W339" s="198"/>
-      <c r="X339" s="198"/>
-      <c r="Y339" s="198"/>
-      <c r="Z339" s="198"/>
-      <c r="AA339" s="198"/>
-      <c r="AB339" s="198"/>
-      <c r="AC339" s="198"/>
-      <c r="AD339" s="198"/>
-      <c r="AE339" s="198"/>
-      <c r="AF339" s="198"/>
-      <c r="AG339" s="198"/>
-      <c r="AH339" s="198"/>
-      <c r="AI339" s="198"/>
-      <c r="AJ339" s="198"/>
-      <c r="AK339" s="198"/>
-      <c r="AL339" s="198"/>
-    </row>
-    <row r="340" spans="1:38" ht="15.75" thickBot="1">
-      <c r="A340" s="263" t="s">
-        <v>83</v>
-      </c>
-      <c r="B340" s="202" t="s">
-        <v>28</v>
-      </c>
-      <c r="C340" s="186">
-        <v>2050</v>
-      </c>
-      <c r="F340" s="198"/>
-      <c r="G340" s="198"/>
-      <c r="H340" s="198"/>
-      <c r="I340" s="198"/>
-      <c r="J340" s="198"/>
-      <c r="K340" s="198"/>
-      <c r="L340" s="198"/>
-      <c r="M340" s="198"/>
-      <c r="N340" s="198"/>
-      <c r="O340" s="198"/>
-      <c r="P340" s="198"/>
-      <c r="Q340" s="198"/>
-      <c r="R340" s="198"/>
-      <c r="S340" s="198"/>
-      <c r="T340" s="198"/>
-      <c r="U340" s="198"/>
-      <c r="V340" s="198"/>
-      <c r="W340" s="198"/>
-      <c r="X340" s="198"/>
-      <c r="Y340" s="198"/>
-      <c r="Z340" s="198"/>
-      <c r="AA340" s="198"/>
-      <c r="AB340" s="198"/>
-      <c r="AC340" s="198"/>
-      <c r="AD340" s="198"/>
-      <c r="AE340" s="198"/>
-      <c r="AF340" s="198"/>
-      <c r="AG340" s="198"/>
-      <c r="AH340" s="198"/>
-      <c r="AI340" s="198"/>
-      <c r="AJ340" s="198"/>
-      <c r="AK340" s="198"/>
-      <c r="AL340" s="198"/>
-    </row>
-    <row r="342" spans="1:38" ht="15.75" thickBot="1"/>
-    <row r="343" spans="1:38" ht="18.75">
-      <c r="A343" s="314" t="s">
-        <v>86</v>
-      </c>
-      <c r="B343" s="314"/>
-      <c r="C343" s="314"/>
-    </row>
-    <row r="344" spans="1:38">
-      <c r="A344" s="259" t="s">
-        <v>89</v>
-      </c>
-      <c r="B344" s="193" t="s">
-        <v>28</v>
-      </c>
-      <c r="C344" s="191">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="345" spans="1:38">
-      <c r="A345" s="259" t="s">
-        <v>92</v>
-      </c>
-      <c r="B345" s="193" t="s">
-        <v>28</v>
-      </c>
-      <c r="C345" s="191">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="346" spans="1:38">
-      <c r="A346" s="259" t="s">
-        <v>93</v>
       </c>
       <c r="B346" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="C346" s="191">
+      <c r="C346" s="162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10">
+      <c r="A347" s="192" t="s">
+        <v>418</v>
+      </c>
+      <c r="B347" s="193" t="s">
+        <v>125</v>
+      </c>
+      <c r="C347" s="162">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10">
+      <c r="A348" s="192" t="s">
+        <v>420</v>
+      </c>
+      <c r="B348" s="193" t="s">
+        <v>611</v>
+      </c>
+      <c r="C348" s="265">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10">
+      <c r="A349" s="192" t="s">
+        <v>612</v>
+      </c>
+      <c r="B349" s="193" t="s">
+        <v>36</v>
+      </c>
+      <c r="C349" s="162">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10">
+      <c r="A350" s="192" t="s">
+        <v>424</v>
+      </c>
+      <c r="B350" s="193" t="s">
+        <v>613</v>
+      </c>
+      <c r="C350" s="162">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10">
+      <c r="A351" s="192" t="s">
+        <v>427</v>
+      </c>
+      <c r="B351" s="193" t="s">
+        <v>36</v>
+      </c>
+      <c r="C351" s="162">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A352" s="201" t="s">
+        <v>428</v>
+      </c>
+      <c r="B352" s="202" t="s">
+        <v>36</v>
+      </c>
+      <c r="C352" s="186">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="353" spans="1:38" ht="15.75" thickBot="1"/>
+    <row r="354" spans="1:38" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A354" s="320" t="s">
+        <v>70</v>
+      </c>
+      <c r="B354" s="320"/>
+      <c r="C354" s="320"/>
+      <c r="F354" s="198"/>
+      <c r="G354" s="198"/>
+      <c r="H354" s="198"/>
+      <c r="I354" s="198"/>
+      <c r="J354" s="198"/>
+      <c r="K354" s="198"/>
+      <c r="L354" s="198"/>
+      <c r="M354" s="198"/>
+      <c r="N354" s="198"/>
+      <c r="O354" s="198"/>
+      <c r="P354" s="198"/>
+      <c r="Q354" s="198"/>
+      <c r="R354" s="198"/>
+      <c r="S354" s="198"/>
+      <c r="T354" s="198"/>
+      <c r="U354" s="198"/>
+      <c r="V354" s="198"/>
+      <c r="W354" s="198"/>
+      <c r="X354" s="198"/>
+      <c r="Y354" s="198"/>
+      <c r="Z354" s="198"/>
+      <c r="AA354" s="198"/>
+      <c r="AB354" s="198"/>
+      <c r="AC354" s="198"/>
+      <c r="AD354" s="198"/>
+      <c r="AE354" s="198"/>
+      <c r="AF354" s="198"/>
+      <c r="AG354" s="198"/>
+      <c r="AH354" s="198"/>
+      <c r="AI354" s="198"/>
+      <c r="AJ354" s="198"/>
+      <c r="AK354" s="198"/>
+      <c r="AL354" s="198"/>
+    </row>
+    <row r="355" spans="1:38">
+      <c r="A355" s="260" t="s">
+        <v>75</v>
+      </c>
+      <c r="B355" s="261" t="s">
+        <v>76</v>
+      </c>
+      <c r="C355" s="262">
+        <v>135</v>
+      </c>
+      <c r="F355" s="198"/>
+      <c r="G355" s="198"/>
+      <c r="H355" s="198"/>
+      <c r="I355" s="198"/>
+      <c r="J355" s="198"/>
+      <c r="K355" s="198"/>
+      <c r="L355" s="198"/>
+      <c r="M355" s="198"/>
+      <c r="N355" s="198"/>
+      <c r="O355" s="198"/>
+      <c r="P355" s="198"/>
+      <c r="Q355" s="198"/>
+      <c r="R355" s="198"/>
+      <c r="S355" s="198"/>
+      <c r="T355" s="198"/>
+      <c r="U355" s="198"/>
+      <c r="V355" s="198"/>
+      <c r="W355" s="198"/>
+      <c r="X355" s="198"/>
+      <c r="Y355" s="198"/>
+      <c r="Z355" s="198"/>
+      <c r="AA355" s="198"/>
+      <c r="AB355" s="198"/>
+      <c r="AC355" s="198"/>
+      <c r="AD355" s="198"/>
+      <c r="AE355" s="198"/>
+      <c r="AF355" s="198"/>
+      <c r="AG355" s="198"/>
+      <c r="AH355" s="198"/>
+      <c r="AI355" s="198"/>
+      <c r="AJ355" s="198"/>
+      <c r="AK355" s="198"/>
+      <c r="AL355" s="198"/>
+    </row>
+    <row r="356" spans="1:38">
+      <c r="A356" s="259" t="s">
+        <v>74</v>
+      </c>
+      <c r="B356" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C356" s="162">
+        <v>0.2</v>
+      </c>
+      <c r="F356" s="198"/>
+      <c r="G356" s="198"/>
+      <c r="H356" s="198"/>
+      <c r="I356" s="198"/>
+      <c r="J356" s="198"/>
+      <c r="K356" s="198"/>
+      <c r="L356" s="198"/>
+      <c r="M356" s="198"/>
+      <c r="N356" s="198"/>
+      <c r="O356" s="198"/>
+      <c r="P356" s="198"/>
+      <c r="Q356" s="198"/>
+      <c r="R356" s="198"/>
+      <c r="S356" s="198"/>
+      <c r="T356" s="198"/>
+      <c r="U356" s="198"/>
+      <c r="V356" s="198"/>
+      <c r="W356" s="198"/>
+      <c r="X356" s="198"/>
+      <c r="Y356" s="198"/>
+      <c r="Z356" s="198"/>
+      <c r="AA356" s="198"/>
+      <c r="AB356" s="198"/>
+      <c r="AC356" s="198"/>
+      <c r="AD356" s="198"/>
+      <c r="AE356" s="198"/>
+      <c r="AF356" s="198"/>
+      <c r="AG356" s="198"/>
+      <c r="AH356" s="198"/>
+      <c r="AI356" s="198"/>
+      <c r="AJ356" s="198"/>
+      <c r="AK356" s="198"/>
+      <c r="AL356" s="198"/>
+    </row>
+    <row r="357" spans="1:38">
+      <c r="A357" s="259" t="s">
+        <v>80</v>
+      </c>
+      <c r="B357" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C357" s="162">
+        <v>2020</v>
+      </c>
+      <c r="F357" s="198"/>
+      <c r="G357" s="198"/>
+      <c r="H357" s="198"/>
+      <c r="I357" s="198"/>
+      <c r="J357" s="198"/>
+      <c r="K357" s="198"/>
+      <c r="L357" s="198"/>
+      <c r="M357" s="198"/>
+      <c r="N357" s="198"/>
+      <c r="O357" s="198"/>
+      <c r="P357" s="198"/>
+      <c r="Q357" s="198"/>
+      <c r="R357" s="198"/>
+      <c r="S357" s="198"/>
+      <c r="T357" s="198"/>
+      <c r="U357" s="198"/>
+      <c r="V357" s="198"/>
+      <c r="W357" s="198"/>
+      <c r="X357" s="198"/>
+      <c r="Y357" s="198"/>
+      <c r="Z357" s="198"/>
+      <c r="AA357" s="198"/>
+      <c r="AB357" s="198"/>
+      <c r="AC357" s="198"/>
+      <c r="AD357" s="198"/>
+      <c r="AE357" s="198"/>
+      <c r="AF357" s="198"/>
+      <c r="AG357" s="198"/>
+      <c r="AH357" s="198"/>
+      <c r="AI357" s="198"/>
+      <c r="AJ357" s="198"/>
+      <c r="AK357" s="198"/>
+      <c r="AL357" s="198"/>
+    </row>
+    <row r="358" spans="1:38" ht="15.75" thickBot="1">
+      <c r="A358" s="263" t="s">
+        <v>83</v>
+      </c>
+      <c r="B358" s="202" t="s">
+        <v>28</v>
+      </c>
+      <c r="C358" s="186">
+        <v>2050</v>
+      </c>
+      <c r="F358" s="198"/>
+      <c r="G358" s="198"/>
+      <c r="H358" s="198"/>
+      <c r="I358" s="198"/>
+      <c r="J358" s="198"/>
+      <c r="K358" s="198"/>
+      <c r="L358" s="198"/>
+      <c r="M358" s="198"/>
+      <c r="N358" s="198"/>
+      <c r="O358" s="198"/>
+      <c r="P358" s="198"/>
+      <c r="Q358" s="198"/>
+      <c r="R358" s="198"/>
+      <c r="S358" s="198"/>
+      <c r="T358" s="198"/>
+      <c r="U358" s="198"/>
+      <c r="V358" s="198"/>
+      <c r="W358" s="198"/>
+      <c r="X358" s="198"/>
+      <c r="Y358" s="198"/>
+      <c r="Z358" s="198"/>
+      <c r="AA358" s="198"/>
+      <c r="AB358" s="198"/>
+      <c r="AC358" s="198"/>
+      <c r="AD358" s="198"/>
+      <c r="AE358" s="198"/>
+      <c r="AF358" s="198"/>
+      <c r="AG358" s="198"/>
+      <c r="AH358" s="198"/>
+      <c r="AI358" s="198"/>
+      <c r="AJ358" s="198"/>
+      <c r="AK358" s="198"/>
+      <c r="AL358" s="198"/>
+    </row>
+    <row r="360" spans="1:38" ht="15.75" thickBot="1"/>
+    <row r="361" spans="1:38" ht="18.75">
+      <c r="A361" s="320" t="s">
+        <v>86</v>
+      </c>
+      <c r="B361" s="320"/>
+      <c r="C361" s="320"/>
+    </row>
+    <row r="362" spans="1:38">
+      <c r="A362" s="259" t="s">
+        <v>89</v>
+      </c>
+      <c r="B362" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C362" s="191">
         <v>0.5</v>
       </c>
     </row>
-    <row r="347" spans="1:38" ht="15.75" thickBot="1">
-      <c r="A347" s="263" t="s">
+    <row r="363" spans="1:38">
+      <c r="A363" s="259" t="s">
+        <v>92</v>
+      </c>
+      <c r="B363" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C363" s="191">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:38">
+      <c r="A364" s="259" t="s">
+        <v>93</v>
+      </c>
+      <c r="B364" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C364" s="191">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:38" ht="15.75" thickBot="1">
+      <c r="A365" s="263" t="s">
         <v>118</v>
       </c>
-      <c r="B347" s="202" t="s">
+      <c r="B365" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="C347" s="266">
+      <c r="C365" s="266">
         <v>0.5</v>
       </c>
     </row>
-    <row r="348" spans="1:38" ht="15.75" thickBot="1"/>
-    <row r="349" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A349" s="314" t="s">
+    <row r="366" spans="1:38" ht="15.75" thickBot="1"/>
+    <row r="367" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A367" s="320" t="s">
         <v>614</v>
       </c>
-      <c r="B349" s="314"/>
-      <c r="C349" s="267" t="s">
+      <c r="B367" s="320"/>
+      <c r="C367" s="267" t="s">
         <v>558</v>
       </c>
-      <c r="D349" s="268" t="s">
+      <c r="D367" s="268" t="s">
         <v>561</v>
       </c>
-      <c r="E349" s="268" t="s">
+      <c r="E367" s="268" t="s">
         <v>562</v>
       </c>
-      <c r="F349" s="268" t="s">
+      <c r="F367" s="268" t="s">
         <v>563</v>
       </c>
-      <c r="G349" s="268" t="s">
+      <c r="G367" s="268" t="s">
         <v>564</v>
       </c>
-      <c r="H349" s="268" t="s">
+      <c r="H367" s="268" t="s">
         <v>565</v>
       </c>
-      <c r="I349" s="268" t="s">
+      <c r="I367" s="268" t="s">
         <v>566</v>
       </c>
-      <c r="J349" s="268" t="s">
+      <c r="J367" s="268" t="s">
         <v>567</v>
       </c>
-      <c r="K349" s="268" t="s">
+      <c r="K367" s="268" t="s">
         <v>354</v>
       </c>
-      <c r="L349" s="268" t="s">
+      <c r="L367" s="268" t="s">
         <v>568</v>
       </c>
-      <c r="M349" s="268" t="s">
+      <c r="M367" s="268" t="s">
         <v>569</v>
       </c>
-      <c r="N349" s="268" t="s">
+      <c r="N367" s="268" t="s">
         <v>570</v>
       </c>
-      <c r="O349" s="268" t="s">
+      <c r="O367" s="268" t="s">
         <v>571</v>
       </c>
-      <c r="P349" s="268" t="s">
+      <c r="P367" s="268" t="s">
         <v>572</v>
       </c>
-      <c r="Q349" s="269" t="s">
+      <c r="Q367" s="269" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="350" spans="1:38">
-      <c r="A350" s="259" t="s">
+    <row r="368" spans="1:38">
+      <c r="A368" s="259" t="s">
         <v>615</v>
       </c>
-      <c r="B350" s="315" t="s">
+      <c r="B368" s="321" t="s">
         <v>374</v>
       </c>
-      <c r="C350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P350" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q350" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="351" spans="1:38">
-      <c r="A351" s="259" t="s">
+      <c r="C368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P368" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q368" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17">
+      <c r="A369" s="259" t="s">
         <v>617</v>
       </c>
-      <c r="B351" s="316"/>
-      <c r="C351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P351" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q351" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="352" spans="1:38">
-      <c r="A352" s="259" t="s">
-        <v>618</v>
-      </c>
-      <c r="B352" s="316"/>
-      <c r="C352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P352" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q352" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="353" spans="1:17">
-      <c r="A353" s="259" t="s">
-        <v>619</v>
-      </c>
-      <c r="B353" s="316"/>
-      <c r="C353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P353" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q353" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="354" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A354" s="259" t="s">
-        <v>620</v>
-      </c>
-      <c r="B354" s="317"/>
-      <c r="C354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P354" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q354" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="355" spans="1:17">
-      <c r="A355" s="259" t="s">
-        <v>615</v>
-      </c>
-      <c r="B355" s="315" t="s">
-        <v>375</v>
-      </c>
-      <c r="C355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P355" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q355" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="356" spans="1:17">
-      <c r="A356" s="259" t="s">
-        <v>617</v>
-      </c>
-      <c r="B356" s="316"/>
-      <c r="C356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P356" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q356" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="357" spans="1:17">
-      <c r="A357" s="259" t="s">
-        <v>618</v>
-      </c>
-      <c r="B357" s="316"/>
-      <c r="C357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P357" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q357" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="358" spans="1:17">
-      <c r="A358" s="259" t="s">
-        <v>619</v>
-      </c>
-      <c r="B358" s="316"/>
-      <c r="C358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P358" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q358" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="359" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A359" s="259" t="s">
-        <v>620</v>
-      </c>
-      <c r="B359" s="317"/>
-      <c r="C359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P359" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q359" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="360" spans="1:17">
-      <c r="A360" s="259" t="s">
-        <v>621</v>
-      </c>
-      <c r="B360" s="315" t="s">
-        <v>376</v>
-      </c>
-      <c r="C360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P360" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q360" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="361" spans="1:17">
-      <c r="A361" s="259" t="s">
-        <v>617</v>
-      </c>
-      <c r="B361" s="316"/>
-      <c r="C361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P361" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q361" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="362" spans="1:17">
-      <c r="A362" s="259" t="s">
-        <v>618</v>
-      </c>
-      <c r="B362" s="316"/>
-      <c r="C362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P362" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q362" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="363" spans="1:17">
-      <c r="A363" s="259" t="s">
-        <v>619</v>
-      </c>
-      <c r="B363" s="316"/>
-      <c r="C363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P363" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q363" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="364" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A364" s="259" t="s">
-        <v>620</v>
-      </c>
-      <c r="B364" s="317"/>
-      <c r="C364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P364" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q364" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="365" spans="1:17">
-      <c r="A365" s="259" t="s">
-        <v>615</v>
-      </c>
-      <c r="B365" s="315" t="s">
-        <v>377</v>
-      </c>
-      <c r="C365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P365" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q365" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="366" spans="1:17">
-      <c r="A366" s="259" t="s">
-        <v>617</v>
-      </c>
-      <c r="B366" s="316"/>
-      <c r="C366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P366" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q366" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="367" spans="1:17">
-      <c r="A367" s="259" t="s">
-        <v>618</v>
-      </c>
-      <c r="B367" s="316"/>
-      <c r="C367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P367" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q367" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="368" spans="1:17">
-      <c r="A368" s="259" t="s">
-        <v>619</v>
-      </c>
-      <c r="B368" s="316"/>
-      <c r="C368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P368" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q368" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="369" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A369" s="259" t="s">
-        <v>620</v>
-      </c>
-      <c r="B369" s="317"/>
+      <c r="B369" s="322"/>
       <c r="C369" s="162" t="s">
         <v>616</v>
       </c>
@@ -28311,11 +27951,9 @@
     </row>
     <row r="370" spans="1:17">
       <c r="A370" s="259" t="s">
-        <v>615</v>
-      </c>
-      <c r="B370" s="315" t="s">
-        <v>378</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="B370" s="322"/>
       <c r="C370" s="162" t="s">
         <v>616</v>
       </c>
@@ -28364,9 +28002,9 @@
     </row>
     <row r="371" spans="1:17">
       <c r="A371" s="259" t="s">
-        <v>617</v>
-      </c>
-      <c r="B371" s="316"/>
+        <v>619</v>
+      </c>
+      <c r="B371" s="322"/>
       <c r="C371" s="162" t="s">
         <v>616</v>
       </c>
@@ -28413,11 +28051,11 @@
         <v>616</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" ht="15.75" thickBot="1">
       <c r="A372" s="259" t="s">
-        <v>618</v>
-      </c>
-      <c r="B372" s="316"/>
+        <v>620</v>
+      </c>
+      <c r="B372" s="323"/>
       <c r="C372" s="162" t="s">
         <v>616</v>
       </c>
@@ -28466,108 +28104,1034 @@
     </row>
     <row r="373" spans="1:17">
       <c r="A373" s="259" t="s">
+        <v>615</v>
+      </c>
+      <c r="B373" s="321" t="s">
+        <v>375</v>
+      </c>
+      <c r="C373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P373" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q373" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17">
+      <c r="A374" s="259" t="s">
+        <v>617</v>
+      </c>
+      <c r="B374" s="322"/>
+      <c r="C374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P374" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q374" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17">
+      <c r="A375" s="259" t="s">
+        <v>618</v>
+      </c>
+      <c r="B375" s="322"/>
+      <c r="C375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P375" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q375" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17">
+      <c r="A376" s="259" t="s">
         <v>619</v>
       </c>
-      <c r="B373" s="316"/>
-      <c r="C373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="D373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="E373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="F373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="G373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="H373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="I373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="J373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="K373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="L373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="M373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="N373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="O373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="P373" s="162" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q373" s="162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="374" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A374" s="263" t="s">
+      <c r="B376" s="322"/>
+      <c r="C376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P376" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q376" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A377" s="259" t="s">
         <v>620</v>
       </c>
-      <c r="B374" s="317"/>
-      <c r="C374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="D374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="E374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="F374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="G374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="H374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="I374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="J374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="K374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="L374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="M374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="N374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="O374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="P374" s="186" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q374" s="186" t="s">
+      <c r="B377" s="323"/>
+      <c r="C377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P377" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q377" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17">
+      <c r="A378" s="259" t="s">
+        <v>621</v>
+      </c>
+      <c r="B378" s="321" t="s">
+        <v>376</v>
+      </c>
+      <c r="C378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P378" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q378" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17">
+      <c r="A379" s="259" t="s">
+        <v>617</v>
+      </c>
+      <c r="B379" s="322"/>
+      <c r="C379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P379" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q379" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17">
+      <c r="A380" s="259" t="s">
+        <v>618</v>
+      </c>
+      <c r="B380" s="322"/>
+      <c r="C380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P380" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q380" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17">
+      <c r="A381" s="259" t="s">
+        <v>619</v>
+      </c>
+      <c r="B381" s="322"/>
+      <c r="C381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P381" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q381" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A382" s="259" t="s">
+        <v>620</v>
+      </c>
+      <c r="B382" s="323"/>
+      <c r="C382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P382" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q382" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17">
+      <c r="A383" s="259" t="s">
+        <v>615</v>
+      </c>
+      <c r="B383" s="321" t="s">
+        <v>377</v>
+      </c>
+      <c r="C383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P383" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q383" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17">
+      <c r="A384" s="259" t="s">
+        <v>617</v>
+      </c>
+      <c r="B384" s="322"/>
+      <c r="C384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P384" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q384" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17">
+      <c r="A385" s="259" t="s">
+        <v>618</v>
+      </c>
+      <c r="B385" s="322"/>
+      <c r="C385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P385" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q385" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17">
+      <c r="A386" s="259" t="s">
+        <v>619</v>
+      </c>
+      <c r="B386" s="322"/>
+      <c r="C386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P386" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q386" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A387" s="259" t="s">
+        <v>620</v>
+      </c>
+      <c r="B387" s="323"/>
+      <c r="C387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P387" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q387" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17">
+      <c r="A388" s="259" t="s">
+        <v>615</v>
+      </c>
+      <c r="B388" s="321" t="s">
+        <v>378</v>
+      </c>
+      <c r="C388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P388" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q388" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17">
+      <c r="A389" s="259" t="s">
+        <v>617</v>
+      </c>
+      <c r="B389" s="322"/>
+      <c r="C389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P389" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q389" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17">
+      <c r="A390" s="259" t="s">
+        <v>618</v>
+      </c>
+      <c r="B390" s="322"/>
+      <c r="C390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P390" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q390" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17">
+      <c r="A391" s="259" t="s">
+        <v>619</v>
+      </c>
+      <c r="B391" s="322"/>
+      <c r="C391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="D391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="E391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="F391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="G391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="H391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="I391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="J391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="K391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="L391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="M391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="N391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="O391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="P391" s="162" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q391" s="162" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A392" s="263" t="s">
+        <v>620</v>
+      </c>
+      <c r="B392" s="323"/>
+      <c r="C392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="D392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="E392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="F392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="G392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="H392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="I392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="J392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="K392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="L392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="M392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="N392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="O392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="P392" s="186" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q392" s="186" t="s">
         <v>616</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="149">
     <mergeCell ref="G170:H170"/>
     <mergeCell ref="I170:J170"/>
     <mergeCell ref="K170:L170"/>
@@ -28678,44 +29242,45 @@
     <mergeCell ref="A265:A268"/>
     <mergeCell ref="C265:C268"/>
     <mergeCell ref="A273:I273"/>
-    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="A311:F311"/>
     <mergeCell ref="C234:E234"/>
     <mergeCell ref="A255:C255"/>
     <mergeCell ref="A261:C261"/>
     <mergeCell ref="A264:C264"/>
     <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A294:F294"/>
-    <mergeCell ref="A295:A297"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="D295:D297"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="A314:H314"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A302:F302"/>
-    <mergeCell ref="A299:A301"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="D299:D301"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="A303:A305"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="D303:D305"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="A319:I319"/>
-    <mergeCell ref="A349:B349"/>
-    <mergeCell ref="B350:B354"/>
-    <mergeCell ref="B355:B359"/>
-    <mergeCell ref="B360:B364"/>
-    <mergeCell ref="B365:B369"/>
-    <mergeCell ref="B370:B374"/>
-    <mergeCell ref="A310:H310"/>
-    <mergeCell ref="A312:H312"/>
-    <mergeCell ref="A316:H316"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A306:I306"/>
+    <mergeCell ref="A312:F312"/>
+    <mergeCell ref="A313:A315"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="D313:D315"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="A332:H332"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A320:F320"/>
+    <mergeCell ref="A317:A319"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="D317:D319"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="A321:A323"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="D321:D323"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="A337:I337"/>
+    <mergeCell ref="A367:B367"/>
+    <mergeCell ref="B368:B372"/>
+    <mergeCell ref="B373:B377"/>
+    <mergeCell ref="B378:B382"/>
+    <mergeCell ref="B383:B387"/>
+    <mergeCell ref="B388:B392"/>
+    <mergeCell ref="A328:H328"/>
+    <mergeCell ref="A330:H330"/>
+    <mergeCell ref="A334:H334"/>
+    <mergeCell ref="A361:C361"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="A345:C345"/>
   </mergeCells>
   <conditionalFormatting sqref="C208:Q212">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
